--- a/DOC/基本設計/社内管理_⑧社員情報変更.xlsx
+++ b/DOC/基本設計/社内管理_⑧社員情報変更.xlsx
@@ -5,29 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fenhn\git\ems\DOC\基本設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\softtech\workspace\ems\DOC\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874DA75A-31EC-4FE3-84BD-42C2AE6B1B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81523E0-3123-45E1-80BF-C652F8F3844F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="833" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="履歴一覧" sheetId="8" r:id="rId1"/>
-    <sheet name="詳細　編集中" sheetId="7" r:id="rId2"/>
-    <sheet name="社員情報変更" sheetId="10" r:id="rId3"/>
+    <sheet name="社員情報変更" sheetId="10" r:id="rId2"/>
+    <sheet name="詳細　編集中" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="114">
   <si>
     <t>機能名称：</t>
     <rPh sb="0" eb="2">
@@ -432,16 +439,6 @@
     <t>郭 煥光</t>
     <rPh sb="0" eb="4">
       <t>ｇｈｇ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　社内管理システム_給料明細</t>
-    <rPh sb="11" eb="13">
-      <t>キュウリョウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>メイサイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -737,12 +734,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;半角英数字&gt;</t>
-  </si>
-  <si>
-    <t>&lt;半角数字&gt;</t>
-  </si>
-  <si>
     <t>機能</t>
   </si>
   <si>
@@ -838,6 +829,450 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　　社内管理システム_</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>給料明細</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 社員情報変更</t>
+    </r>
+    <rPh sb="11" eb="13">
+      <t>キュウリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>メイサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;半角数字&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">半角英数字 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全角漢字カナ？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;半角数字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>桁数？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t>ケタスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>半角英数字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全角（漢字、カナ、記号、数字混在と考えられる？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コンザイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面レイアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面入出力項目一覧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本設計書ポイント（画面設計）</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面アクション定義</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　表示桁数：表示桁数</t>
+  </si>
+  <si>
+    <t>　入力桁数：入力可能な最大桁数</t>
+  </si>
+  <si>
+    <t>　データ型：データ型を記述（文字列や数値）</t>
+  </si>
+  <si>
+    <t>　文字種　：全角または半角</t>
+  </si>
+  <si>
+    <t>　入力制約：値範囲や入力文字制約等</t>
+  </si>
+  <si>
+    <t>　初期表示：初期表示有無、表示値</t>
+  </si>
+  <si>
+    <t>　必須入力：必須かどうか</t>
+  </si>
+  <si>
+    <t>　入力制御：入力無効（disabled）制御</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　出力仕様：計算式、色装飾等</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上書き保存</t>
+    <rPh sb="0" eb="2">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例えば：</t>
+    <rPh sb="0" eb="1">
+      <t>タト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクション名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上書き保存ボタンを押下</t>
+    <rPh sb="0" eb="2">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理概要</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力される社員の基本情報を変更する</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①入力される社員のXX情報をチェックする</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②該当する社員情報を検索する</t>
+    <rPh sb="1" eb="3">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③一致する場合入力する情報をDBに保存する社員情報を上書きする</t>
+    <rPh sb="1" eb="3">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ウワガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部品種類・有効化・入力制約・表示桁数・データ型・文字種類・入力制約・初期表示・出力仕様・必須　など</t>
+    <rPh sb="0" eb="2">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ユウコウカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイヤク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セイヤク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　部品種類：テキスト・チェックボックスなど</t>
+    <rPh sb="1" eb="3">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -846,7 +1281,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -946,8 +1381,72 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -966,6 +1465,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="29">
     <border>
@@ -1301,7 +1806,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1353,20 +1858,164 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1380,163 +2029,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1559,6 +2097,71 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矢印: 左 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47DDDD68-F199-46A7-B736-33972499BAE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6981825" y="1343025"/>
+          <a:ext cx="1095375" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1824,25 +2427,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AB53DF-E8BA-47CC-8721-438E7B83EC4E}">
-  <dimension ref="B2:E17"/>
+  <dimension ref="B2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" customWidth="1"/>
-    <col min="2" max="2" width="4.8984375" customWidth="1"/>
-    <col min="3" max="3" width="63.8984375" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="4.875" customWidth="1"/>
+    <col min="3" max="3" width="63.875" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="13" t="s">
         <v>27</v>
       </c>
@@ -1856,7 +2462,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B4" s="14">
         <v>1</v>
       </c>
@@ -1869,96 +2475,103 @@
       <c r="E4" s="14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B5" s="17">
+      <c r="F4" s="74">
+        <v>44512</v>
+      </c>
+      <c r="G4" s="75" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B5" s="77">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="78">
+        <v>43967</v>
+      </c>
+      <c r="E5" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="18">
-        <v>43967</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B6" s="16">
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B6" s="79">
         <v>3</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="58">
+      <c r="C6" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="80">
         <v>44512</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E6" s="79" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="H9" s="76"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -1972,111 +2585,1325 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D883F4CD-48AF-4324-BF9C-B51BE4DB446F}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:AK39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="72">
+        <v>44512</v>
+      </c>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+    </row>
+    <row r="2" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+    </row>
+    <row r="3" spans="1:37" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="49"/>
+    </row>
+    <row r="4" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="C4" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="23"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="30"/>
+    </row>
+    <row r="5" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="1"/>
+      <c r="C5" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="25"/>
+      <c r="Z5" s="10"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="30"/>
+    </row>
+    <row r="6" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="1"/>
+      <c r="C6" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="56"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="25"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD6" s="82"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="30"/>
+    </row>
+    <row r="7" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="1"/>
+      <c r="C7" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="25"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="34"/>
+      <c r="AC7" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD7" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="30"/>
+    </row>
+    <row r="8" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1"/>
+      <c r="C8" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="25"/>
+      <c r="Z8" s="10"/>
+      <c r="AC8" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD8" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="30"/>
+    </row>
+    <row r="9" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="1"/>
+      <c r="C9" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="25"/>
+      <c r="Z9" s="10"/>
+      <c r="AD9" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="30"/>
+    </row>
+    <row r="10" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="1"/>
+      <c r="C10" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="61">
+        <v>34951</v>
+      </c>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="25"/>
+      <c r="Z10" s="10"/>
+      <c r="AH10" s="30"/>
+      <c r="AJ10" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK10" s="82"/>
+    </row>
+    <row r="11" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="1"/>
+      <c r="C11" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="62"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="25"/>
+      <c r="Z11" s="10"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="30"/>
+      <c r="AJ11" s="83" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK11" s="82"/>
+    </row>
+    <row r="12" spans="1:37" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="C12" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="66"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="25"/>
+      <c r="Z12" s="10"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="30"/>
+      <c r="AJ12" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK12" s="82"/>
+    </row>
+    <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="C13" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="25"/>
+      <c r="Z13" s="10"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="30"/>
+      <c r="AJ13" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK13" s="82"/>
+    </row>
+    <row r="14" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="1"/>
+      <c r="C14" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="25"/>
+      <c r="Z14" s="10"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="30"/>
+      <c r="AJ14" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK14" s="82"/>
+    </row>
+    <row r="15" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="1"/>
+      <c r="C15" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="25"/>
+      <c r="Z15" s="10"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="30"/>
+      <c r="AJ15" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK15" s="82"/>
+    </row>
+    <row r="16" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="1"/>
+      <c r="C16" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="25"/>
+      <c r="Z16" s="10"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="30"/>
+      <c r="AJ16" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK16" s="82"/>
+    </row>
+    <row r="17" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="1"/>
+      <c r="C17" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="30"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="30"/>
+      <c r="AJ17" s="82" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK17" s="82"/>
+    </row>
+    <row r="18" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="1"/>
+      <c r="C18" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="30"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="30"/>
+      <c r="AJ18" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK18" s="82"/>
+    </row>
+    <row r="19" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="1"/>
+      <c r="C19" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="30"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="30"/>
+      <c r="AJ19" s="82" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="30"/>
+      <c r="AH20" s="30"/>
+    </row>
+    <row r="21" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="36"/>
+      <c r="C21" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="30"/>
+      <c r="AH21" s="30"/>
+    </row>
+    <row r="22" spans="1:37" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="31"/>
+      <c r="C22" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="30"/>
+      <c r="AH22" s="30"/>
+    </row>
+    <row r="23" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C23" s="42"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="30"/>
+      <c r="AH23" s="30"/>
+    </row>
+    <row r="24" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C24" s="42"/>
+      <c r="D24" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="30"/>
+      <c r="AH24" s="30"/>
+    </row>
+    <row r="25" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="30"/>
+      <c r="AH25" s="30"/>
+    </row>
+    <row r="26" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="30"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="26"/>
+    </row>
+    <row r="27" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="32"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC27" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD27" s="82"/>
+      <c r="AE27" s="85"/>
+      <c r="AF27" s="82"/>
+      <c r="AG27" s="85"/>
+      <c r="AH27" s="30"/>
+    </row>
+    <row r="28" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="10"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC28" s="82"/>
+      <c r="AD28" s="85"/>
+      <c r="AE28" s="85"/>
+      <c r="AF28" s="82"/>
+      <c r="AG28" s="85"/>
+      <c r="AH28" s="30"/>
+    </row>
+    <row r="29" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="10"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD29" s="85"/>
+      <c r="AE29" s="82"/>
+      <c r="AF29" s="89">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="85"/>
+      <c r="AH29" s="30"/>
+    </row>
+    <row r="30" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="10"/>
+      <c r="B30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC30" s="85"/>
+      <c r="AD30" s="85"/>
+      <c r="AE30" s="85"/>
+      <c r="AF30" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG30" s="85"/>
+      <c r="AH30" s="30"/>
+    </row>
+    <row r="31" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="10"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC31" s="85"/>
+      <c r="AD31" s="85"/>
+      <c r="AE31" s="85"/>
+      <c r="AF31" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG31" s="85"/>
+      <c r="AH31" s="30"/>
+    </row>
+    <row r="32" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="10"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC32" s="85"/>
+      <c r="AD32" s="85"/>
+      <c r="AE32" s="85"/>
+      <c r="AF32" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG32" s="85"/>
+      <c r="AH32" s="30"/>
+    </row>
+    <row r="33" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="11"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC33" s="85"/>
+      <c r="AD33" s="85"/>
+      <c r="AE33" s="85"/>
+      <c r="AF33" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG33" s="88"/>
+      <c r="AH33" s="26"/>
+    </row>
+    <row r="34" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AB34" s="85"/>
+      <c r="AC34" s="85"/>
+      <c r="AD34" s="85"/>
+      <c r="AE34" s="85"/>
+      <c r="AF34" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG34" s="85"/>
+    </row>
+    <row r="35" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AB35" s="85"/>
+      <c r="AC35" s="85"/>
+      <c r="AD35" s="85"/>
+      <c r="AE35" s="85"/>
+      <c r="AF35" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG35" s="85"/>
+    </row>
+    <row r="36" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+    </row>
+    <row r="37" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="2"/>
+    </row>
+    <row r="38" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="2"/>
+    </row>
+    <row r="39" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AC1:AH1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AH2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="63" width="3.59765625" customWidth="1"/>
+    <col min="1" max="63" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:34" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="22" t="s">
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="24" t="s">
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+    </row>
+    <row r="2" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-    </row>
-    <row r="2" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25" t="s">
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-    </row>
-    <row r="3" spans="1:34" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+    </row>
+    <row r="3" spans="1:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2114,7 +3941,7 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="3"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -2152,7 +3979,7 @@
       <c r="AG4" s="2"/>
       <c r="AH4" s="3"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
@@ -2192,7 +4019,7 @@
       <c r="AG5" s="2"/>
       <c r="AH5" s="3"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
@@ -2232,7 +4059,7 @@
       <c r="AG6" s="2"/>
       <c r="AH6" s="3"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2270,7 +4097,7 @@
       <c r="AG7" s="2"/>
       <c r="AH7" s="3"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="2"/>
@@ -2308,7 +4135,7 @@
       <c r="AG8" s="2"/>
       <c r="AH8" s="3"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="8"/>
       <c r="C9" s="2"/>
@@ -2346,7 +4173,7 @@
       <c r="AG9" s="2"/>
       <c r="AH9" s="3"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="8"/>
       <c r="C10" s="2"/>
@@ -2384,7 +4211,7 @@
       <c r="AG10" s="2"/>
       <c r="AH10" s="3"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="8"/>
       <c r="C11" s="2"/>
@@ -2422,7 +4249,7 @@
       <c r="AG11" s="2"/>
       <c r="AH11" s="3"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="8"/>
       <c r="C12" s="2"/>
@@ -2460,7 +4287,7 @@
       <c r="AG12" s="2"/>
       <c r="AH12" s="3"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2496,7 +4323,7 @@
       <c r="AG13" s="2"/>
       <c r="AH13" s="3"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2534,7 +4361,7 @@
       <c r="AG14" s="2"/>
       <c r="AH14" s="3"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2572,7 +4399,7 @@
       <c r="AG15" s="2"/>
       <c r="AH15" s="3"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2610,7 +4437,7 @@
       <c r="AG16" s="2"/>
       <c r="AH16" s="3"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="8"/>
       <c r="C17" s="2"/>
@@ -2648,7 +4475,7 @@
       <c r="AG17" s="2"/>
       <c r="AH17" s="3"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>23</v>
@@ -2686,7 +4513,7 @@
       <c r="AG18" s="2"/>
       <c r="AH18" s="3"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2722,7 +4549,7 @@
       <c r="AG19" s="2"/>
       <c r="AH19" s="3"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
         <v>24</v>
@@ -2760,7 +4587,7 @@
       <c r="AG20" s="2"/>
       <c r="AH20" s="3"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2796,7 +4623,7 @@
       <c r="AG21" s="2"/>
       <c r="AH21" s="3"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>25</v>
@@ -2834,7 +4661,7 @@
       <c r="AG22" s="2"/>
       <c r="AH22" s="3"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2870,7 +4697,7 @@
       <c r="AG23" s="2"/>
       <c r="AH23" s="3"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>26</v>
@@ -2908,7 +4735,7 @@
       <c r="AG24" s="2"/>
       <c r="AH24" s="3"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2944,13 +4771,13 @@
       <c r="AG25" s="2"/>
       <c r="AH25" s="3"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+      <c r="B26" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -2982,13 +4809,13 @@
       <c r="AG26" s="2"/>
       <c r="AH26" s="3"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="21"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="18"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -3020,13 +4847,13 @@
       <c r="AG27" s="2"/>
       <c r="AH27" s="3"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="21"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="18"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -3058,11 +4885,11 @@
       <c r="AG28" s="2"/>
       <c r="AH28" s="3"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="20" t="s">
-        <v>39</v>
+      <c r="C29" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -3096,7 +4923,7 @@
       <c r="AG29" s="2"/>
       <c r="AH29" s="3"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3132,7 +4959,7 @@
       <c r="AG30" s="2"/>
       <c r="AH30" s="3"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3168,7 +4995,7 @@
       <c r="AG31" s="2"/>
       <c r="AH31" s="3"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -3221,1075 +5048,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D883F4CD-48AF-4324-BF9C-B51BE4DB446F}">
-  <dimension ref="A1:AH33"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="7" max="7" width="9.19921875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="24">
-        <v>44512</v>
-      </c>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-    </row>
-    <row r="2" spans="1:34" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-    </row>
-    <row r="3" spans="1:34" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="57"/>
-    </row>
-    <row r="4" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-      <c r="C4" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="30"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="37"/>
-    </row>
-    <row r="5" spans="1:34" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="1"/>
-      <c r="C5" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="32"/>
-      <c r="Z5" s="10"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="37"/>
-    </row>
-    <row r="6" spans="1:34" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="1"/>
-      <c r="C6" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="65"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="32"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="43"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="37"/>
-    </row>
-    <row r="7" spans="1:34" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="1"/>
-      <c r="C7" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="68" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="32"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="42"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="37"/>
-    </row>
-    <row r="8" spans="1:34" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="1"/>
-      <c r="C8" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="32"/>
-      <c r="Z8" s="10"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="37"/>
-    </row>
-    <row r="9" spans="1:34" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="1"/>
-      <c r="C9" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="32"/>
-      <c r="Z9" s="10"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="37"/>
-    </row>
-    <row r="10" spans="1:34" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="1"/>
-      <c r="C10" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="70">
-        <v>34951</v>
-      </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="32"/>
-      <c r="Z10" s="10"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="37"/>
-    </row>
-    <row r="11" spans="1:34" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="1"/>
-      <c r="C11" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="32"/>
-      <c r="Z11" s="10"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="37"/>
-    </row>
-    <row r="12" spans="1:34" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="1"/>
-      <c r="C12" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="75"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="32"/>
-      <c r="Z12" s="10"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
-      <c r="AH12" s="37"/>
-    </row>
-    <row r="13" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="1"/>
-      <c r="C13" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="32"/>
-      <c r="Z13" s="10"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="37"/>
-    </row>
-    <row r="14" spans="1:34" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="1"/>
-      <c r="C14" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="32"/>
-      <c r="Z14" s="10"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
-      <c r="AH14" s="37"/>
-    </row>
-    <row r="15" spans="1:34" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="1"/>
-      <c r="C15" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="32"/>
-      <c r="Z15" s="10"/>
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
-      <c r="AH15" s="37"/>
-    </row>
-    <row r="16" spans="1:34" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="1"/>
-      <c r="C16" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="32"/>
-      <c r="Z16" s="10"/>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="37"/>
-    </row>
-    <row r="17" spans="1:34" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="1"/>
-      <c r="C17" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="51"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="37"/>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="2"/>
-      <c r="AH17" s="37"/>
-    </row>
-    <row r="18" spans="1:34" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="1"/>
-      <c r="C18" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="37"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-      <c r="AH18" s="37"/>
-    </row>
-    <row r="19" spans="1:34" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="1"/>
-      <c r="C19" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="37"/>
-      <c r="AF19" s="2"/>
-      <c r="AG19" s="2"/>
-      <c r="AH19" s="37"/>
-    </row>
-    <row r="20" spans="1:34" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="37"/>
-      <c r="AH20" s="37"/>
-    </row>
-    <row r="21" spans="1:34" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="44"/>
-      <c r="C21" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="37"/>
-      <c r="AH21" s="37"/>
-    </row>
-    <row r="22" spans="1:34" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="38"/>
-      <c r="C22" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="37"/>
-      <c r="AH22" s="37"/>
-    </row>
-    <row r="23" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="50"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="37"/>
-      <c r="AH23" s="37"/>
-    </row>
-    <row r="24" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="50"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="37"/>
-      <c r="AH24" s="37"/>
-    </row>
-    <row r="25" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C25" s="34"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="37"/>
-      <c r="AH25" s="37"/>
-    </row>
-    <row r="26" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="37"/>
-      <c r="AH26" s="33"/>
-    </row>
-    <row r="27" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="39"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="40"/>
-      <c r="AA27" s="40"/>
-      <c r="AB27" s="40"/>
-      <c r="AC27" s="40"/>
-      <c r="AD27" s="40"/>
-      <c r="AE27" s="40"/>
-      <c r="AF27" s="40"/>
-      <c r="AG27" s="40"/>
-      <c r="AH27" s="41"/>
-    </row>
-    <row r="28" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="10"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="2"/>
-      <c r="AH28" s="37"/>
-    </row>
-    <row r="29" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="10"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="2"/>
-      <c r="AE29" s="2"/>
-      <c r="AF29" s="2"/>
-      <c r="AG29" s="2"/>
-      <c r="AH29" s="37"/>
-    </row>
-    <row r="30" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="10"/>
-      <c r="B30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="2"/>
-      <c r="AG30" s="2"/>
-      <c r="AH30" s="37"/>
-    </row>
-    <row r="31" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="10"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
-      <c r="AE31" s="2"/>
-      <c r="AF31" s="2"/>
-      <c r="AG31" s="2"/>
-      <c r="AH31" s="37"/>
-    </row>
-    <row r="32" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="10"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
-      <c r="AF32" s="2"/>
-      <c r="AG32" s="2"/>
-      <c r="AH32" s="37"/>
-    </row>
-    <row r="33" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="11"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="33"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AH2"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/DOC/基本設計/社内管理_⑧社員情報変更.xlsx
+++ b/DOC/基本設計/社内管理_⑧社員情報変更.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fenhn\git\ems\DOC\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC7F8B1-1816-4E70-AA4B-A05AA40C82C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1637BE6B-CF23-465F-ABAF-6F3C99DE4347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="833" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="833" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="履歴一覧" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="216">
   <si>
     <t>機能名称：</t>
     <rPh sb="0" eb="2">
@@ -105,25 +105,6 @@
       <t>ショキ</t>
     </rPh>
     <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>②下記SQL文を実行し、画面を表示する。</t>
-    <rPh sb="1" eb="3">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1328,10 +1309,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アイテム名称</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1349,10 +1326,6 @@
   </si>
   <si>
     <t>12文字以内で入力してください。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>旧パスワード</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1402,10 +1375,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力されたパスワードが、登録情報と一致しません。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>12文字以内であること。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1437,10 +1406,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>必須</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>更新</t>
     <rPh sb="0" eb="2">
       <t>コウシン</t>
@@ -1448,10 +1413,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>O</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>社員タイプ</t>
     <rPh sb="0" eb="2">
       <t>シャイン</t>
@@ -1470,59 +1431,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>更新ボタンをクリックした時、</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">入力チェック    </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>②</t>
-  </si>
-  <si>
     <t>日付「YYYY/MM/DD」の形式で入力します。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>半角の数字で正確に入力してください。</t>
-  </si>
-  <si>
-    <t>生年月日</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>郵便番号</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>住所</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>****</t>
     <phoneticPr fontId="27"/>
   </si>
   <si>
     <t>エラーが存在する場合、登録処理を中断し、エラーメッセージを各項目の下に赤文字で表示する。</t>
     <rPh sb="11" eb="13">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録処理</t>
-    <rPh sb="0" eb="2">
       <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1538,6 +1456,92 @@
     <rPh sb="20" eb="21">
       <t>モト</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新パスワード</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2）部門情報</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②下記SQL文を実行し、取得した社員情報を画面を表示する。</t>
+    <rPh sb="1" eb="3">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③下記SQL文を実行し、取得した所属部門を画面を表示する。</t>
+    <rPh sb="1" eb="3">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FROM　ems.groupinfo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２）更新ボタン押下</t>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②更新処理</t>
+    <rPh sb="1" eb="5">
+      <t>コウシンショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①入力チェック    </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1864,7 +1868,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="79">
+  <borders count="89">
     <border>
       <left/>
       <right/>
@@ -2788,14 +2792,132 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="hair">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2813,7 +2935,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="306">
+  <cellXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3252,9 +3374,6 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3264,24 +3383,48 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3306,23 +3449,197 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="28" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="50" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="59" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3333,10 +3650,37 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="61" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="66" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="64" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="65" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3345,22 +3689,61 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="66" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="66" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="64" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="65" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="67" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3369,14 +3752,11 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="66" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="65" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="72" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3423,294 +3803,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="67" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="64" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="67" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="66" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="65" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="65" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="66" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="66" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="63" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="65" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="55" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="58" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="48" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="50" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="56" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="57" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="51" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="28" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="63" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="66" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3719,6 +3811,60 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="65" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="81" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="82" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="83" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="84" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="85" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="86" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="78" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="79" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="80" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3873,8 +4019,8 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="4">
           <cell r="G4" t="str">
@@ -3882,9 +4028,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4169,21 +4315,21 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
@@ -4191,19 +4337,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="12">
         <v>43732</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="65">
         <v>44512</v>
       </c>
       <c r="G4" s="66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
@@ -4211,13 +4357,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="69">
         <v>43967</v>
       </c>
       <c r="E5" s="68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
@@ -4225,13 +4371,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="71">
         <v>44512</v>
       </c>
       <c r="E6" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
@@ -4315,8 +4461,8 @@
   </sheetPr>
   <dimension ref="A1:AK39"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -4325,96 +4471,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="161" t="s">
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="161"/>
-      <c r="P1" s="161"/>
-      <c r="Q1" s="161"/>
-      <c r="R1" s="161"/>
-      <c r="S1" s="161"/>
-      <c r="T1" s="161"/>
-      <c r="U1" s="161"/>
-      <c r="V1" s="161"/>
-      <c r="W1" s="161"/>
-      <c r="X1" s="161"/>
-      <c r="Y1" s="161"/>
-      <c r="Z1" s="160" t="s">
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="160"/>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="162">
+      <c r="AA1" s="167"/>
+      <c r="AB1" s="167"/>
+      <c r="AC1" s="169">
         <v>44512</v>
       </c>
-      <c r="AD1" s="162"/>
-      <c r="AE1" s="162"/>
-      <c r="AF1" s="162"/>
-      <c r="AG1" s="162"/>
-      <c r="AH1" s="162"/>
+      <c r="AD1" s="169"/>
+      <c r="AE1" s="169"/>
+      <c r="AF1" s="169"/>
+      <c r="AG1" s="169"/>
+      <c r="AH1" s="169"/>
     </row>
     <row r="2" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163" t="s">
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="163"/>
-      <c r="U2" s="163"/>
-      <c r="V2" s="163"/>
-      <c r="W2" s="163"/>
-      <c r="X2" s="163"/>
-      <c r="Y2" s="163"/>
-      <c r="Z2" s="163" t="s">
+      <c r="N2" s="170"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="170"/>
+      <c r="Q2" s="170" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="170"/>
+      <c r="S2" s="170"/>
+      <c r="T2" s="170"/>
+      <c r="U2" s="170"/>
+      <c r="V2" s="170"/>
+      <c r="W2" s="170"/>
+      <c r="X2" s="170"/>
+      <c r="Y2" s="170"/>
+      <c r="Z2" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="163"/>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="163" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD2" s="163"/>
-      <c r="AE2" s="163"/>
-      <c r="AF2" s="163"/>
-      <c r="AG2" s="163"/>
-      <c r="AH2" s="163"/>
+      <c r="AA2" s="170"/>
+      <c r="AB2" s="170"/>
+      <c r="AC2" s="170" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD2" s="170"/>
+      <c r="AE2" s="170"/>
+      <c r="AF2" s="170"/>
+      <c r="AG2" s="170"/>
+      <c r="AH2" s="170"/>
     </row>
     <row r="3" spans="1:37" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -4430,13 +4576,13 @@
     <row r="4" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="C4" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
@@ -4455,7 +4601,7 @@
       <c r="V4" s="18"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
@@ -4464,13 +4610,13 @@
     <row r="5" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="1"/>
       <c r="C5" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="46"/>
       <c r="I5" s="47"/>
@@ -4481,7 +4627,7 @@
       <c r="N5" s="47"/>
       <c r="O5" s="49"/>
       <c r="P5" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q5" s="33"/>
       <c r="R5" s="33"/>
@@ -4497,13 +4643,13 @@
     <row r="6" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
       <c r="C6" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
       <c r="F6" s="16"/>
       <c r="G6" s="50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" s="51"/>
       <c r="I6" s="52"/>
@@ -4514,7 +4660,7 @@
       <c r="N6" s="52"/>
       <c r="O6" s="53"/>
       <c r="P6" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q6" s="33"/>
       <c r="R6" s="33"/>
@@ -4526,7 +4672,7 @@
       <c r="AA6" s="30"/>
       <c r="AB6" s="30"/>
       <c r="AC6" s="73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD6" s="73"/>
       <c r="AF6" s="2"/>
@@ -4536,13 +4682,13 @@
     <row r="7" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="C7" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
       <c r="F7" s="16"/>
       <c r="G7" s="54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="52"/>
       <c r="I7" s="52"/>
@@ -4562,10 +4708,10 @@
       <c r="Z7" s="7"/>
       <c r="AA7" s="29"/>
       <c r="AC7" s="73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AD7" s="73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
@@ -4574,13 +4720,13 @@
     <row r="8" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="1"/>
       <c r="C8" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
       <c r="F8" s="16"/>
       <c r="G8" s="54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="52"/>
       <c r="I8" s="52"/>
@@ -4599,10 +4745,10 @@
       <c r="V8" s="20"/>
       <c r="Z8" s="7"/>
       <c r="AC8" s="73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AD8" s="73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
@@ -4611,13 +4757,13 @@
     <row r="9" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="1"/>
       <c r="C9" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
       <c r="F9" s="16"/>
       <c r="G9" s="54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="52"/>
       <c r="I9" s="52"/>
@@ -4636,7 +4782,7 @@
       <c r="V9" s="20"/>
       <c r="Z9" s="7"/>
       <c r="AD9" s="74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
@@ -4645,7 +4791,7 @@
     <row r="10" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="C10" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
@@ -4671,20 +4817,20 @@
       <c r="Z10" s="7"/>
       <c r="AH10" s="25"/>
       <c r="AJ10" s="74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AK10" s="73"/>
     </row>
     <row r="11" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="1"/>
       <c r="C11" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
       <c r="F11" s="16"/>
       <c r="G11" s="50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" s="57"/>
       <c r="I11" s="52"/>
@@ -4695,7 +4841,7 @@
       <c r="N11" s="52"/>
       <c r="O11" s="53"/>
       <c r="P11" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="34"/>
       <c r="R11" s="34"/>
@@ -4708,20 +4854,20 @@
       <c r="AG11" s="2"/>
       <c r="AH11" s="25"/>
       <c r="AJ11" s="74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AK11" s="73"/>
     </row>
     <row r="12" spans="1:37" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="C12" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="16"/>
       <c r="G12" s="60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H12" s="61"/>
       <c r="I12" s="62"/>
@@ -4743,20 +4889,20 @@
       <c r="AG12" s="2"/>
       <c r="AH12" s="25"/>
       <c r="AJ12" s="73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK12" s="73"/>
     </row>
     <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="C13" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="16"/>
       <c r="G13" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
@@ -4778,20 +4924,20 @@
       <c r="AG13" s="2"/>
       <c r="AH13" s="25"/>
       <c r="AJ13" s="73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK13" s="73"/>
     </row>
     <row r="14" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
       <c r="C14" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
       <c r="F14" s="16"/>
       <c r="G14" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="47"/>
@@ -4813,20 +4959,20 @@
       <c r="AG14" s="2"/>
       <c r="AH14" s="25"/>
       <c r="AJ14" s="73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AK14" s="73"/>
     </row>
     <row r="15" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="1"/>
       <c r="C15" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="16"/>
       <c r="G15" s="54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15" s="52"/>
       <c r="I15" s="52"/>
@@ -4848,20 +4994,20 @@
       <c r="AG15" s="2"/>
       <c r="AH15" s="25"/>
       <c r="AJ15" s="73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AK15" s="73"/>
     </row>
     <row r="16" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="1"/>
       <c r="C16" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
       <c r="F16" s="16"/>
       <c r="G16" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H16" s="52"/>
       <c r="I16" s="52"/>
@@ -4872,7 +5018,7 @@
       <c r="N16" s="52"/>
       <c r="O16" s="53"/>
       <c r="P16" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q16" s="42"/>
       <c r="R16" s="42"/>
@@ -4885,20 +5031,20 @@
       <c r="AG16" s="2"/>
       <c r="AH16" s="25"/>
       <c r="AJ16" s="73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AK16" s="73"/>
     </row>
     <row r="17" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="1"/>
       <c r="C17" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
       <c r="F17" s="16"/>
       <c r="G17" s="58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H17" s="59"/>
       <c r="I17" s="59"/>
@@ -4909,7 +5055,7 @@
       <c r="N17" s="52"/>
       <c r="O17" s="53"/>
       <c r="P17" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q17" s="34"/>
       <c r="R17" s="34"/>
@@ -4924,20 +5070,20 @@
       <c r="AG17" s="2"/>
       <c r="AH17" s="25"/>
       <c r="AJ17" s="73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AK17" s="73"/>
     </row>
     <row r="18" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="1"/>
       <c r="C18" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="16"/>
       <c r="G18" s="50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H18" s="52"/>
       <c r="I18" s="52"/>
@@ -4961,20 +5107,20 @@
       <c r="AG18" s="2"/>
       <c r="AH18" s="25"/>
       <c r="AJ18" s="73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK18" s="73"/>
     </row>
     <row r="19" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="1"/>
       <c r="C19" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
       <c r="F19" s="16"/>
       <c r="G19" s="54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
@@ -4998,18 +5144,18 @@
       <c r="AG19" s="2"/>
       <c r="AH19" s="25"/>
       <c r="AJ19" s="73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:37" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C20" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
       <c r="F20" s="33"/>
       <c r="G20" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
@@ -5034,13 +5180,13 @@
     <row r="21" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="31"/>
       <c r="C21" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
       <c r="G21" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
@@ -5065,13 +5211,13 @@
     <row r="22" spans="1:37" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B22" s="26"/>
       <c r="C22" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
       <c r="G22" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H22" s="40"/>
       <c r="I22" s="40"/>
@@ -5122,7 +5268,7 @@
     <row r="24" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C24" s="37"/>
       <c r="D24" s="75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24" s="75"/>
       <c r="F24" s="75"/>
@@ -5190,7 +5336,7 @@
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
       <c r="D27" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
@@ -5216,10 +5362,10 @@
       <c r="Z27" s="28"/>
       <c r="AA27" s="28"/>
       <c r="AB27" s="73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AC27" s="73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD27" s="73"/>
       <c r="AE27" s="76"/>
@@ -5232,7 +5378,7 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -5258,7 +5404,7 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AC28" s="73"/>
       <c r="AD28" s="76"/>
@@ -5272,7 +5418,7 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -5297,7 +5443,7 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD29" s="76"/>
       <c r="AE29" s="73"/>
@@ -5321,13 +5467,13 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC30" s="76"/>
       <c r="AD30" s="76"/>
       <c r="AE30" s="76"/>
       <c r="AF30" s="73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG30" s="76"/>
       <c r="AH30" s="25"/>
@@ -5360,13 +5506,13 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC31" s="76"/>
       <c r="AD31" s="76"/>
       <c r="AE31" s="76"/>
       <c r="AF31" s="73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG31" s="76"/>
       <c r="AH31" s="25"/>
@@ -5400,13 +5546,13 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC32" s="76"/>
       <c r="AD32" s="76"/>
       <c r="AE32" s="76"/>
       <c r="AF32" s="76" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG32" s="76"/>
       <c r="AH32" s="25"/>
@@ -5440,13 +5586,13 @@
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
       <c r="AB33" s="78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC33" s="76"/>
       <c r="AD33" s="76"/>
       <c r="AE33" s="76"/>
       <c r="AF33" s="78" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG33" s="79"/>
       <c r="AH33" s="21"/>
@@ -5457,7 +5603,7 @@
       <c r="AD34" s="76"/>
       <c r="AE34" s="76"/>
       <c r="AF34" s="78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG34" s="76"/>
     </row>
@@ -5467,7 +5613,7 @@
       <c r="AD35" s="76"/>
       <c r="AE35" s="76"/>
       <c r="AF35" s="78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG35" s="76"/>
     </row>
@@ -5527,8 +5673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3CE22D-9275-4E59-9C99-EE1BE31F3E2C}">
   <dimension ref="A1:AK163"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5538,98 +5684,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="161" t="s">
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="161"/>
-      <c r="P1" s="161"/>
-      <c r="Q1" s="161"/>
-      <c r="R1" s="161"/>
-      <c r="S1" s="161"/>
-      <c r="T1" s="161"/>
-      <c r="U1" s="161"/>
-      <c r="V1" s="161"/>
-      <c r="W1" s="161"/>
-      <c r="X1" s="161"/>
-      <c r="Y1" s="161"/>
-      <c r="Z1" s="160" t="s">
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="160"/>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="162">
+      <c r="AA1" s="167"/>
+      <c r="AB1" s="167"/>
+      <c r="AC1" s="169">
         <v>44512</v>
       </c>
-      <c r="AD1" s="162"/>
-      <c r="AE1" s="162"/>
-      <c r="AF1" s="162"/>
-      <c r="AG1" s="162"/>
-      <c r="AH1" s="164"/>
+      <c r="AD1" s="169"/>
+      <c r="AE1" s="169"/>
+      <c r="AF1" s="169"/>
+      <c r="AG1" s="169"/>
+      <c r="AH1" s="171"/>
       <c r="AI1" s="4"/>
       <c r="AJ1" s="21"/>
     </row>
     <row r="2" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163" t="s">
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="170"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="170"/>
+      <c r="Q2" s="170" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="170"/>
+      <c r="S2" s="170"/>
+      <c r="T2" s="170"/>
+      <c r="U2" s="170"/>
+      <c r="V2" s="170"/>
+      <c r="W2" s="170"/>
+      <c r="X2" s="170"/>
+      <c r="Y2" s="170"/>
+      <c r="Z2" s="170" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="170"/>
+      <c r="AB2" s="170"/>
+      <c r="AC2" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="163"/>
-      <c r="U2" s="163"/>
-      <c r="V2" s="163"/>
-      <c r="W2" s="163"/>
-      <c r="X2" s="163"/>
-      <c r="Y2" s="163"/>
-      <c r="Z2" s="163" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="163"/>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="160" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="160"/>
-      <c r="AG2" s="160"/>
-      <c r="AH2" s="165"/>
+      <c r="AD2" s="167"/>
+      <c r="AE2" s="167"/>
+      <c r="AF2" s="167"/>
+      <c r="AG2" s="167"/>
+      <c r="AH2" s="172"/>
       <c r="AI2" s="28"/>
       <c r="AJ2" s="95"/>
     </row>
@@ -5649,13 +5795,13 @@
     <row r="4" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="C4" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
@@ -5674,7 +5820,7 @@
       <c r="V4" s="18"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
@@ -5685,13 +5831,13 @@
     <row r="5" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="1"/>
       <c r="C5" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="46"/>
       <c r="I5" s="47"/>
@@ -5709,6 +5855,9 @@
       <c r="U5" s="16"/>
       <c r="V5" s="20"/>
       <c r="Z5" s="7"/>
+      <c r="AA5" s="14" t="s">
+        <v>209</v>
+      </c>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
@@ -5718,13 +5867,13 @@
     <row r="6" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
       <c r="C6" s="19" t="s">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
       <c r="F6" s="16"/>
       <c r="G6" s="50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" s="51"/>
       <c r="I6" s="52"/>
@@ -5755,13 +5904,13 @@
     <row r="7" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="C7" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
       <c r="F7" s="16"/>
       <c r="G7" s="54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="52"/>
       <c r="I7" s="52"/>
@@ -5790,13 +5939,13 @@
     <row r="8" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="1"/>
       <c r="C8" s="19" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
       <c r="F8" s="16"/>
       <c r="G8" s="54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H8" s="52"/>
       <c r="I8" s="52"/>
@@ -5824,7 +5973,7 @@
     <row r="9" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="1"/>
       <c r="C9" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
@@ -5856,13 +6005,13 @@
     <row r="10" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="C10" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
       <c r="F10" s="16"/>
       <c r="G10" s="50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="57"/>
       <c r="I10" s="52"/>
@@ -5890,13 +6039,13 @@
     <row r="11" spans="1:37" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="C11" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
       <c r="F11" s="16"/>
       <c r="G11" s="60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" s="61"/>
       <c r="I11" s="62"/>
@@ -5924,22 +6073,22 @@
     <row r="12" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="C12" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="292" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="293"/>
-      <c r="I12" s="293"/>
-      <c r="J12" s="293"/>
-      <c r="K12" s="293"/>
-      <c r="L12" s="293"/>
-      <c r="M12" s="293"/>
-      <c r="N12" s="293"/>
-      <c r="O12" s="294"/>
+      <c r="G12" s="161" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="162"/>
+      <c r="I12" s="162"/>
+      <c r="J12" s="162"/>
+      <c r="K12" s="162"/>
+      <c r="L12" s="162"/>
+      <c r="M12" s="162"/>
+      <c r="N12" s="162"/>
+      <c r="O12" s="163"/>
       <c r="P12" s="34"/>
       <c r="Q12" s="34"/>
       <c r="R12" s="34"/>
@@ -5958,13 +6107,13 @@
     <row r="13" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="1"/>
       <c r="C13" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="16"/>
       <c r="G13" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
@@ -5992,13 +6141,13 @@
     <row r="14" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
       <c r="C14" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
       <c r="F14" s="16"/>
       <c r="G14" s="54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H14" s="52"/>
       <c r="I14" s="52"/>
@@ -6026,13 +6175,13 @@
     <row r="15" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="1"/>
       <c r="C15" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="16"/>
       <c r="G15" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" s="52"/>
       <c r="I15" s="52"/>
@@ -6060,13 +6209,13 @@
     <row r="16" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="1"/>
       <c r="C16" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
       <c r="F16" s="16"/>
       <c r="G16" s="58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16" s="59"/>
       <c r="I16" s="59"/>
@@ -6096,13 +6245,13 @@
     <row r="17" spans="1:37" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="1"/>
       <c r="C17" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
       <c r="F17" s="16"/>
       <c r="G17" s="50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H17" s="52"/>
       <c r="I17" s="52"/>
@@ -6131,13 +6280,13 @@
     </row>
     <row r="18" spans="1:37" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C18" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="33"/>
       <c r="G18" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
@@ -6164,13 +6313,13 @@
     <row r="19" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="26"/>
       <c r="C19" s="19" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
@@ -6236,7 +6385,7 @@
       <c r="M21" s="32"/>
       <c r="N21" s="97"/>
       <c r="O21" s="98" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="P21" s="99"/>
       <c r="Q21" s="32"/>
@@ -6299,7 +6448,7 @@
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
@@ -6339,7 +6488,7 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -6379,7 +6528,7 @@
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -11330,9 +11479,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AH33"/>
+  <dimension ref="A1:AH36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -11349,96 +11498,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="161" t="s">
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="161"/>
-      <c r="P1" s="161"/>
-      <c r="Q1" s="161"/>
-      <c r="R1" s="161"/>
-      <c r="S1" s="161"/>
-      <c r="T1" s="161"/>
-      <c r="U1" s="161"/>
-      <c r="V1" s="161"/>
-      <c r="W1" s="161"/>
-      <c r="X1" s="161"/>
-      <c r="Y1" s="161"/>
-      <c r="Z1" s="160" t="s">
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="160"/>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="162" t="s">
+      <c r="AA1" s="167"/>
+      <c r="AB1" s="167"/>
+      <c r="AC1" s="169" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" s="169"/>
+      <c r="AE1" s="169"/>
+      <c r="AF1" s="169"/>
+      <c r="AG1" s="169"/>
+      <c r="AH1" s="169"/>
+    </row>
+    <row r="2" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="170" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="170"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="170"/>
+      <c r="Q2" s="170" t="s">
         <v>21</v>
       </c>
-      <c r="AD1" s="162"/>
-      <c r="AE1" s="162"/>
-      <c r="AF1" s="162"/>
-      <c r="AG1" s="162"/>
-      <c r="AH1" s="162"/>
-    </row>
-    <row r="2" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="163" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163" t="s">
+      <c r="R2" s="170"/>
+      <c r="S2" s="170"/>
+      <c r="T2" s="170"/>
+      <c r="U2" s="170"/>
+      <c r="V2" s="170"/>
+      <c r="W2" s="170"/>
+      <c r="X2" s="170"/>
+      <c r="Y2" s="170"/>
+      <c r="Z2" s="170" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="170"/>
+      <c r="AB2" s="170"/>
+      <c r="AC2" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="163"/>
-      <c r="U2" s="163"/>
-      <c r="V2" s="163"/>
-      <c r="W2" s="163"/>
-      <c r="X2" s="163"/>
-      <c r="Y2" s="163"/>
-      <c r="Z2" s="163" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="163"/>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="163" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD2" s="163"/>
-      <c r="AE2" s="163"/>
-      <c r="AF2" s="163"/>
-      <c r="AG2" s="163"/>
-      <c r="AH2" s="163"/>
+      <c r="AD2" s="170"/>
+      <c r="AE2" s="170"/>
+      <c r="AF2" s="170"/>
+      <c r="AG2" s="170"/>
+      <c r="AH2" s="170"/>
     </row>
     <row r="3" spans="1:34" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -11520,7 +11669,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -11538,7 +11687,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
@@ -11560,7 +11709,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="138" t="s">
-        <v>9</v>
+        <v>210</v>
       </c>
       <c r="D6" s="137"/>
       <c r="E6" s="137"/>
@@ -11579,7 +11728,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
@@ -11601,7 +11750,7 @@
       <c r="B7" s="2"/>
       <c r="C7" s="134"/>
       <c r="D7" s="138" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="134"/>
       <c r="F7" s="134"/>
@@ -11641,7 +11790,7 @@
       <c r="D8" s="134"/>
       <c r="E8" s="135"/>
       <c r="F8" s="139" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G8" s="134"/>
       <c r="H8" s="134"/>
@@ -11678,7 +11827,7 @@
       <c r="C9" s="134"/>
       <c r="D9" s="137"/>
       <c r="E9" s="137" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="137"/>
       <c r="G9" s="137"/>
@@ -11716,7 +11865,7 @@
       <c r="C10" s="134"/>
       <c r="D10" s="137"/>
       <c r="E10" s="137" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F10" s="137"/>
       <c r="G10" s="137"/>
@@ -11748,27 +11897,25 @@
       <c r="AG10" s="2"/>
       <c r="AH10" s="3"/>
     </row>
-    <row r="11" spans="1:34" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="141" t="s">
-        <v>181</v>
-      </c>
-      <c r="C11" s="140"/>
-      <c r="D11" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="138" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="137"/>
+      <c r="M11" s="137"/>
+      <c r="N11" s="137"/>
+      <c r="O11" s="134"/>
+      <c r="P11" s="134"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -11788,27 +11935,25 @@
       <c r="AG11" s="2"/>
       <c r="AH11" s="3"/>
     </row>
-    <row r="12" spans="1:34" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
-      <c r="B12" s="141"/>
-      <c r="C12" s="140" t="s">
-        <v>212</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="138" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="134"/>
+      <c r="P12" s="134"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -11828,25 +11973,25 @@
       <c r="AG12" s="2"/>
       <c r="AH12" s="3"/>
     </row>
-    <row r="13" spans="1:34" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
-      <c r="B13" s="141"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="134"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -11867,11 +12012,13 @@
       <c r="AH13" s="3"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A14" s="136"/>
-      <c r="B14" s="137"/>
-      <c r="C14" s="137"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="134"/>
       <c r="D14" s="137"/>
-      <c r="E14" s="137"/>
+      <c r="E14" s="137" t="s">
+        <v>212</v>
+      </c>
       <c r="F14" s="137"/>
       <c r="G14" s="137"/>
       <c r="H14" s="137"/>
@@ -11881,10 +12028,10 @@
       <c r="L14" s="137"/>
       <c r="M14" s="137"/>
       <c r="N14" s="137"/>
-      <c r="O14" s="137"/>
-      <c r="P14" s="137"/>
-      <c r="Q14" s="137"/>
-      <c r="R14" s="137"/>
+      <c r="O14" s="134"/>
+      <c r="P14" s="134"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -11902,686 +12049,876 @@
       <c r="AG14" s="2"/>
       <c r="AH14" s="3"/>
     </row>
-    <row r="15" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="136"/>
-      <c r="B15" s="137"/>
-      <c r="C15" s="145" t="s">
-        <v>184</v>
-      </c>
-      <c r="D15" s="147" t="s">
-        <v>182</v>
-      </c>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="143" t="s">
-        <v>190</v>
-      </c>
-      <c r="K15" s="156"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="142"/>
-      <c r="T15" s="143" t="s">
-        <v>183</v>
-      </c>
-      <c r="U15" s="143"/>
-      <c r="V15" s="143"/>
-      <c r="W15" s="143"/>
-      <c r="X15" s="143"/>
-      <c r="Y15" s="143"/>
-      <c r="Z15" s="143"/>
-      <c r="AA15" s="152"/>
-      <c r="AB15" s="152"/>
-      <c r="AC15" s="152"/>
-      <c r="AD15" s="152"/>
-      <c r="AE15" s="152"/>
-      <c r="AF15" s="152"/>
-      <c r="AG15" s="153"/>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
       <c r="AH15" s="3"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A16" s="136"/>
-      <c r="B16" s="137"/>
-      <c r="C16" s="166">
-        <v>1</v>
-      </c>
-      <c r="D16" s="168" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="157" t="s">
-        <v>202</v>
-      </c>
-      <c r="J16" s="143"/>
-      <c r="K16" s="152"/>
-      <c r="L16" s="152"/>
-      <c r="M16" s="152"/>
-      <c r="N16" s="152"/>
-      <c r="O16" s="152"/>
-      <c r="P16" s="152"/>
-      <c r="Q16" s="152"/>
-      <c r="R16" s="153"/>
-      <c r="S16" s="142" t="s">
-        <v>186</v>
-      </c>
-      <c r="T16" s="143"/>
-      <c r="U16" s="143"/>
-      <c r="V16" s="143"/>
-      <c r="W16" s="143"/>
-      <c r="X16" s="144"/>
-      <c r="Y16" s="143"/>
-      <c r="Z16" s="143"/>
-      <c r="AA16" s="152"/>
-      <c r="AB16" s="152"/>
-      <c r="AC16" s="152"/>
-      <c r="AD16" s="152"/>
-      <c r="AE16" s="152"/>
-      <c r="AF16" s="152"/>
-      <c r="AG16" s="153"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
       <c r="AH16" s="3"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A17" s="136"/>
-      <c r="B17" s="137"/>
-      <c r="C17" s="167"/>
-      <c r="D17" s="171"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="143" t="s">
-        <v>197</v>
-      </c>
-      <c r="J17" s="143"/>
-      <c r="K17" s="152"/>
-      <c r="L17" s="152"/>
-      <c r="M17" s="152"/>
-      <c r="N17" s="152"/>
-      <c r="O17" s="152"/>
-      <c r="P17" s="152"/>
-      <c r="Q17" s="152"/>
-      <c r="R17" s="153"/>
-      <c r="S17" s="142"/>
-      <c r="T17" s="143"/>
-      <c r="U17" s="143"/>
-      <c r="V17" s="143"/>
-      <c r="W17" s="143"/>
-      <c r="X17" s="143"/>
-      <c r="Y17" s="143"/>
-      <c r="Z17" s="143"/>
-      <c r="AA17" s="152"/>
-      <c r="AB17" s="152"/>
-      <c r="AC17" s="152"/>
-      <c r="AD17" s="152"/>
-      <c r="AE17" s="152"/>
-      <c r="AF17" s="152"/>
-      <c r="AG17" s="153"/>
+    <row r="17" spans="1:34" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="1"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="310" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
       <c r="AH17" s="3"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A18" s="136"/>
-      <c r="B18" s="137"/>
-      <c r="C18" s="146">
-        <v>2</v>
-      </c>
-      <c r="D18" s="151" t="s">
-        <v>187</v>
-      </c>
-      <c r="E18" s="142"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="144"/>
-      <c r="I18" s="157" t="s">
-        <v>203</v>
-      </c>
-      <c r="J18" s="157"/>
-      <c r="K18" s="157"/>
-      <c r="L18" s="157"/>
-      <c r="M18" s="157"/>
-      <c r="N18" s="152"/>
-      <c r="O18" s="152"/>
-      <c r="P18" s="152"/>
-      <c r="Q18" s="152"/>
-      <c r="R18" s="153"/>
-      <c r="S18" s="142" t="s">
-        <v>196</v>
-      </c>
-      <c r="T18" s="143"/>
-      <c r="U18" s="143"/>
-      <c r="V18" s="143"/>
-      <c r="W18" s="143"/>
-      <c r="X18" s="144"/>
-      <c r="Y18" s="143"/>
-      <c r="Z18" s="143"/>
-      <c r="AA18" s="152"/>
-      <c r="AB18" s="152"/>
-      <c r="AC18" s="152"/>
-      <c r="AD18" s="152"/>
-      <c r="AE18" s="152"/>
-      <c r="AF18" s="152"/>
-      <c r="AG18" s="153"/>
+    <row r="18" spans="1:34" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="1"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
       <c r="AH18" s="3"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="136"/>
       <c r="B19" s="137"/>
-      <c r="C19" s="166">
-        <v>3</v>
-      </c>
-      <c r="D19" s="168" t="s">
-        <v>188</v>
-      </c>
-      <c r="E19" s="169"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="169"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="158" t="s">
-        <v>203</v>
-      </c>
-      <c r="J19" s="157"/>
-      <c r="K19" s="157"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="157"/>
-      <c r="N19" s="152"/>
-      <c r="O19" s="152"/>
-      <c r="P19" s="152"/>
-      <c r="Q19" s="152"/>
-      <c r="R19" s="153"/>
-      <c r="S19" s="154" t="s">
-        <v>191</v>
-      </c>
-      <c r="T19" s="150"/>
-      <c r="U19" s="150"/>
-      <c r="V19" s="150"/>
-      <c r="W19" s="150"/>
-      <c r="X19" s="155"/>
-      <c r="Y19" s="150"/>
-      <c r="Z19" s="150"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="16"/>
-      <c r="AG19" s="20"/>
+      <c r="D19" s="145" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" s="147" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19" s="148"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="149"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="143" t="s">
+        <v>187</v>
+      </c>
+      <c r="L19" s="153"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="142"/>
+      <c r="U19" s="143" t="s">
+        <v>181</v>
+      </c>
+      <c r="V19" s="143"/>
+      <c r="W19" s="143"/>
+      <c r="X19" s="143"/>
+      <c r="Y19" s="143"/>
+      <c r="Z19" s="143"/>
+      <c r="AA19" s="143"/>
+      <c r="AB19" s="151"/>
+      <c r="AC19" s="151"/>
+      <c r="AD19" s="151"/>
+      <c r="AE19" s="151"/>
+      <c r="AF19" s="151"/>
+      <c r="AG19" s="152"/>
       <c r="AH19" s="3"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A20" s="136"/>
       <c r="B20" s="137"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="173"/>
-      <c r="I20" s="142" t="s">
-        <v>200</v>
-      </c>
-      <c r="J20" s="143"/>
-      <c r="K20" s="152"/>
-      <c r="L20" s="152"/>
-      <c r="M20" s="152"/>
-      <c r="N20" s="152"/>
-      <c r="O20" s="152"/>
-      <c r="P20" s="152"/>
-      <c r="Q20" s="152"/>
-      <c r="R20" s="153"/>
-      <c r="S20" s="142" t="s">
-        <v>189</v>
-      </c>
-      <c r="T20" s="143"/>
-      <c r="U20" s="143"/>
-      <c r="V20" s="143"/>
-      <c r="W20" s="143"/>
-      <c r="X20" s="144"/>
-      <c r="Y20" s="143"/>
-      <c r="Z20" s="143"/>
-      <c r="AA20" s="152"/>
-      <c r="AB20" s="152"/>
-      <c r="AC20" s="152"/>
-      <c r="AD20" s="152"/>
-      <c r="AE20" s="152"/>
-      <c r="AF20" s="152"/>
-      <c r="AG20" s="153"/>
+      <c r="D20" s="173">
+        <v>1</v>
+      </c>
+      <c r="E20" s="155" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="157"/>
+      <c r="J20" s="307" t="s">
+        <v>198</v>
+      </c>
+      <c r="K20" s="308"/>
+      <c r="L20" s="308"/>
+      <c r="M20" s="308"/>
+      <c r="N20" s="308"/>
+      <c r="O20" s="308"/>
+      <c r="P20" s="308"/>
+      <c r="Q20" s="308"/>
+      <c r="R20" s="308"/>
+      <c r="S20" s="309"/>
+      <c r="T20" s="307" t="s">
+        <v>184</v>
+      </c>
+      <c r="U20" s="308"/>
+      <c r="V20" s="308"/>
+      <c r="W20" s="308"/>
+      <c r="X20" s="308"/>
+      <c r="Y20" s="308"/>
+      <c r="Z20" s="308"/>
+      <c r="AA20" s="308"/>
+      <c r="AB20" s="308"/>
+      <c r="AC20" s="308"/>
+      <c r="AD20" s="308"/>
+      <c r="AE20" s="308"/>
+      <c r="AF20" s="308"/>
+      <c r="AG20" s="309"/>
       <c r="AH20" s="3"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A21" s="136"/>
       <c r="B21" s="137"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="295" t="s">
-        <v>216</v>
-      </c>
-      <c r="E21" s="296"/>
-      <c r="F21" s="296"/>
-      <c r="G21" s="296"/>
-      <c r="H21" s="297"/>
-      <c r="I21" s="158" t="s">
-        <v>214</v>
-      </c>
-      <c r="J21" s="143"/>
-      <c r="K21" s="152"/>
-      <c r="L21" s="152"/>
-      <c r="M21" s="152"/>
-      <c r="N21" s="152"/>
-      <c r="O21" s="152"/>
-      <c r="P21" s="152"/>
-      <c r="Q21" s="152"/>
-      <c r="R21" s="153"/>
-      <c r="S21" s="142" t="s">
-        <v>215</v>
-      </c>
-      <c r="T21" s="143"/>
-      <c r="U21" s="143"/>
-      <c r="V21" s="143"/>
-      <c r="W21" s="143"/>
-      <c r="X21" s="143"/>
-      <c r="Y21" s="143"/>
-      <c r="Z21" s="143"/>
-      <c r="AA21" s="152"/>
-      <c r="AB21" s="152"/>
-      <c r="AC21" s="152"/>
-      <c r="AD21" s="152"/>
-      <c r="AE21" s="152"/>
-      <c r="AF21" s="152"/>
-      <c r="AG21" s="153"/>
+      <c r="D21" s="174"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="307" t="s">
+        <v>193</v>
+      </c>
+      <c r="K21" s="308"/>
+      <c r="L21" s="308"/>
+      <c r="M21" s="308"/>
+      <c r="N21" s="308"/>
+      <c r="O21" s="308"/>
+      <c r="P21" s="308"/>
+      <c r="Q21" s="308"/>
+      <c r="R21" s="308"/>
+      <c r="S21" s="309"/>
+      <c r="T21" s="307"/>
+      <c r="U21" s="308"/>
+      <c r="V21" s="308"/>
+      <c r="W21" s="308"/>
+      <c r="X21" s="308"/>
+      <c r="Y21" s="308"/>
+      <c r="Z21" s="308"/>
+      <c r="AA21" s="308"/>
+      <c r="AB21" s="308"/>
+      <c r="AC21" s="308"/>
+      <c r="AD21" s="308"/>
+      <c r="AE21" s="308"/>
+      <c r="AF21" s="308"/>
+      <c r="AG21" s="309"/>
       <c r="AH21" s="3"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A22" s="136"/>
       <c r="B22" s="137"/>
-      <c r="C22" s="146">
-        <v>6</v>
-      </c>
-      <c r="D22" s="151" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="144"/>
-      <c r="I22" s="142" t="s">
-        <v>197</v>
-      </c>
-      <c r="J22" s="143"/>
-      <c r="K22" s="152"/>
-      <c r="L22" s="152"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="152"/>
-      <c r="O22" s="152"/>
-      <c r="P22" s="152"/>
-      <c r="Q22" s="152"/>
-      <c r="R22" s="153"/>
-      <c r="S22" s="142" t="s">
-        <v>193</v>
-      </c>
-      <c r="T22" s="143"/>
-      <c r="U22" s="143"/>
-      <c r="V22" s="143"/>
-      <c r="W22" s="143"/>
-      <c r="X22" s="143"/>
-      <c r="Y22" s="143"/>
-      <c r="Z22" s="143"/>
-      <c r="AA22" s="152"/>
-      <c r="AB22" s="152"/>
-      <c r="AC22" s="152"/>
-      <c r="AD22" s="152"/>
-      <c r="AE22" s="152"/>
-      <c r="AF22" s="152"/>
-      <c r="AG22" s="153"/>
+      <c r="D22" s="173">
+        <v>2</v>
+      </c>
+      <c r="E22" s="155" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="307" t="s">
+        <v>199</v>
+      </c>
+      <c r="K22" s="308"/>
+      <c r="L22" s="308"/>
+      <c r="M22" s="308"/>
+      <c r="N22" s="308"/>
+      <c r="O22" s="308"/>
+      <c r="P22" s="308"/>
+      <c r="Q22" s="308"/>
+      <c r="R22" s="308"/>
+      <c r="S22" s="309"/>
+      <c r="T22" s="307" t="s">
+        <v>188</v>
+      </c>
+      <c r="U22" s="308"/>
+      <c r="V22" s="308"/>
+      <c r="W22" s="308"/>
+      <c r="X22" s="308"/>
+      <c r="Y22" s="308"/>
+      <c r="Z22" s="308"/>
+      <c r="AA22" s="308"/>
+      <c r="AB22" s="308"/>
+      <c r="AC22" s="308"/>
+      <c r="AD22" s="308"/>
+      <c r="AE22" s="308"/>
+      <c r="AF22" s="308"/>
+      <c r="AG22" s="309"/>
       <c r="AH22" s="3"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A23" s="136"/>
       <c r="B23" s="137"/>
-      <c r="C23" s="146">
-        <v>7</v>
-      </c>
-      <c r="D23" s="151" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="144"/>
-      <c r="I23" s="158" t="s">
-        <v>214</v>
-      </c>
-      <c r="J23" s="143"/>
-      <c r="K23" s="152"/>
-      <c r="L23" s="152"/>
-      <c r="M23" s="152"/>
-      <c r="N23" s="152"/>
-      <c r="O23" s="152"/>
-      <c r="P23" s="152"/>
-      <c r="Q23" s="152"/>
-      <c r="R23" s="153"/>
-      <c r="S23" s="147" t="s">
-        <v>192</v>
-      </c>
-      <c r="T23" s="148"/>
-      <c r="U23" s="148"/>
-      <c r="V23" s="148"/>
-      <c r="W23" s="148"/>
-      <c r="X23" s="149"/>
-      <c r="Y23" s="148"/>
-      <c r="Z23" s="143"/>
-      <c r="AA23" s="152"/>
-      <c r="AB23" s="152"/>
-      <c r="AC23" s="152"/>
-      <c r="AD23" s="152"/>
-      <c r="AE23" s="152"/>
-      <c r="AF23" s="152"/>
-      <c r="AG23" s="153"/>
+      <c r="D23" s="174"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="307" t="s">
+        <v>196</v>
+      </c>
+      <c r="K23" s="308"/>
+      <c r="L23" s="308"/>
+      <c r="M23" s="308"/>
+      <c r="N23" s="308"/>
+      <c r="O23" s="308"/>
+      <c r="P23" s="308"/>
+      <c r="Q23" s="308"/>
+      <c r="R23" s="308"/>
+      <c r="S23" s="309"/>
+      <c r="T23" s="307" t="s">
+        <v>186</v>
+      </c>
+      <c r="U23" s="308"/>
+      <c r="V23" s="308"/>
+      <c r="W23" s="308"/>
+      <c r="X23" s="308"/>
+      <c r="Y23" s="308"/>
+      <c r="Z23" s="308"/>
+      <c r="AA23" s="308"/>
+      <c r="AB23" s="308"/>
+      <c r="AC23" s="308"/>
+      <c r="AD23" s="308"/>
+      <c r="AE23" s="308"/>
+      <c r="AF23" s="308"/>
+      <c r="AG23" s="309"/>
       <c r="AH23" s="3"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A24" s="136"/>
       <c r="B24" s="137"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="168" t="s">
-        <v>217</v>
-      </c>
-      <c r="E24" s="169"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="169"/>
-      <c r="H24" s="170"/>
-      <c r="I24" s="158" t="s">
+      <c r="D24" s="154">
+        <v>3</v>
+      </c>
+      <c r="E24" s="164" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="165"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="166"/>
+      <c r="J24" s="307" t="s">
         <v>204</v>
       </c>
-      <c r="J24" s="143"/>
-      <c r="K24" s="152"/>
-      <c r="L24" s="152"/>
-      <c r="M24" s="152"/>
-      <c r="N24" s="152"/>
-      <c r="O24" s="152"/>
-      <c r="P24" s="152"/>
-      <c r="Q24" s="152"/>
-      <c r="R24" s="153"/>
-      <c r="S24" s="143"/>
-      <c r="T24" s="143"/>
-      <c r="U24" s="143"/>
-      <c r="V24" s="143"/>
-      <c r="W24" s="143"/>
-      <c r="X24" s="143"/>
-      <c r="Y24" s="143"/>
-      <c r="Z24" s="143"/>
-      <c r="AA24" s="152"/>
-      <c r="AB24" s="152"/>
-      <c r="AC24" s="152"/>
-      <c r="AD24" s="152"/>
-      <c r="AE24" s="152"/>
-      <c r="AF24" s="152"/>
-      <c r="AG24" s="153"/>
+      <c r="K24" s="308"/>
+      <c r="L24" s="308"/>
+      <c r="M24" s="308"/>
+      <c r="N24" s="308"/>
+      <c r="O24" s="308"/>
+      <c r="P24" s="308"/>
+      <c r="Q24" s="308"/>
+      <c r="R24" s="308"/>
+      <c r="S24" s="309"/>
+      <c r="T24" s="307" t="s">
+        <v>189</v>
+      </c>
+      <c r="U24" s="308"/>
+      <c r="V24" s="308"/>
+      <c r="W24" s="308"/>
+      <c r="X24" s="308"/>
+      <c r="Y24" s="308"/>
+      <c r="Z24" s="308"/>
+      <c r="AA24" s="308"/>
+      <c r="AB24" s="308"/>
+      <c r="AC24" s="308"/>
+      <c r="AD24" s="308"/>
+      <c r="AE24" s="308"/>
+      <c r="AF24" s="308"/>
+      <c r="AG24" s="309"/>
       <c r="AH24" s="3"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A25" s="136"/>
       <c r="B25" s="137"/>
-      <c r="C25" s="146">
-        <v>8</v>
-      </c>
-      <c r="D25" s="171"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="172"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="173"/>
-      <c r="I25" s="142" t="s">
-        <v>201</v>
-      </c>
-      <c r="J25" s="143"/>
-      <c r="K25" s="152"/>
-      <c r="L25" s="152"/>
-      <c r="M25" s="152"/>
-      <c r="N25" s="152"/>
-      <c r="O25" s="152"/>
-      <c r="P25" s="152"/>
-      <c r="Q25" s="152"/>
-      <c r="R25" s="153"/>
-      <c r="S25" s="299" t="s">
-        <v>194</v>
-      </c>
-      <c r="T25" s="150"/>
-      <c r="U25" s="150"/>
-      <c r="V25" s="150"/>
-      <c r="W25" s="150"/>
-      <c r="X25" s="155"/>
-      <c r="Y25" s="150"/>
-      <c r="Z25" s="148"/>
-      <c r="AA25" s="152"/>
-      <c r="AB25" s="152"/>
-      <c r="AC25" s="152"/>
-      <c r="AD25" s="152"/>
-      <c r="AE25" s="152"/>
-      <c r="AF25" s="152"/>
-      <c r="AG25" s="153"/>
+      <c r="D25" s="154">
+        <v>4</v>
+      </c>
+      <c r="E25" s="150" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="144"/>
+      <c r="J25" s="307" t="s">
+        <v>193</v>
+      </c>
+      <c r="K25" s="308"/>
+      <c r="L25" s="308"/>
+      <c r="M25" s="308"/>
+      <c r="N25" s="308"/>
+      <c r="O25" s="308"/>
+      <c r="P25" s="308"/>
+      <c r="Q25" s="308"/>
+      <c r="R25" s="308"/>
+      <c r="S25" s="309"/>
+      <c r="T25" s="307" t="s">
+        <v>190</v>
+      </c>
+      <c r="U25" s="308"/>
+      <c r="V25" s="308"/>
+      <c r="W25" s="308"/>
+      <c r="X25" s="308"/>
+      <c r="Y25" s="308"/>
+      <c r="Z25" s="308"/>
+      <c r="AA25" s="308"/>
+      <c r="AB25" s="308"/>
+      <c r="AC25" s="308"/>
+      <c r="AD25" s="308"/>
+      <c r="AE25" s="308"/>
+      <c r="AF25" s="308"/>
+      <c r="AG25" s="309"/>
       <c r="AH25" s="3"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A26" s="136"/>
       <c r="B26" s="137"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="168" t="s">
-        <v>218</v>
-      </c>
-      <c r="E26" s="169"/>
-      <c r="F26" s="169"/>
-      <c r="G26" s="169"/>
-      <c r="H26" s="170"/>
-      <c r="I26" s="158" t="s">
+      <c r="D26" s="154">
+        <v>5</v>
+      </c>
+      <c r="E26" s="150" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="307" t="s">
         <v>204</v>
       </c>
-      <c r="J26" s="143"/>
-      <c r="K26" s="152"/>
-      <c r="L26" s="152"/>
-      <c r="M26" s="152"/>
-      <c r="N26" s="152"/>
-      <c r="O26" s="152"/>
-      <c r="P26" s="152"/>
-      <c r="Q26" s="152"/>
-      <c r="R26" s="153"/>
-      <c r="S26" s="142"/>
-      <c r="T26" s="143"/>
-      <c r="U26" s="143"/>
-      <c r="V26" s="143"/>
-      <c r="W26" s="143"/>
-      <c r="X26" s="143"/>
-      <c r="Y26" s="143"/>
-      <c r="Z26" s="143"/>
-      <c r="AA26" s="152"/>
-      <c r="AB26" s="152"/>
-      <c r="AC26" s="152"/>
-      <c r="AD26" s="152"/>
-      <c r="AE26" s="152"/>
-      <c r="AF26" s="152"/>
-      <c r="AG26" s="153"/>
+      <c r="K26" s="308"/>
+      <c r="L26" s="308"/>
+      <c r="M26" s="308"/>
+      <c r="N26" s="308"/>
+      <c r="O26" s="308"/>
+      <c r="P26" s="308"/>
+      <c r="Q26" s="308"/>
+      <c r="R26" s="308"/>
+      <c r="S26" s="309"/>
+      <c r="T26" s="307" t="s">
+        <v>189</v>
+      </c>
+      <c r="U26" s="308"/>
+      <c r="V26" s="308"/>
+      <c r="W26" s="308"/>
+      <c r="X26" s="308"/>
+      <c r="Y26" s="308"/>
+      <c r="Z26" s="308"/>
+      <c r="AA26" s="308"/>
+      <c r="AB26" s="308"/>
+      <c r="AC26" s="308"/>
+      <c r="AD26" s="308"/>
+      <c r="AE26" s="308"/>
+      <c r="AF26" s="308"/>
+      <c r="AG26" s="309"/>
       <c r="AH26" s="3"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A27" s="136"/>
       <c r="B27" s="137"/>
-      <c r="C27" s="146">
-        <v>9</v>
-      </c>
-      <c r="D27" s="171"/>
-      <c r="E27" s="172"/>
-      <c r="F27" s="172"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="173"/>
-      <c r="I27" s="142" t="s">
+      <c r="D27" s="305">
+        <v>6</v>
+      </c>
+      <c r="E27" s="155" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="156"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="156"/>
+      <c r="I27" s="157"/>
+      <c r="J27" s="307" t="s">
         <v>199</v>
       </c>
-      <c r="J27" s="157"/>
-      <c r="K27" s="157"/>
-      <c r="L27" s="157"/>
-      <c r="M27" s="157"/>
-      <c r="N27" s="157"/>
-      <c r="O27" s="157"/>
-      <c r="P27" s="152"/>
-      <c r="Q27" s="152"/>
-      <c r="R27" s="153"/>
-      <c r="S27" s="142" t="s">
-        <v>195</v>
-      </c>
-      <c r="T27" s="300"/>
-      <c r="U27" s="300"/>
-      <c r="V27" s="300"/>
-      <c r="W27" s="300"/>
-      <c r="X27" s="301"/>
-      <c r="Y27" s="302"/>
-      <c r="Z27" s="300"/>
-      <c r="AA27" s="152"/>
-      <c r="AB27" s="152"/>
-      <c r="AC27" s="152"/>
-      <c r="AD27" s="152"/>
-      <c r="AE27" s="152"/>
-      <c r="AF27" s="152"/>
-      <c r="AG27" s="153"/>
+      <c r="K27" s="308"/>
+      <c r="L27" s="308"/>
+      <c r="M27" s="308"/>
+      <c r="N27" s="308"/>
+      <c r="O27" s="308"/>
+      <c r="P27" s="308"/>
+      <c r="Q27" s="308"/>
+      <c r="R27" s="308"/>
+      <c r="S27" s="309"/>
+      <c r="T27" s="307"/>
+      <c r="U27" s="308"/>
+      <c r="V27" s="308"/>
+      <c r="W27" s="308"/>
+      <c r="X27" s="308"/>
+      <c r="Y27" s="308"/>
+      <c r="Z27" s="308"/>
+      <c r="AA27" s="308"/>
+      <c r="AB27" s="308"/>
+      <c r="AC27" s="308"/>
+      <c r="AD27" s="308"/>
+      <c r="AE27" s="308"/>
+      <c r="AF27" s="308"/>
+      <c r="AG27" s="309"/>
       <c r="AH27" s="3"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A28" s="136"/>
       <c r="B28" s="137"/>
-      <c r="C28" s="146">
-        <v>10</v>
-      </c>
-      <c r="D28" s="151" t="s">
-        <v>185</v>
-      </c>
-      <c r="E28" s="143"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="142" t="s">
-        <v>198</v>
-      </c>
-      <c r="J28" s="143"/>
-      <c r="K28" s="152"/>
-      <c r="L28" s="152"/>
-      <c r="M28" s="152"/>
-      <c r="N28" s="152"/>
-      <c r="O28" s="152"/>
-      <c r="P28" s="152"/>
-      <c r="Q28" s="152"/>
-      <c r="R28" s="153"/>
-      <c r="S28" s="142" t="s">
+      <c r="D28" s="306"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="307" t="s">
+        <v>197</v>
+      </c>
+      <c r="K28" s="308"/>
+      <c r="L28" s="308"/>
+      <c r="M28" s="308"/>
+      <c r="N28" s="308"/>
+      <c r="O28" s="308"/>
+      <c r="P28" s="308"/>
+      <c r="Q28" s="308"/>
+      <c r="R28" s="308"/>
+      <c r="S28" s="309"/>
+      <c r="T28" s="307" t="s">
+        <v>191</v>
+      </c>
+      <c r="U28" s="308"/>
+      <c r="V28" s="308"/>
+      <c r="W28" s="308"/>
+      <c r="X28" s="308"/>
+      <c r="Y28" s="308"/>
+      <c r="Z28" s="308"/>
+      <c r="AA28" s="308"/>
+      <c r="AB28" s="308"/>
+      <c r="AC28" s="308"/>
+      <c r="AD28" s="308"/>
+      <c r="AE28" s="308"/>
+      <c r="AF28" s="308"/>
+      <c r="AG28" s="309"/>
+      <c r="AH28" s="3"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A29" s="136"/>
+      <c r="B29" s="137"/>
+      <c r="D29" s="173">
+        <v>7</v>
+      </c>
+      <c r="E29" s="155" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="307" t="s">
+        <v>199</v>
+      </c>
+      <c r="K29" s="308"/>
+      <c r="L29" s="308"/>
+      <c r="M29" s="308"/>
+      <c r="N29" s="308"/>
+      <c r="O29" s="308"/>
+      <c r="P29" s="308"/>
+      <c r="Q29" s="308"/>
+      <c r="R29" s="308"/>
+      <c r="S29" s="309"/>
+      <c r="T29" s="307"/>
+      <c r="U29" s="308"/>
+      <c r="V29" s="308"/>
+      <c r="W29" s="308"/>
+      <c r="X29" s="308"/>
+      <c r="Y29" s="308"/>
+      <c r="Z29" s="308"/>
+      <c r="AA29" s="308"/>
+      <c r="AB29" s="308"/>
+      <c r="AC29" s="308"/>
+      <c r="AD29" s="308"/>
+      <c r="AE29" s="308"/>
+      <c r="AF29" s="308"/>
+      <c r="AG29" s="309"/>
+      <c r="AH29" s="3"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A30" s="136"/>
+      <c r="B30" s="137"/>
+      <c r="D30" s="174"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="307" t="s">
+        <v>195</v>
+      </c>
+      <c r="K30" s="308"/>
+      <c r="L30" s="308"/>
+      <c r="M30" s="308"/>
+      <c r="N30" s="308"/>
+      <c r="O30" s="308"/>
+      <c r="P30" s="308"/>
+      <c r="Q30" s="308"/>
+      <c r="R30" s="308"/>
+      <c r="S30" s="309"/>
+      <c r="T30" s="307" t="s">
         <v>192</v>
       </c>
-      <c r="T28" s="143"/>
-      <c r="U28" s="143"/>
-      <c r="V28" s="143"/>
-      <c r="W28" s="143"/>
-      <c r="X28" s="144"/>
-      <c r="Y28" s="143"/>
-      <c r="Z28" s="143"/>
-      <c r="AA28" s="152"/>
-      <c r="AB28" s="152"/>
-      <c r="AC28" s="152"/>
-      <c r="AD28" s="152"/>
-      <c r="AE28" s="152"/>
-      <c r="AF28" s="152"/>
-      <c r="AG28" s="153"/>
-      <c r="AH28" s="291"/>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B30" s="67"/>
-      <c r="C30" s="67" t="s">
-        <v>213</v>
-      </c>
-      <c r="D30" s="67" t="s">
-        <v>221</v>
-      </c>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="67"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="67"/>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="67"/>
-      <c r="R30" s="67"/>
-      <c r="S30" s="67"/>
+      <c r="U30" s="308"/>
+      <c r="V30" s="308"/>
+      <c r="W30" s="308"/>
+      <c r="X30" s="308"/>
+      <c r="Y30" s="308"/>
+      <c r="Z30" s="308"/>
+      <c r="AA30" s="308"/>
+      <c r="AB30" s="308"/>
+      <c r="AC30" s="308"/>
+      <c r="AD30" s="308"/>
+      <c r="AE30" s="308"/>
+      <c r="AF30" s="308"/>
+      <c r="AG30" s="309"/>
+      <c r="AH30" s="3"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67" t="s">
-        <v>222</v>
-      </c>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="67"/>
-      <c r="P31" s="67"/>
-      <c r="Q31" s="67"/>
-      <c r="R31" s="67"/>
-      <c r="S31" s="67"/>
+      <c r="A31" s="136"/>
+      <c r="B31" s="137"/>
+      <c r="D31" s="146">
+        <v>8</v>
+      </c>
+      <c r="E31" s="150" t="s">
+        <v>183</v>
+      </c>
+      <c r="F31" s="143"/>
+      <c r="G31" s="143"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="144"/>
+      <c r="J31" s="307" t="s">
+        <v>194</v>
+      </c>
+      <c r="K31" s="308"/>
+      <c r="L31" s="308"/>
+      <c r="M31" s="308"/>
+      <c r="N31" s="308"/>
+      <c r="O31" s="308"/>
+      <c r="P31" s="308"/>
+      <c r="Q31" s="308"/>
+      <c r="R31" s="308"/>
+      <c r="S31" s="309"/>
+      <c r="T31" s="307" t="s">
+        <v>189</v>
+      </c>
+      <c r="U31" s="308"/>
+      <c r="V31" s="308"/>
+      <c r="W31" s="308"/>
+      <c r="X31" s="308"/>
+      <c r="Y31" s="308"/>
+      <c r="Z31" s="308"/>
+      <c r="AA31" s="308"/>
+      <c r="AB31" s="308"/>
+      <c r="AC31" s="308"/>
+      <c r="AD31" s="308"/>
+      <c r="AE31" s="308"/>
+      <c r="AF31" s="308"/>
+      <c r="AG31" s="309"/>
+      <c r="AH31" s="3"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="67"/>
-      <c r="R32" s="67"/>
-      <c r="S32" s="67"/>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="67"/>
-      <c r="Q33" s="67"/>
-      <c r="R33" s="67"/>
-      <c r="S33" s="67"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="3"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A33" s="2"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="311" t="s">
+        <v>214</v>
+      </c>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="72"/>
+      <c r="S33" s="72"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="3"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A34" s="2"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="138" t="s">
+        <v>207</v>
+      </c>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="72"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="3"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="3"/>
+    </row>
+    <row r="36" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="312"/>
+      <c r="B36" s="312"/>
+      <c r="C36" s="312"/>
+      <c r="D36" s="312"/>
+      <c r="E36" s="312"/>
+      <c r="F36" s="312"/>
+      <c r="G36" s="312"/>
+      <c r="H36" s="312"/>
+      <c r="I36" s="312"/>
+      <c r="J36" s="312"/>
+      <c r="K36" s="312"/>
+      <c r="L36" s="312"/>
+      <c r="M36" s="312"/>
+      <c r="N36" s="312"/>
+      <c r="O36" s="312"/>
+      <c r="P36" s="312"/>
+      <c r="Q36" s="312"/>
+      <c r="R36" s="312"/>
+      <c r="S36" s="312"/>
+      <c r="T36" s="312"/>
+      <c r="U36" s="312"/>
+      <c r="V36" s="312"/>
+      <c r="W36" s="312"/>
+      <c r="X36" s="312"/>
+      <c r="Y36" s="312"/>
+      <c r="Z36" s="312"/>
+      <c r="AA36" s="312"/>
+      <c r="AB36" s="312"/>
+      <c r="AC36" s="312"/>
+      <c r="AD36" s="312"/>
+      <c r="AE36" s="312"/>
+      <c r="AF36" s="312"/>
+      <c r="AG36" s="312"/>
+      <c r="AH36" s="313"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="38">
+    <mergeCell ref="T24:AG24"/>
+    <mergeCell ref="T31:AG31"/>
+    <mergeCell ref="T30:AG30"/>
+    <mergeCell ref="T29:AG29"/>
+    <mergeCell ref="T28:AG28"/>
+    <mergeCell ref="T27:AG27"/>
+    <mergeCell ref="T26:AG26"/>
+    <mergeCell ref="T25:AG25"/>
+    <mergeCell ref="J26:S26"/>
+    <mergeCell ref="J25:S25"/>
+    <mergeCell ref="J24:S24"/>
+    <mergeCell ref="J23:S23"/>
+    <mergeCell ref="J22:S22"/>
+    <mergeCell ref="J31:S31"/>
+    <mergeCell ref="J30:S30"/>
+    <mergeCell ref="J29:S29"/>
+    <mergeCell ref="J28:S28"/>
+    <mergeCell ref="J27:S27"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:Y1"/>
+    <mergeCell ref="J20:S20"/>
+    <mergeCell ref="J21:S21"/>
+    <mergeCell ref="T23:AG23"/>
+    <mergeCell ref="T22:AG22"/>
+    <mergeCell ref="T21:AG21"/>
+    <mergeCell ref="T20:AG20"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AH1"/>
     <mergeCell ref="A2:E2"/>
@@ -12590,15 +12927,6 @@
     <mergeCell ref="Q2:Y2"/>
     <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AC2:AH2"/>
-    <mergeCell ref="D16:H17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:Y1"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D19:H20"/>
-    <mergeCell ref="D24:H25"/>
-    <mergeCell ref="D26:H27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12623,16 +12951,16 @@
   <sheetData>
     <row r="1" spans="1:8" s="81" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C1" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="82" t="s">
         <v>97</v>
-      </c>
-      <c r="D1" s="82" t="s">
-        <v>98</v>
       </c>
       <c r="E1" s="82"/>
       <c r="F1" s="82"/>
@@ -12644,13 +12972,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -12662,10 +12990,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -12678,13 +13006,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -12696,13 +13024,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -12714,13 +13042,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="84" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -12732,13 +13060,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="93" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="91" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -12750,13 +13078,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -12768,13 +13096,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -12786,13 +13114,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -12804,13 +13132,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -12822,10 +13150,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="91" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -12838,13 +13166,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -12856,13 +13184,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -12874,10 +13202,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -12890,13 +13218,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -12908,13 +13236,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -12926,10 +13254,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" s="85"/>
       <c r="E18" s="13"/>
@@ -12942,13 +13270,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="87" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
@@ -12960,13 +13288,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -12978,10 +13306,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -13002,16 +13330,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3796E777-5FBE-4743-A69E-244CFD2718F0}">
   <dimension ref="A1:BN29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="U29" sqref="U29:V29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.8984375" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="105" customWidth="1"/>
-    <col min="2" max="65" width="1.8984375" style="105"/>
+    <col min="2" max="27" width="1.8984375" style="105"/>
+    <col min="28" max="28" width="2.69921875" style="105" customWidth="1"/>
+    <col min="29" max="65" width="1.8984375" style="105"/>
     <col min="66" max="66" width="1.69921875" style="105" customWidth="1"/>
-    <col min="67" max="256" width="1.8984375" style="105"/>
+    <col min="67" max="67" width="1.8984375" style="105"/>
+    <col min="68" max="68" width="1.8984375" style="105" customWidth="1"/>
+    <col min="69" max="256" width="1.8984375" style="105"/>
     <col min="257" max="257" width="3.5" style="105" customWidth="1"/>
     <col min="258" max="321" width="1.8984375" style="105"/>
     <col min="322" max="322" width="1.69921875" style="105" customWidth="1"/>
@@ -13335,35 +13667,35 @@
       <c r="BN1" s="104"/>
     </row>
     <row r="2" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="275" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="276"/>
-      <c r="D2" s="276"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="276"/>
-      <c r="G2" s="276"/>
-      <c r="H2" s="276"/>
-      <c r="I2" s="276"/>
-      <c r="J2" s="276"/>
-      <c r="K2" s="276"/>
-      <c r="L2" s="276"/>
-      <c r="M2" s="276"/>
-      <c r="N2" s="276"/>
-      <c r="O2" s="276"/>
-      <c r="P2" s="276"/>
-      <c r="Q2" s="276"/>
-      <c r="R2" s="276"/>
-      <c r="S2" s="276"/>
-      <c r="T2" s="276"/>
-      <c r="U2" s="276"/>
-      <c r="V2" s="276"/>
-      <c r="W2" s="276"/>
-      <c r="X2" s="276"/>
-      <c r="Y2" s="276"/>
-      <c r="Z2" s="276"/>
-      <c r="AA2" s="276"/>
+      <c r="A2" s="175" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="176"/>
+      <c r="L2" s="176"/>
+      <c r="M2" s="176"/>
+      <c r="N2" s="176"/>
+      <c r="O2" s="176"/>
+      <c r="P2" s="176"/>
+      <c r="Q2" s="176"/>
+      <c r="R2" s="176"/>
+      <c r="S2" s="176"/>
+      <c r="T2" s="176"/>
+      <c r="U2" s="176"/>
+      <c r="V2" s="176"/>
+      <c r="W2" s="176"/>
+      <c r="X2" s="176"/>
+      <c r="Y2" s="176"/>
+      <c r="Z2" s="176"/>
+      <c r="AA2" s="176"/>
       <c r="AP2" s="106"/>
       <c r="AQ2" s="106"/>
       <c r="AR2" s="106"/>
@@ -13391,33 +13723,33 @@
       <c r="BN2" s="108"/>
     </row>
     <row r="3" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="277"/>
-      <c r="B3" s="278"/>
-      <c r="C3" s="278"/>
-      <c r="D3" s="278"/>
-      <c r="E3" s="278"/>
-      <c r="F3" s="278"/>
-      <c r="G3" s="278"/>
-      <c r="H3" s="278"/>
-      <c r="I3" s="278"/>
-      <c r="J3" s="278"/>
-      <c r="K3" s="278"/>
-      <c r="L3" s="278"/>
-      <c r="M3" s="278"/>
-      <c r="N3" s="278"/>
-      <c r="O3" s="278"/>
-      <c r="P3" s="278"/>
-      <c r="Q3" s="278"/>
-      <c r="R3" s="278"/>
-      <c r="S3" s="278"/>
-      <c r="T3" s="278"/>
-      <c r="U3" s="278"/>
-      <c r="V3" s="278"/>
-      <c r="W3" s="278"/>
-      <c r="X3" s="278"/>
-      <c r="Y3" s="278"/>
-      <c r="Z3" s="278"/>
-      <c r="AA3" s="278"/>
+      <c r="A3" s="177"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="178"/>
+      <c r="L3" s="178"/>
+      <c r="M3" s="178"/>
+      <c r="N3" s="178"/>
+      <c r="O3" s="178"/>
+      <c r="P3" s="178"/>
+      <c r="Q3" s="178"/>
+      <c r="R3" s="178"/>
+      <c r="S3" s="178"/>
+      <c r="T3" s="178"/>
+      <c r="U3" s="178"/>
+      <c r="V3" s="178"/>
+      <c r="W3" s="178"/>
+      <c r="X3" s="178"/>
+      <c r="Y3" s="178"/>
+      <c r="Z3" s="178"/>
+      <c r="AA3" s="178"/>
       <c r="AB3" s="109"/>
       <c r="AC3" s="109"/>
       <c r="AD3" s="109"/>
@@ -13459,167 +13791,167 @@
       <c r="BN3" s="111"/>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="279" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="280"/>
-      <c r="C4" s="280"/>
-      <c r="D4" s="280"/>
-      <c r="E4" s="280"/>
-      <c r="F4" s="281"/>
-      <c r="G4" s="282" t="str">
+      <c r="A4" s="179" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="180"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="182" t="str">
         <f>[1]画面レイアウト!G4</f>
         <v>社内管理システム</v>
       </c>
-      <c r="H4" s="283"/>
-      <c r="I4" s="283"/>
-      <c r="J4" s="283"/>
-      <c r="K4" s="283"/>
-      <c r="L4" s="283"/>
-      <c r="M4" s="283"/>
-      <c r="N4" s="283"/>
-      <c r="O4" s="284"/>
-      <c r="P4" s="285" t="s">
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="183"/>
+      <c r="K4" s="183"/>
+      <c r="L4" s="183"/>
+      <c r="M4" s="183"/>
+      <c r="N4" s="183"/>
+      <c r="O4" s="184"/>
+      <c r="P4" s="185" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q4" s="186"/>
+      <c r="R4" s="186"/>
+      <c r="S4" s="186"/>
+      <c r="T4" s="186"/>
+      <c r="U4" s="187"/>
+      <c r="V4" s="188" t="s">
+        <v>164</v>
+      </c>
+      <c r="W4" s="189"/>
+      <c r="X4" s="189"/>
+      <c r="Y4" s="189"/>
+      <c r="Z4" s="189"/>
+      <c r="AA4" s="189"/>
+      <c r="AB4" s="189"/>
+      <c r="AC4" s="189"/>
+      <c r="AD4" s="189"/>
+      <c r="AE4" s="189"/>
+      <c r="AF4" s="189"/>
+      <c r="AG4" s="189"/>
+      <c r="AH4" s="189"/>
+      <c r="AI4" s="189"/>
+      <c r="AJ4" s="189"/>
+      <c r="AK4" s="189"/>
+      <c r="AL4" s="189"/>
+      <c r="AM4" s="189"/>
+      <c r="AN4" s="189"/>
+      <c r="AO4" s="189"/>
+      <c r="AP4" s="189"/>
+      <c r="AQ4" s="189"/>
+      <c r="AR4" s="189"/>
+      <c r="AS4" s="189"/>
+      <c r="AT4" s="189"/>
+      <c r="AU4" s="189"/>
+      <c r="AV4" s="190"/>
+      <c r="AW4" s="191" t="s">
         <v>135</v>
       </c>
-      <c r="Q4" s="286"/>
-      <c r="R4" s="286"/>
-      <c r="S4" s="286"/>
-      <c r="T4" s="286"/>
-      <c r="U4" s="287"/>
-      <c r="V4" s="288" t="s">
-        <v>165</v>
-      </c>
-      <c r="W4" s="289"/>
-      <c r="X4" s="289"/>
-      <c r="Y4" s="289"/>
-      <c r="Z4" s="289"/>
-      <c r="AA4" s="289"/>
-      <c r="AB4" s="289"/>
-      <c r="AC4" s="289"/>
-      <c r="AD4" s="289"/>
-      <c r="AE4" s="289"/>
-      <c r="AF4" s="289"/>
-      <c r="AG4" s="289"/>
-      <c r="AH4" s="289"/>
-      <c r="AI4" s="289"/>
-      <c r="AJ4" s="289"/>
-      <c r="AK4" s="289"/>
-      <c r="AL4" s="289"/>
-      <c r="AM4" s="289"/>
-      <c r="AN4" s="289"/>
-      <c r="AO4" s="289"/>
-      <c r="AP4" s="289"/>
-      <c r="AQ4" s="289"/>
-      <c r="AR4" s="289"/>
-      <c r="AS4" s="289"/>
-      <c r="AT4" s="289"/>
-      <c r="AU4" s="289"/>
-      <c r="AV4" s="290"/>
-      <c r="AW4" s="262" t="s">
+      <c r="AX4" s="192"/>
+      <c r="AY4" s="193"/>
+      <c r="AZ4" s="194">
+        <v>44517</v>
+      </c>
+      <c r="BA4" s="195"/>
+      <c r="BB4" s="195"/>
+      <c r="BC4" s="195"/>
+      <c r="BD4" s="195"/>
+      <c r="BE4" s="195"/>
+      <c r="BF4" s="191" t="s">
         <v>136</v>
       </c>
-      <c r="AX4" s="263"/>
-      <c r="AY4" s="264"/>
-      <c r="AZ4" s="260">
-        <v>44517</v>
-      </c>
-      <c r="BA4" s="261"/>
-      <c r="BB4" s="261"/>
-      <c r="BC4" s="261"/>
-      <c r="BD4" s="261"/>
-      <c r="BE4" s="261"/>
-      <c r="BF4" s="262" t="s">
+      <c r="BG4" s="192"/>
+      <c r="BH4" s="193"/>
+      <c r="BI4" s="196" t="s">
+        <v>41</v>
+      </c>
+      <c r="BJ4" s="195"/>
+      <c r="BK4" s="195"/>
+      <c r="BL4" s="195"/>
+      <c r="BM4" s="195"/>
+      <c r="BN4" s="197"/>
+    </row>
+    <row r="5" spans="1:66" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="198" t="s">
         <v>137</v>
       </c>
-      <c r="BG4" s="263"/>
-      <c r="BH4" s="264"/>
-      <c r="BI4" s="265" t="s">
-        <v>42</v>
-      </c>
-      <c r="BJ4" s="261"/>
-      <c r="BK4" s="261"/>
-      <c r="BL4" s="261"/>
-      <c r="BM4" s="261"/>
-      <c r="BN4" s="266"/>
-    </row>
-    <row r="5" spans="1:66" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="267" t="s">
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="201" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="201"/>
+      <c r="I5" s="201"/>
+      <c r="J5" s="201"/>
+      <c r="K5" s="201"/>
+      <c r="L5" s="201"/>
+      <c r="M5" s="201"/>
+      <c r="N5" s="201"/>
+      <c r="O5" s="202"/>
+      <c r="P5" s="198" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="268"/>
-      <c r="C5" s="268"/>
-      <c r="D5" s="268"/>
-      <c r="E5" s="268"/>
-      <c r="F5" s="269"/>
-      <c r="G5" s="270" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="270"/>
-      <c r="I5" s="270"/>
-      <c r="J5" s="270"/>
-      <c r="K5" s="270"/>
-      <c r="L5" s="270"/>
-      <c r="M5" s="270"/>
-      <c r="N5" s="270"/>
-      <c r="O5" s="271"/>
-      <c r="P5" s="267" t="s">
+      <c r="Q5" s="199"/>
+      <c r="R5" s="199"/>
+      <c r="S5" s="199"/>
+      <c r="T5" s="199"/>
+      <c r="U5" s="200"/>
+      <c r="V5" s="203"/>
+      <c r="W5" s="204"/>
+      <c r="X5" s="204"/>
+      <c r="Y5" s="204"/>
+      <c r="Z5" s="204"/>
+      <c r="AA5" s="204"/>
+      <c r="AB5" s="204"/>
+      <c r="AC5" s="204"/>
+      <c r="AD5" s="204"/>
+      <c r="AE5" s="204"/>
+      <c r="AF5" s="204"/>
+      <c r="AG5" s="204"/>
+      <c r="AH5" s="204"/>
+      <c r="AI5" s="204"/>
+      <c r="AJ5" s="204"/>
+      <c r="AK5" s="204"/>
+      <c r="AL5" s="204"/>
+      <c r="AM5" s="204"/>
+      <c r="AN5" s="204"/>
+      <c r="AO5" s="204"/>
+      <c r="AP5" s="204"/>
+      <c r="AQ5" s="204"/>
+      <c r="AR5" s="204"/>
+      <c r="AS5" s="204"/>
+      <c r="AT5" s="204"/>
+      <c r="AU5" s="204"/>
+      <c r="AV5" s="205"/>
+      <c r="AW5" s="206" t="s">
         <v>139</v>
       </c>
-      <c r="Q5" s="268"/>
-      <c r="R5" s="268"/>
-      <c r="S5" s="268"/>
-      <c r="T5" s="268"/>
-      <c r="U5" s="269"/>
-      <c r="V5" s="247"/>
-      <c r="W5" s="248"/>
-      <c r="X5" s="248"/>
-      <c r="Y5" s="248"/>
-      <c r="Z5" s="248"/>
-      <c r="AA5" s="248"/>
-      <c r="AB5" s="248"/>
-      <c r="AC5" s="248"/>
-      <c r="AD5" s="248"/>
-      <c r="AE5" s="248"/>
-      <c r="AF5" s="248"/>
-      <c r="AG5" s="248"/>
-      <c r="AH5" s="248"/>
-      <c r="AI5" s="248"/>
-      <c r="AJ5" s="248"/>
-      <c r="AK5" s="248"/>
-      <c r="AL5" s="248"/>
-      <c r="AM5" s="248"/>
-      <c r="AN5" s="248"/>
-      <c r="AO5" s="248"/>
-      <c r="AP5" s="248"/>
-      <c r="AQ5" s="248"/>
-      <c r="AR5" s="248"/>
-      <c r="AS5" s="248"/>
-      <c r="AT5" s="248"/>
-      <c r="AU5" s="248"/>
-      <c r="AV5" s="249"/>
-      <c r="AW5" s="272" t="s">
+      <c r="AX5" s="207"/>
+      <c r="AY5" s="208"/>
+      <c r="AZ5" s="207"/>
+      <c r="BA5" s="207"/>
+      <c r="BB5" s="207"/>
+      <c r="BC5" s="207"/>
+      <c r="BD5" s="207"/>
+      <c r="BE5" s="207"/>
+      <c r="BF5" s="206" t="s">
         <v>140</v>
       </c>
-      <c r="AX5" s="273"/>
-      <c r="AY5" s="274"/>
-      <c r="AZ5" s="273"/>
-      <c r="BA5" s="273"/>
-      <c r="BB5" s="273"/>
-      <c r="BC5" s="273"/>
-      <c r="BD5" s="273"/>
-      <c r="BE5" s="273"/>
-      <c r="BF5" s="272" t="s">
-        <v>141</v>
-      </c>
-      <c r="BG5" s="273"/>
-      <c r="BH5" s="274"/>
-      <c r="BI5" s="247"/>
-      <c r="BJ5" s="248"/>
-      <c r="BK5" s="248"/>
-      <c r="BL5" s="248"/>
-      <c r="BM5" s="248"/>
-      <c r="BN5" s="249"/>
+      <c r="BG5" s="207"/>
+      <c r="BH5" s="208"/>
+      <c r="BI5" s="203"/>
+      <c r="BJ5" s="204"/>
+      <c r="BK5" s="204"/>
+      <c r="BL5" s="204"/>
+      <c r="BM5" s="204"/>
+      <c r="BN5" s="205"/>
     </row>
     <row r="6" spans="1:66" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A6" s="112"/>
@@ -13690,1958 +14022,2156 @@
       <c r="BN6" s="112"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="250" t="s">
+      <c r="A7" s="209" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="210"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="210"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="210"/>
+      <c r="H7" s="210"/>
+      <c r="I7" s="210"/>
+      <c r="J7" s="210"/>
+      <c r="K7" s="210"/>
+      <c r="L7" s="210"/>
+      <c r="M7" s="210"/>
+      <c r="N7" s="210"/>
+      <c r="O7" s="210"/>
+      <c r="P7" s="210"/>
+      <c r="Q7" s="210"/>
+      <c r="R7" s="210"/>
+      <c r="S7" s="210"/>
+      <c r="T7" s="210"/>
+      <c r="U7" s="210"/>
+      <c r="V7" s="210"/>
+      <c r="W7" s="210"/>
+      <c r="X7" s="210"/>
+      <c r="Y7" s="210"/>
+      <c r="Z7" s="210"/>
+      <c r="AA7" s="210"/>
+      <c r="AB7" s="211"/>
+      <c r="AC7" s="209" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="251"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="251"/>
-      <c r="E7" s="251"/>
-      <c r="F7" s="251"/>
-      <c r="G7" s="251"/>
-      <c r="H7" s="251"/>
-      <c r="I7" s="251"/>
-      <c r="J7" s="251"/>
-      <c r="K7" s="251"/>
-      <c r="L7" s="251"/>
-      <c r="M7" s="251"/>
-      <c r="N7" s="251"/>
-      <c r="O7" s="251"/>
-      <c r="P7" s="251"/>
-      <c r="Q7" s="251"/>
-      <c r="R7" s="251"/>
-      <c r="S7" s="251"/>
-      <c r="T7" s="251"/>
-      <c r="U7" s="251"/>
-      <c r="V7" s="251"/>
-      <c r="W7" s="251"/>
-      <c r="X7" s="251"/>
-      <c r="Y7" s="251"/>
-      <c r="Z7" s="251"/>
-      <c r="AA7" s="251"/>
-      <c r="AB7" s="252"/>
-      <c r="AC7" s="250" t="s">
+      <c r="AD7" s="210"/>
+      <c r="AE7" s="210"/>
+      <c r="AF7" s="210"/>
+      <c r="AG7" s="210"/>
+      <c r="AH7" s="210"/>
+      <c r="AI7" s="210"/>
+      <c r="AJ7" s="210"/>
+      <c r="AK7" s="210"/>
+      <c r="AL7" s="210"/>
+      <c r="AM7" s="210"/>
+      <c r="AN7" s="211"/>
+      <c r="AO7" s="212" t="s">
         <v>143</v>
       </c>
-      <c r="AD7" s="251"/>
-      <c r="AE7" s="251"/>
-      <c r="AF7" s="251"/>
-      <c r="AG7" s="251"/>
-      <c r="AH7" s="251"/>
-      <c r="AI7" s="251"/>
-      <c r="AJ7" s="251"/>
-      <c r="AK7" s="251"/>
-      <c r="AL7" s="251"/>
-      <c r="AM7" s="251"/>
-      <c r="AN7" s="252"/>
-      <c r="AO7" s="253" t="s">
+      <c r="AP7" s="213"/>
+      <c r="AQ7" s="213"/>
+      <c r="AR7" s="213"/>
+      <c r="AS7" s="213"/>
+      <c r="AT7" s="213"/>
+      <c r="AU7" s="213"/>
+      <c r="AV7" s="213"/>
+      <c r="AW7" s="213"/>
+      <c r="AX7" s="213"/>
+      <c r="AY7" s="213"/>
+      <c r="AZ7" s="213"/>
+      <c r="BA7" s="213"/>
+      <c r="BB7" s="213"/>
+      <c r="BC7" s="213"/>
+      <c r="BD7" s="213"/>
+      <c r="BE7" s="213"/>
+      <c r="BF7" s="213"/>
+      <c r="BG7" s="213"/>
+      <c r="BH7" s="213"/>
+      <c r="BI7" s="213"/>
+      <c r="BJ7" s="213"/>
+      <c r="BK7" s="213"/>
+      <c r="BL7" s="214"/>
+      <c r="BM7" s="212" t="s">
         <v>144</v>
       </c>
-      <c r="AP7" s="254"/>
-      <c r="AQ7" s="254"/>
-      <c r="AR7" s="254"/>
-      <c r="AS7" s="254"/>
-      <c r="AT7" s="254"/>
-      <c r="AU7" s="254"/>
-      <c r="AV7" s="254"/>
-      <c r="AW7" s="254"/>
-      <c r="AX7" s="254"/>
-      <c r="AY7" s="254"/>
-      <c r="AZ7" s="254"/>
-      <c r="BA7" s="254"/>
-      <c r="BB7" s="254"/>
-      <c r="BC7" s="254"/>
-      <c r="BD7" s="254"/>
-      <c r="BE7" s="254"/>
-      <c r="BF7" s="254"/>
-      <c r="BG7" s="254"/>
-      <c r="BH7" s="254"/>
-      <c r="BI7" s="254"/>
-      <c r="BJ7" s="254"/>
-      <c r="BK7" s="254"/>
-      <c r="BL7" s="255"/>
-      <c r="BM7" s="253" t="s">
-        <v>145</v>
-      </c>
-      <c r="BN7" s="255"/>
+      <c r="BN7" s="214"/>
     </row>
     <row r="8" spans="1:66" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="113" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="218" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="230" t="s">
+      <c r="C8" s="216"/>
+      <c r="D8" s="216"/>
+      <c r="E8" s="216"/>
+      <c r="F8" s="216"/>
+      <c r="G8" s="216"/>
+      <c r="H8" s="216"/>
+      <c r="I8" s="216"/>
+      <c r="J8" s="216"/>
+      <c r="K8" s="216"/>
+      <c r="L8" s="219"/>
+      <c r="M8" s="218" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="257"/>
-      <c r="D8" s="257"/>
-      <c r="E8" s="257"/>
-      <c r="F8" s="257"/>
-      <c r="G8" s="257"/>
-      <c r="H8" s="257"/>
-      <c r="I8" s="257"/>
-      <c r="J8" s="257"/>
-      <c r="K8" s="257"/>
-      <c r="L8" s="259"/>
-      <c r="M8" s="230" t="s">
+      <c r="N8" s="216"/>
+      <c r="O8" s="216"/>
+      <c r="P8" s="220"/>
+      <c r="Q8" s="218" t="s">
         <v>148</v>
       </c>
-      <c r="N8" s="257"/>
-      <c r="O8" s="257"/>
-      <c r="P8" s="231"/>
-      <c r="Q8" s="230" t="s">
+      <c r="R8" s="220"/>
+      <c r="S8" s="218" t="s">
         <v>149</v>
       </c>
-      <c r="R8" s="231"/>
-      <c r="S8" s="230" t="s">
+      <c r="T8" s="220"/>
+      <c r="U8" s="218" t="s">
         <v>150</v>
       </c>
-      <c r="T8" s="231"/>
-      <c r="U8" s="230" t="s">
+      <c r="V8" s="220"/>
+      <c r="W8" s="218" t="s">
         <v>151</v>
       </c>
-      <c r="V8" s="231"/>
-      <c r="W8" s="230" t="s">
+      <c r="X8" s="220"/>
+      <c r="Y8" s="221" t="s">
         <v>152</v>
       </c>
-      <c r="X8" s="231"/>
-      <c r="Y8" s="232" t="s">
+      <c r="Z8" s="222"/>
+      <c r="AA8" s="222"/>
+      <c r="AB8" s="223"/>
+      <c r="AC8" s="224" t="s">
         <v>153</v>
       </c>
-      <c r="Z8" s="233"/>
-      <c r="AA8" s="233"/>
-      <c r="AB8" s="234"/>
-      <c r="AC8" s="235" t="s">
+      <c r="AD8" s="225"/>
+      <c r="AE8" s="225"/>
+      <c r="AF8" s="225"/>
+      <c r="AG8" s="226"/>
+      <c r="AH8" s="227" t="s">
         <v>154</v>
       </c>
-      <c r="AD8" s="236"/>
-      <c r="AE8" s="236"/>
-      <c r="AF8" s="236"/>
-      <c r="AG8" s="237"/>
-      <c r="AH8" s="238" t="s">
+      <c r="AI8" s="227"/>
+      <c r="AJ8" s="227"/>
+      <c r="AK8" s="227"/>
+      <c r="AL8" s="227"/>
+      <c r="AM8" s="227"/>
+      <c r="AN8" s="228"/>
+      <c r="AO8" s="215"/>
+      <c r="AP8" s="216"/>
+      <c r="AQ8" s="216"/>
+      <c r="AR8" s="216"/>
+      <c r="AS8" s="216"/>
+      <c r="AT8" s="216"/>
+      <c r="AU8" s="216"/>
+      <c r="AV8" s="216"/>
+      <c r="AW8" s="216"/>
+      <c r="AX8" s="216"/>
+      <c r="AY8" s="216"/>
+      <c r="AZ8" s="216"/>
+      <c r="BA8" s="216"/>
+      <c r="BB8" s="216"/>
+      <c r="BC8" s="216"/>
+      <c r="BD8" s="216"/>
+      <c r="BE8" s="216"/>
+      <c r="BF8" s="216"/>
+      <c r="BG8" s="216"/>
+      <c r="BH8" s="216"/>
+      <c r="BI8" s="216"/>
+      <c r="BJ8" s="216"/>
+      <c r="BK8" s="216"/>
+      <c r="BL8" s="217"/>
+      <c r="BM8" s="215"/>
+      <c r="BN8" s="217"/>
+    </row>
+    <row r="9" spans="1:66" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="114" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="229" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="230"/>
+      <c r="D9" s="230"/>
+      <c r="E9" s="230"/>
+      <c r="F9" s="230"/>
+      <c r="G9" s="230"/>
+      <c r="H9" s="230"/>
+      <c r="I9" s="230"/>
+      <c r="J9" s="230"/>
+      <c r="K9" s="230"/>
+      <c r="L9" s="231"/>
+      <c r="M9" s="232" t="s">
+        <v>156</v>
+      </c>
+      <c r="N9" s="233"/>
+      <c r="O9" s="233"/>
+      <c r="P9" s="234"/>
+      <c r="Q9" s="235">
+        <v>6</v>
+      </c>
+      <c r="R9" s="236"/>
+      <c r="S9" s="237" t="s">
+        <v>162</v>
+      </c>
+      <c r="T9" s="234"/>
+      <c r="U9" s="232"/>
+      <c r="V9" s="234"/>
+      <c r="W9" s="232" t="s">
         <v>155</v>
       </c>
-      <c r="AI8" s="238"/>
-      <c r="AJ8" s="238"/>
-      <c r="AK8" s="238"/>
-      <c r="AL8" s="238"/>
-      <c r="AM8" s="238"/>
-      <c r="AN8" s="239"/>
-      <c r="AO8" s="256"/>
-      <c r="AP8" s="257"/>
-      <c r="AQ8" s="257"/>
-      <c r="AR8" s="257"/>
-      <c r="AS8" s="257"/>
-      <c r="AT8" s="257"/>
-      <c r="AU8" s="257"/>
-      <c r="AV8" s="257"/>
-      <c r="AW8" s="257"/>
-      <c r="AX8" s="257"/>
-      <c r="AY8" s="257"/>
-      <c r="AZ8" s="257"/>
-      <c r="BA8" s="257"/>
-      <c r="BB8" s="257"/>
-      <c r="BC8" s="257"/>
-      <c r="BD8" s="257"/>
-      <c r="BE8" s="257"/>
-      <c r="BF8" s="257"/>
-      <c r="BG8" s="257"/>
-      <c r="BH8" s="257"/>
-      <c r="BI8" s="257"/>
-      <c r="BJ8" s="257"/>
-      <c r="BK8" s="257"/>
-      <c r="BL8" s="258"/>
-      <c r="BM8" s="256"/>
-      <c r="BN8" s="258"/>
-    </row>
-    <row r="9" spans="1:66" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="114" t="s">
+      <c r="X9" s="234"/>
+      <c r="Y9" s="232" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z9" s="233"/>
+      <c r="AA9" s="233"/>
+      <c r="AB9" s="238"/>
+      <c r="AC9" s="239" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD9" s="240"/>
+      <c r="AE9" s="240"/>
+      <c r="AF9" s="240"/>
+      <c r="AG9" s="241"/>
+      <c r="AH9" s="296" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI9" s="297"/>
+      <c r="AJ9" s="297"/>
+      <c r="AK9" s="297"/>
+      <c r="AL9" s="297"/>
+      <c r="AM9" s="297"/>
+      <c r="AN9" s="298"/>
+      <c r="AO9" s="242" t="s">
+        <v>175</v>
+      </c>
+      <c r="AP9" s="243"/>
+      <c r="AQ9" s="243"/>
+      <c r="AR9" s="243"/>
+      <c r="AS9" s="243"/>
+      <c r="AT9" s="243"/>
+      <c r="AU9" s="243"/>
+      <c r="AV9" s="243"/>
+      <c r="AW9" s="243"/>
+      <c r="AX9" s="243"/>
+      <c r="AY9" s="243"/>
+      <c r="AZ9" s="243"/>
+      <c r="BA9" s="243"/>
+      <c r="BB9" s="243"/>
+      <c r="BC9" s="243"/>
+      <c r="BD9" s="243"/>
+      <c r="BE9" s="243"/>
+      <c r="BF9" s="243"/>
+      <c r="BG9" s="243"/>
+      <c r="BH9" s="243"/>
+      <c r="BI9" s="243"/>
+      <c r="BJ9" s="243"/>
+      <c r="BK9" s="243"/>
+      <c r="BL9" s="244"/>
+      <c r="BM9" s="245"/>
+      <c r="BN9" s="246"/>
+    </row>
+    <row r="10" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="247" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="248"/>
+      <c r="D10" s="248"/>
+      <c r="E10" s="248"/>
+      <c r="F10" s="248"/>
+      <c r="G10" s="248"/>
+      <c r="H10" s="248"/>
+      <c r="I10" s="248"/>
+      <c r="J10" s="248"/>
+      <c r="K10" s="248"/>
+      <c r="L10" s="249"/>
+      <c r="M10" s="250" t="s">
+        <v>156</v>
+      </c>
+      <c r="N10" s="251"/>
+      <c r="O10" s="251"/>
+      <c r="P10" s="252"/>
+      <c r="Q10" s="253">
+        <v>12</v>
+      </c>
+      <c r="R10" s="254"/>
+      <c r="S10" s="255">
+        <v>1</v>
+      </c>
+      <c r="T10" s="256"/>
+      <c r="U10" s="267" t="s">
+        <v>162</v>
+      </c>
+      <c r="V10" s="266"/>
+      <c r="W10" s="255" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="240" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="241"/>
-      <c r="D9" s="241"/>
-      <c r="E9" s="241"/>
-      <c r="F9" s="241"/>
-      <c r="G9" s="241"/>
-      <c r="H9" s="241"/>
-      <c r="I9" s="241"/>
-      <c r="J9" s="241"/>
-      <c r="K9" s="241"/>
-      <c r="L9" s="242"/>
-      <c r="M9" s="224" t="s">
-        <v>157</v>
-      </c>
-      <c r="N9" s="177"/>
-      <c r="O9" s="177"/>
-      <c r="P9" s="243"/>
-      <c r="Q9" s="244">
-        <v>6</v>
-      </c>
-      <c r="R9" s="245"/>
-      <c r="S9" s="246" t="s">
+      <c r="X10" s="256"/>
+      <c r="Y10" s="250" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z10" s="251"/>
+      <c r="AA10" s="251"/>
+      <c r="AB10" s="252"/>
+      <c r="AC10" s="239" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD10" s="240"/>
+      <c r="AE10" s="240"/>
+      <c r="AF10" s="240"/>
+      <c r="AG10" s="241"/>
+      <c r="AH10" s="299" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI10" s="300"/>
+      <c r="AJ10" s="300"/>
+      <c r="AK10" s="300"/>
+      <c r="AL10" s="300"/>
+      <c r="AM10" s="300"/>
+      <c r="AN10" s="301"/>
+      <c r="AO10" s="257" t="s">
         <v>163</v>
       </c>
-      <c r="T9" s="243"/>
-      <c r="U9" s="224"/>
-      <c r="V9" s="243"/>
-      <c r="W9" s="224" t="s">
-        <v>156</v>
-      </c>
-      <c r="X9" s="243"/>
-      <c r="Y9" s="224" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z9" s="177"/>
-      <c r="AA9" s="177"/>
-      <c r="AB9" s="178"/>
-      <c r="AC9" s="174" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD9" s="175"/>
-      <c r="AE9" s="175"/>
-      <c r="AF9" s="175"/>
-      <c r="AG9" s="176"/>
-      <c r="AH9" s="177" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI9" s="177"/>
-      <c r="AJ9" s="177"/>
-      <c r="AK9" s="177"/>
-      <c r="AL9" s="177"/>
-      <c r="AM9" s="177"/>
-      <c r="AN9" s="178"/>
-      <c r="AO9" s="225" t="s">
-        <v>176</v>
-      </c>
-      <c r="AP9" s="226"/>
-      <c r="AQ9" s="226"/>
-      <c r="AR9" s="226"/>
-      <c r="AS9" s="226"/>
-      <c r="AT9" s="226"/>
-      <c r="AU9" s="226"/>
-      <c r="AV9" s="226"/>
-      <c r="AW9" s="226"/>
-      <c r="AX9" s="226"/>
-      <c r="AY9" s="226"/>
-      <c r="AZ9" s="226"/>
-      <c r="BA9" s="226"/>
-      <c r="BB9" s="226"/>
-      <c r="BC9" s="226"/>
-      <c r="BD9" s="226"/>
-      <c r="BE9" s="226"/>
-      <c r="BF9" s="226"/>
-      <c r="BG9" s="226"/>
-      <c r="BH9" s="226"/>
-      <c r="BI9" s="226"/>
-      <c r="BJ9" s="226"/>
-      <c r="BK9" s="226"/>
-      <c r="BL9" s="227"/>
-      <c r="BM9" s="228"/>
-      <c r="BN9" s="229"/>
-    </row>
-    <row r="10" spans="1:66" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="115" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="189" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="190"/>
-      <c r="D10" s="190"/>
-      <c r="E10" s="190"/>
-      <c r="F10" s="190"/>
-      <c r="G10" s="190"/>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
-      <c r="J10" s="190"/>
-      <c r="K10" s="190"/>
-      <c r="L10" s="191"/>
-      <c r="M10" s="184" t="s">
-        <v>157</v>
-      </c>
-      <c r="N10" s="185"/>
-      <c r="O10" s="185"/>
-      <c r="P10" s="186"/>
-      <c r="Q10" s="179">
-        <v>12</v>
-      </c>
-      <c r="R10" s="180"/>
-      <c r="S10" s="183">
-        <v>1</v>
-      </c>
-      <c r="T10" s="182"/>
-      <c r="U10" s="184" t="s">
-        <v>206</v>
-      </c>
-      <c r="V10" s="186"/>
-      <c r="W10" s="183" t="s">
-        <v>118</v>
-      </c>
-      <c r="X10" s="182"/>
-      <c r="Y10" s="184" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z10" s="185"/>
-      <c r="AA10" s="185"/>
-      <c r="AB10" s="186"/>
-      <c r="AC10" s="174" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD10" s="175"/>
-      <c r="AE10" s="175"/>
-      <c r="AF10" s="175"/>
-      <c r="AG10" s="176"/>
-      <c r="AH10" s="177" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI10" s="177"/>
-      <c r="AJ10" s="177"/>
-      <c r="AK10" s="177"/>
-      <c r="AL10" s="177"/>
-      <c r="AM10" s="177"/>
-      <c r="AN10" s="178"/>
-      <c r="AO10" s="207" t="s">
-        <v>164</v>
-      </c>
-      <c r="AP10" s="208"/>
-      <c r="AQ10" s="208"/>
-      <c r="AR10" s="208"/>
-      <c r="AS10" s="208"/>
-      <c r="AT10" s="208"/>
-      <c r="AU10" s="208"/>
-      <c r="AV10" s="208"/>
-      <c r="AW10" s="208"/>
-      <c r="AX10" s="208"/>
-      <c r="AY10" s="208"/>
-      <c r="AZ10" s="208"/>
-      <c r="BA10" s="208"/>
-      <c r="BB10" s="208"/>
-      <c r="BC10" s="208"/>
-      <c r="BD10" s="208"/>
-      <c r="BE10" s="208"/>
-      <c r="BF10" s="208"/>
-      <c r="BG10" s="208"/>
-      <c r="BH10" s="208"/>
-      <c r="BI10" s="208"/>
-      <c r="BJ10" s="208"/>
-      <c r="BK10" s="208"/>
-      <c r="BL10" s="209"/>
+      <c r="AP10" s="258"/>
+      <c r="AQ10" s="258"/>
+      <c r="AR10" s="258"/>
+      <c r="AS10" s="258"/>
+      <c r="AT10" s="258"/>
+      <c r="AU10" s="258"/>
+      <c r="AV10" s="258"/>
+      <c r="AW10" s="258"/>
+      <c r="AX10" s="258"/>
+      <c r="AY10" s="258"/>
+      <c r="AZ10" s="258"/>
+      <c r="BA10" s="258"/>
+      <c r="BB10" s="258"/>
+      <c r="BC10" s="258"/>
+      <c r="BD10" s="258"/>
+      <c r="BE10" s="258"/>
+      <c r="BF10" s="258"/>
+      <c r="BG10" s="258"/>
+      <c r="BH10" s="258"/>
+      <c r="BI10" s="258"/>
+      <c r="BJ10" s="258"/>
+      <c r="BK10" s="258"/>
+      <c r="BL10" s="259"/>
       <c r="BM10" s="116"/>
       <c r="BN10" s="117"/>
     </row>
-    <row r="11" spans="1:66" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:66" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="115" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="221" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="222"/>
-      <c r="D11" s="222"/>
-      <c r="E11" s="222"/>
-      <c r="F11" s="222"/>
-      <c r="G11" s="222"/>
-      <c r="H11" s="222"/>
-      <c r="I11" s="222"/>
-      <c r="J11" s="222"/>
-      <c r="K11" s="222"/>
-      <c r="L11" s="223"/>
-      <c r="M11" s="184" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="260" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="261"/>
+      <c r="D11" s="261"/>
+      <c r="E11" s="261"/>
+      <c r="F11" s="261"/>
+      <c r="G11" s="261"/>
+      <c r="H11" s="261"/>
+      <c r="I11" s="261"/>
+      <c r="J11" s="261"/>
+      <c r="K11" s="261"/>
+      <c r="L11" s="262"/>
+      <c r="M11" s="250" t="s">
+        <v>156</v>
+      </c>
+      <c r="N11" s="251"/>
+      <c r="O11" s="251"/>
+      <c r="P11" s="252"/>
+      <c r="Q11" s="253">
+        <v>6</v>
+      </c>
+      <c r="R11" s="254"/>
+      <c r="S11" s="255">
+        <v>1</v>
+      </c>
+      <c r="T11" s="256"/>
+      <c r="U11" s="267" t="s">
+        <v>162</v>
+      </c>
+      <c r="V11" s="266"/>
+      <c r="W11" s="255" t="s">
+        <v>117</v>
+      </c>
+      <c r="X11" s="256"/>
+      <c r="Y11" s="293" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z11" s="294"/>
+      <c r="AA11" s="294"/>
+      <c r="AB11" s="295"/>
+      <c r="AC11" s="239" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD11" s="240"/>
+      <c r="AE11" s="240"/>
+      <c r="AF11" s="240"/>
+      <c r="AG11" s="241"/>
+      <c r="AH11" s="299" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI11" s="300"/>
+      <c r="AJ11" s="300"/>
+      <c r="AK11" s="300"/>
+      <c r="AL11" s="300"/>
+      <c r="AM11" s="300"/>
+      <c r="AN11" s="301"/>
+      <c r="AO11" s="263" t="s">
         <v>157</v>
       </c>
-      <c r="N11" s="185"/>
-      <c r="O11" s="185"/>
-      <c r="P11" s="186"/>
-      <c r="Q11" s="179">
-        <v>6</v>
-      </c>
-      <c r="R11" s="180"/>
-      <c r="S11" s="183">
-        <v>1</v>
-      </c>
-      <c r="T11" s="182"/>
-      <c r="U11" s="184" t="s">
-        <v>206</v>
-      </c>
-      <c r="V11" s="186"/>
-      <c r="W11" s="183" t="s">
-        <v>118</v>
-      </c>
-      <c r="X11" s="182"/>
-      <c r="Y11" s="303" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z11" s="304"/>
-      <c r="AA11" s="304"/>
-      <c r="AB11" s="305"/>
-      <c r="AC11" s="174" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD11" s="175"/>
-      <c r="AE11" s="175"/>
-      <c r="AF11" s="175"/>
-      <c r="AG11" s="176"/>
-      <c r="AH11" s="177" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI11" s="177"/>
-      <c r="AJ11" s="177"/>
-      <c r="AK11" s="177"/>
-      <c r="AL11" s="177"/>
-      <c r="AM11" s="177"/>
-      <c r="AN11" s="178"/>
-      <c r="AO11" s="298" t="s">
-        <v>158</v>
-      </c>
-      <c r="AP11" s="208"/>
-      <c r="AQ11" s="208"/>
-      <c r="AR11" s="208"/>
-      <c r="AS11" s="208"/>
-      <c r="AT11" s="208"/>
-      <c r="AU11" s="208"/>
-      <c r="AV11" s="208"/>
-      <c r="AW11" s="208"/>
-      <c r="AX11" s="208"/>
-      <c r="AY11" s="208"/>
-      <c r="AZ11" s="208"/>
-      <c r="BA11" s="208"/>
-      <c r="BB11" s="208"/>
-      <c r="BC11" s="208"/>
-      <c r="BD11" s="208"/>
-      <c r="BE11" s="208"/>
-      <c r="BF11" s="208"/>
-      <c r="BG11" s="208"/>
-      <c r="BH11" s="208"/>
-      <c r="BI11" s="208"/>
-      <c r="BJ11" s="208"/>
-      <c r="BK11" s="208"/>
-      <c r="BL11" s="209"/>
+      <c r="AP11" s="258"/>
+      <c r="AQ11" s="258"/>
+      <c r="AR11" s="258"/>
+      <c r="AS11" s="258"/>
+      <c r="AT11" s="258"/>
+      <c r="AU11" s="258"/>
+      <c r="AV11" s="258"/>
+      <c r="AW11" s="258"/>
+      <c r="AX11" s="258"/>
+      <c r="AY11" s="258"/>
+      <c r="AZ11" s="258"/>
+      <c r="BA11" s="258"/>
+      <c r="BB11" s="258"/>
+      <c r="BC11" s="258"/>
+      <c r="BD11" s="258"/>
+      <c r="BE11" s="258"/>
+      <c r="BF11" s="258"/>
+      <c r="BG11" s="258"/>
+      <c r="BH11" s="258"/>
+      <c r="BI11" s="258"/>
+      <c r="BJ11" s="258"/>
+      <c r="BK11" s="258"/>
+      <c r="BL11" s="259"/>
       <c r="BM11" s="116"/>
       <c r="BN11" s="117"/>
     </row>
-    <row r="12" spans="1:66" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:66" ht="13.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="115">
         <v>5</v>
       </c>
-      <c r="B12" s="189" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="190"/>
-      <c r="D12" s="190"/>
-      <c r="E12" s="190"/>
-      <c r="F12" s="190"/>
-      <c r="G12" s="190"/>
-      <c r="H12" s="190"/>
-      <c r="I12" s="190"/>
-      <c r="J12" s="190"/>
-      <c r="K12" s="190"/>
-      <c r="L12" s="191"/>
-      <c r="M12" s="184" t="s">
-        <v>157</v>
-      </c>
-      <c r="N12" s="185"/>
-      <c r="O12" s="185"/>
-      <c r="P12" s="186"/>
-      <c r="Q12" s="179">
+      <c r="B12" s="247" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="248"/>
+      <c r="D12" s="248"/>
+      <c r="E12" s="248"/>
+      <c r="F12" s="248"/>
+      <c r="G12" s="248"/>
+      <c r="H12" s="248"/>
+      <c r="I12" s="248"/>
+      <c r="J12" s="248"/>
+      <c r="K12" s="248"/>
+      <c r="L12" s="249"/>
+      <c r="M12" s="250" t="s">
+        <v>156</v>
+      </c>
+      <c r="N12" s="251"/>
+      <c r="O12" s="251"/>
+      <c r="P12" s="252"/>
+      <c r="Q12" s="253">
         <v>1</v>
       </c>
-      <c r="R12" s="180"/>
-      <c r="S12" s="181" t="s">
-        <v>163</v>
-      </c>
-      <c r="T12" s="182"/>
-      <c r="U12" s="184"/>
-      <c r="V12" s="186"/>
-      <c r="W12" s="183" t="s">
-        <v>118</v>
-      </c>
-      <c r="X12" s="182"/>
-      <c r="Y12" s="184" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z12" s="185"/>
-      <c r="AA12" s="185"/>
-      <c r="AB12" s="186"/>
-      <c r="AC12" s="174" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD12" s="175"/>
-      <c r="AE12" s="175"/>
-      <c r="AF12" s="175"/>
-      <c r="AG12" s="176"/>
-      <c r="AH12" s="177" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI12" s="177"/>
-      <c r="AJ12" s="177"/>
-      <c r="AK12" s="177"/>
-      <c r="AL12" s="177"/>
-      <c r="AM12" s="177"/>
-      <c r="AN12" s="178"/>
-      <c r="AO12" s="207" t="s">
-        <v>166</v>
-      </c>
-      <c r="AP12" s="208"/>
-      <c r="AQ12" s="208"/>
-      <c r="AR12" s="208"/>
-      <c r="AS12" s="208"/>
-      <c r="AT12" s="208"/>
-      <c r="AU12" s="208"/>
-      <c r="AV12" s="208"/>
-      <c r="AW12" s="208"/>
-      <c r="AX12" s="208"/>
-      <c r="AY12" s="208"/>
-      <c r="AZ12" s="208"/>
-      <c r="BA12" s="208"/>
-      <c r="BB12" s="208"/>
-      <c r="BC12" s="208"/>
-      <c r="BD12" s="208"/>
-      <c r="BE12" s="208"/>
-      <c r="BF12" s="208"/>
-      <c r="BG12" s="208"/>
-      <c r="BH12" s="208"/>
-      <c r="BI12" s="208"/>
-      <c r="BJ12" s="208"/>
-      <c r="BK12" s="208"/>
-      <c r="BL12" s="209"/>
+      <c r="R12" s="254"/>
+      <c r="S12" s="264" t="s">
+        <v>162</v>
+      </c>
+      <c r="T12" s="256"/>
+      <c r="U12" s="250"/>
+      <c r="V12" s="252"/>
+      <c r="W12" s="255" t="s">
+        <v>117</v>
+      </c>
+      <c r="X12" s="256"/>
+      <c r="Y12" s="250" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z12" s="251"/>
+      <c r="AA12" s="251"/>
+      <c r="AB12" s="252"/>
+      <c r="AC12" s="239" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD12" s="240"/>
+      <c r="AE12" s="240"/>
+      <c r="AF12" s="240"/>
+      <c r="AG12" s="241"/>
+      <c r="AH12" s="299" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI12" s="300"/>
+      <c r="AJ12" s="300"/>
+      <c r="AK12" s="300"/>
+      <c r="AL12" s="300"/>
+      <c r="AM12" s="300"/>
+      <c r="AN12" s="301"/>
+      <c r="AO12" s="257" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP12" s="258"/>
+      <c r="AQ12" s="258"/>
+      <c r="AR12" s="258"/>
+      <c r="AS12" s="258"/>
+      <c r="AT12" s="258"/>
+      <c r="AU12" s="258"/>
+      <c r="AV12" s="258"/>
+      <c r="AW12" s="258"/>
+      <c r="AX12" s="258"/>
+      <c r="AY12" s="258"/>
+      <c r="AZ12" s="258"/>
+      <c r="BA12" s="258"/>
+      <c r="BB12" s="258"/>
+      <c r="BC12" s="258"/>
+      <c r="BD12" s="258"/>
+      <c r="BE12" s="258"/>
+      <c r="BF12" s="258"/>
+      <c r="BG12" s="258"/>
+      <c r="BH12" s="258"/>
+      <c r="BI12" s="258"/>
+      <c r="BJ12" s="258"/>
+      <c r="BK12" s="258"/>
+      <c r="BL12" s="259"/>
       <c r="BM12" s="116"/>
       <c r="BN12" s="117"/>
     </row>
-    <row r="13" spans="1:66" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:66" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="115" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" s="189" t="s">
-        <v>207</v>
-      </c>
-      <c r="C13" s="190"/>
-      <c r="D13" s="190"/>
-      <c r="E13" s="190"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="190"/>
-      <c r="I13" s="190"/>
-      <c r="J13" s="190"/>
-      <c r="K13" s="190"/>
-      <c r="L13" s="191"/>
-      <c r="M13" s="184" t="s">
-        <v>157</v>
-      </c>
-      <c r="N13" s="185"/>
-      <c r="O13" s="185"/>
-      <c r="P13" s="186"/>
-      <c r="Q13" s="179">
+        <v>120</v>
+      </c>
+      <c r="B13" s="247" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="248"/>
+      <c r="D13" s="248"/>
+      <c r="E13" s="248"/>
+      <c r="F13" s="248"/>
+      <c r="G13" s="248"/>
+      <c r="H13" s="248"/>
+      <c r="I13" s="248"/>
+      <c r="J13" s="248"/>
+      <c r="K13" s="248"/>
+      <c r="L13" s="249"/>
+      <c r="M13" s="250" t="s">
+        <v>156</v>
+      </c>
+      <c r="N13" s="251"/>
+      <c r="O13" s="251"/>
+      <c r="P13" s="252"/>
+      <c r="Q13" s="253">
         <v>1</v>
       </c>
-      <c r="R13" s="180"/>
-      <c r="S13" s="217" t="s">
-        <v>163</v>
-      </c>
-      <c r="T13" s="218"/>
-      <c r="U13" s="217" t="s">
-        <v>163</v>
-      </c>
-      <c r="V13" s="218"/>
-      <c r="W13" s="183" t="s">
-        <v>118</v>
-      </c>
-      <c r="X13" s="182"/>
-      <c r="Y13" s="184" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z13" s="185"/>
-      <c r="AA13" s="185"/>
-      <c r="AB13" s="186"/>
-      <c r="AC13" s="174" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD13" s="175"/>
-      <c r="AE13" s="175"/>
-      <c r="AF13" s="175"/>
-      <c r="AG13" s="176"/>
-      <c r="AH13" s="177" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI13" s="177"/>
-      <c r="AJ13" s="177"/>
-      <c r="AK13" s="177"/>
-      <c r="AL13" s="177"/>
-      <c r="AM13" s="177"/>
-      <c r="AN13" s="178"/>
-      <c r="AO13" s="207" t="s">
-        <v>167</v>
-      </c>
-      <c r="AP13" s="208"/>
-      <c r="AQ13" s="208"/>
-      <c r="AR13" s="208"/>
-      <c r="AS13" s="208"/>
-      <c r="AT13" s="208"/>
-      <c r="AU13" s="208"/>
-      <c r="AV13" s="208"/>
-      <c r="AW13" s="208"/>
-      <c r="AX13" s="208"/>
-      <c r="AY13" s="208"/>
-      <c r="AZ13" s="208"/>
-      <c r="BA13" s="208"/>
-      <c r="BB13" s="208"/>
-      <c r="BC13" s="208"/>
-      <c r="BD13" s="208"/>
-      <c r="BE13" s="208"/>
-      <c r="BF13" s="208"/>
-      <c r="BG13" s="208"/>
-      <c r="BH13" s="208"/>
-      <c r="BI13" s="208"/>
-      <c r="BJ13" s="208"/>
-      <c r="BK13" s="208"/>
-      <c r="BL13" s="209"/>
+      <c r="R13" s="254"/>
+      <c r="S13" s="267" t="s">
+        <v>162</v>
+      </c>
+      <c r="T13" s="266"/>
+      <c r="U13" s="267"/>
+      <c r="V13" s="266"/>
+      <c r="W13" s="255" t="s">
+        <v>117</v>
+      </c>
+      <c r="X13" s="256"/>
+      <c r="Y13" s="250" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z13" s="251"/>
+      <c r="AA13" s="251"/>
+      <c r="AB13" s="252"/>
+      <c r="AC13" s="239" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD13" s="240"/>
+      <c r="AE13" s="240"/>
+      <c r="AF13" s="240"/>
+      <c r="AG13" s="241"/>
+      <c r="AH13" s="299" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI13" s="300"/>
+      <c r="AJ13" s="300"/>
+      <c r="AK13" s="300"/>
+      <c r="AL13" s="300"/>
+      <c r="AM13" s="300"/>
+      <c r="AN13" s="301"/>
+      <c r="AO13" s="257" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP13" s="258"/>
+      <c r="AQ13" s="258"/>
+      <c r="AR13" s="258"/>
+      <c r="AS13" s="258"/>
+      <c r="AT13" s="258"/>
+      <c r="AU13" s="258"/>
+      <c r="AV13" s="258"/>
+      <c r="AW13" s="258"/>
+      <c r="AX13" s="258"/>
+      <c r="AY13" s="258"/>
+      <c r="AZ13" s="258"/>
+      <c r="BA13" s="258"/>
+      <c r="BB13" s="258"/>
+      <c r="BC13" s="258"/>
+      <c r="BD13" s="258"/>
+      <c r="BE13" s="258"/>
+      <c r="BF13" s="258"/>
+      <c r="BG13" s="258"/>
+      <c r="BH13" s="258"/>
+      <c r="BI13" s="258"/>
+      <c r="BJ13" s="258"/>
+      <c r="BK13" s="258"/>
+      <c r="BL13" s="259"/>
       <c r="BM13" s="116"/>
       <c r="BN13" s="117"/>
     </row>
-    <row r="14" spans="1:66" ht="11.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:66" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="115" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="189" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="190"/>
-      <c r="D14" s="190"/>
-      <c r="E14" s="190"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="190"/>
-      <c r="H14" s="190"/>
-      <c r="I14" s="190"/>
-      <c r="J14" s="190"/>
-      <c r="K14" s="190"/>
-      <c r="L14" s="191"/>
-      <c r="M14" s="184" t="s">
-        <v>157</v>
-      </c>
-      <c r="N14" s="185"/>
-      <c r="O14" s="185"/>
-      <c r="P14" s="186"/>
-      <c r="Q14" s="179">
+        <v>121</v>
+      </c>
+      <c r="B14" s="247" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="248"/>
+      <c r="D14" s="248"/>
+      <c r="E14" s="248"/>
+      <c r="F14" s="248"/>
+      <c r="G14" s="248"/>
+      <c r="H14" s="248"/>
+      <c r="I14" s="248"/>
+      <c r="J14" s="248"/>
+      <c r="K14" s="248"/>
+      <c r="L14" s="249"/>
+      <c r="M14" s="250" t="s">
+        <v>156</v>
+      </c>
+      <c r="N14" s="251"/>
+      <c r="O14" s="251"/>
+      <c r="P14" s="252"/>
+      <c r="Q14" s="253">
         <v>8</v>
       </c>
-      <c r="R14" s="180"/>
-      <c r="S14" s="219">
+      <c r="R14" s="254"/>
+      <c r="S14" s="265">
         <v>1</v>
       </c>
-      <c r="T14" s="218"/>
-      <c r="U14" s="184"/>
-      <c r="V14" s="186"/>
-      <c r="W14" s="183" t="s">
-        <v>118</v>
-      </c>
-      <c r="X14" s="182"/>
-      <c r="Y14" s="184" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z14" s="185"/>
-      <c r="AA14" s="185"/>
-      <c r="AB14" s="186"/>
-      <c r="AC14" s="174" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD14" s="175"/>
-      <c r="AE14" s="175"/>
-      <c r="AF14" s="175"/>
-      <c r="AG14" s="176"/>
-      <c r="AH14" s="177" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI14" s="177"/>
-      <c r="AJ14" s="177"/>
-      <c r="AK14" s="177"/>
-      <c r="AL14" s="177"/>
-      <c r="AM14" s="177"/>
-      <c r="AN14" s="178"/>
-      <c r="AO14" s="207" t="s">
-        <v>164</v>
-      </c>
-      <c r="AP14" s="208"/>
-      <c r="AQ14" s="208"/>
-      <c r="AR14" s="208"/>
-      <c r="AS14" s="208"/>
-      <c r="AT14" s="208"/>
-      <c r="AU14" s="208"/>
-      <c r="AV14" s="208"/>
-      <c r="AW14" s="208"/>
-      <c r="AX14" s="208"/>
-      <c r="AY14" s="208"/>
-      <c r="AZ14" s="208"/>
-      <c r="BA14" s="208"/>
-      <c r="BB14" s="208"/>
-      <c r="BC14" s="208"/>
-      <c r="BD14" s="208"/>
-      <c r="BE14" s="208"/>
-      <c r="BF14" s="208"/>
-      <c r="BG14" s="208"/>
-      <c r="BH14" s="208"/>
-      <c r="BI14" s="208"/>
-      <c r="BJ14" s="208"/>
-      <c r="BK14" s="208"/>
-      <c r="BL14" s="209"/>
+      <c r="T14" s="266"/>
+      <c r="U14" s="250"/>
+      <c r="V14" s="252"/>
+      <c r="W14" s="255" t="s">
+        <v>117</v>
+      </c>
+      <c r="X14" s="256"/>
+      <c r="Y14" s="250" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z14" s="251"/>
+      <c r="AA14" s="251"/>
+      <c r="AB14" s="252"/>
+      <c r="AC14" s="239" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD14" s="240"/>
+      <c r="AE14" s="240"/>
+      <c r="AF14" s="240"/>
+      <c r="AG14" s="241"/>
+      <c r="AH14" s="299" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI14" s="300"/>
+      <c r="AJ14" s="300"/>
+      <c r="AK14" s="300"/>
+      <c r="AL14" s="300"/>
+      <c r="AM14" s="300"/>
+      <c r="AN14" s="301"/>
+      <c r="AO14" s="257" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP14" s="258"/>
+      <c r="AQ14" s="258"/>
+      <c r="AR14" s="258"/>
+      <c r="AS14" s="258"/>
+      <c r="AT14" s="258"/>
+      <c r="AU14" s="258"/>
+      <c r="AV14" s="258"/>
+      <c r="AW14" s="258"/>
+      <c r="AX14" s="258"/>
+      <c r="AY14" s="258"/>
+      <c r="AZ14" s="258"/>
+      <c r="BA14" s="258"/>
+      <c r="BB14" s="258"/>
+      <c r="BC14" s="258"/>
+      <c r="BD14" s="258"/>
+      <c r="BE14" s="258"/>
+      <c r="BF14" s="258"/>
+      <c r="BG14" s="258"/>
+      <c r="BH14" s="258"/>
+      <c r="BI14" s="258"/>
+      <c r="BJ14" s="258"/>
+      <c r="BK14" s="258"/>
+      <c r="BL14" s="259"/>
       <c r="BM14" s="116"/>
       <c r="BN14" s="117"/>
     </row>
-    <row r="15" spans="1:66" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:66" ht="36.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="115" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="189" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="190"/>
-      <c r="D15" s="190"/>
-      <c r="E15" s="190"/>
-      <c r="F15" s="190"/>
-      <c r="G15" s="190"/>
-      <c r="H15" s="190"/>
-      <c r="I15" s="190"/>
-      <c r="J15" s="190"/>
-      <c r="K15" s="190"/>
-      <c r="L15" s="191"/>
-      <c r="M15" s="184" t="s">
-        <v>157</v>
-      </c>
-      <c r="N15" s="185"/>
-      <c r="O15" s="185"/>
-      <c r="P15" s="186"/>
-      <c r="Q15" s="179">
+        <v>122</v>
+      </c>
+      <c r="B15" s="247" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="248"/>
+      <c r="D15" s="248"/>
+      <c r="E15" s="248"/>
+      <c r="F15" s="248"/>
+      <c r="G15" s="248"/>
+      <c r="H15" s="248"/>
+      <c r="I15" s="248"/>
+      <c r="J15" s="248"/>
+      <c r="K15" s="248"/>
+      <c r="L15" s="249"/>
+      <c r="M15" s="250" t="s">
+        <v>156</v>
+      </c>
+      <c r="N15" s="251"/>
+      <c r="O15" s="251"/>
+      <c r="P15" s="252"/>
+      <c r="Q15" s="253">
         <v>12</v>
       </c>
-      <c r="R15" s="180"/>
-      <c r="S15" s="219">
+      <c r="R15" s="254"/>
+      <c r="S15" s="265">
         <v>1</v>
       </c>
-      <c r="T15" s="218"/>
-      <c r="U15" s="184"/>
-      <c r="V15" s="186"/>
-      <c r="W15" s="183" t="s">
-        <v>118</v>
-      </c>
-      <c r="X15" s="182"/>
-      <c r="Y15" s="184" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z15" s="185"/>
-      <c r="AA15" s="185"/>
-      <c r="AB15" s="186"/>
-      <c r="AC15" s="174" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD15" s="175"/>
-      <c r="AE15" s="175"/>
-      <c r="AF15" s="175"/>
-      <c r="AG15" s="176"/>
-      <c r="AH15" s="177" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI15" s="177"/>
-      <c r="AJ15" s="177"/>
-      <c r="AK15" s="177"/>
-      <c r="AL15" s="177"/>
-      <c r="AM15" s="177"/>
-      <c r="AN15" s="178"/>
-      <c r="AO15" s="207" t="s">
-        <v>168</v>
-      </c>
-      <c r="AP15" s="208"/>
-      <c r="AQ15" s="208"/>
-      <c r="AR15" s="208"/>
-      <c r="AS15" s="208"/>
-      <c r="AT15" s="208"/>
-      <c r="AU15" s="208"/>
-      <c r="AV15" s="208"/>
-      <c r="AW15" s="208"/>
-      <c r="AX15" s="208"/>
-      <c r="AY15" s="208"/>
-      <c r="AZ15" s="208"/>
-      <c r="BA15" s="208"/>
-      <c r="BB15" s="208"/>
-      <c r="BC15" s="208"/>
-      <c r="BD15" s="208"/>
-      <c r="BE15" s="208"/>
-      <c r="BF15" s="208"/>
-      <c r="BG15" s="208"/>
-      <c r="BH15" s="208"/>
-      <c r="BI15" s="208"/>
-      <c r="BJ15" s="208"/>
-      <c r="BK15" s="208"/>
-      <c r="BL15" s="209"/>
+      <c r="T15" s="266"/>
+      <c r="U15" s="267" t="s">
+        <v>162</v>
+      </c>
+      <c r="V15" s="266"/>
+      <c r="W15" s="255" t="s">
+        <v>117</v>
+      </c>
+      <c r="X15" s="256"/>
+      <c r="Y15" s="250" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z15" s="251"/>
+      <c r="AA15" s="251"/>
+      <c r="AB15" s="252"/>
+      <c r="AC15" s="239" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD15" s="240"/>
+      <c r="AE15" s="240"/>
+      <c r="AF15" s="240"/>
+      <c r="AG15" s="241"/>
+      <c r="AH15" s="299" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI15" s="300"/>
+      <c r="AJ15" s="300"/>
+      <c r="AK15" s="300"/>
+      <c r="AL15" s="300"/>
+      <c r="AM15" s="300"/>
+      <c r="AN15" s="301"/>
+      <c r="AO15" s="257" t="s">
+        <v>167</v>
+      </c>
+      <c r="AP15" s="258"/>
+      <c r="AQ15" s="258"/>
+      <c r="AR15" s="258"/>
+      <c r="AS15" s="258"/>
+      <c r="AT15" s="258"/>
+      <c r="AU15" s="258"/>
+      <c r="AV15" s="258"/>
+      <c r="AW15" s="258"/>
+      <c r="AX15" s="258"/>
+      <c r="AY15" s="258"/>
+      <c r="AZ15" s="258"/>
+      <c r="BA15" s="258"/>
+      <c r="BB15" s="258"/>
+      <c r="BC15" s="258"/>
+      <c r="BD15" s="258"/>
+      <c r="BE15" s="258"/>
+      <c r="BF15" s="258"/>
+      <c r="BG15" s="258"/>
+      <c r="BH15" s="258"/>
+      <c r="BI15" s="258"/>
+      <c r="BJ15" s="258"/>
+      <c r="BK15" s="258"/>
+      <c r="BL15" s="259"/>
       <c r="BM15" s="116"/>
       <c r="BN15" s="117"/>
     </row>
-    <row r="16" spans="1:66" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:66" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="115" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16" s="189" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="190"/>
-      <c r="D16" s="190"/>
-      <c r="E16" s="190"/>
-      <c r="F16" s="190"/>
-      <c r="G16" s="190"/>
-      <c r="H16" s="190"/>
-      <c r="I16" s="190"/>
-      <c r="J16" s="190"/>
-      <c r="K16" s="190"/>
-      <c r="L16" s="191"/>
-      <c r="M16" s="184" t="s">
-        <v>157</v>
-      </c>
-      <c r="N16" s="185"/>
-      <c r="O16" s="185"/>
-      <c r="P16" s="186"/>
-      <c r="Q16" s="179">
+        <v>123</v>
+      </c>
+      <c r="B16" s="247" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="248"/>
+      <c r="D16" s="248"/>
+      <c r="E16" s="248"/>
+      <c r="F16" s="248"/>
+      <c r="G16" s="248"/>
+      <c r="H16" s="248"/>
+      <c r="I16" s="248"/>
+      <c r="J16" s="248"/>
+      <c r="K16" s="248"/>
+      <c r="L16" s="249"/>
+      <c r="M16" s="250" t="s">
+        <v>156</v>
+      </c>
+      <c r="N16" s="251"/>
+      <c r="O16" s="251"/>
+      <c r="P16" s="252"/>
+      <c r="Q16" s="253">
         <v>2</v>
       </c>
-      <c r="R16" s="180"/>
-      <c r="S16" s="217" t="s">
-        <v>163</v>
-      </c>
-      <c r="T16" s="218"/>
-      <c r="U16" s="184"/>
-      <c r="V16" s="186"/>
-      <c r="W16" s="183" t="s">
-        <v>118</v>
-      </c>
-      <c r="X16" s="182"/>
-      <c r="Y16" s="184" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z16" s="185"/>
-      <c r="AA16" s="185"/>
-      <c r="AB16" s="186"/>
-      <c r="AC16" s="174" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD16" s="175"/>
-      <c r="AE16" s="175"/>
-      <c r="AF16" s="175"/>
-      <c r="AG16" s="176"/>
-      <c r="AH16" s="177" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI16" s="177"/>
-      <c r="AJ16" s="177"/>
-      <c r="AK16" s="177"/>
-      <c r="AL16" s="177"/>
-      <c r="AM16" s="177"/>
-      <c r="AN16" s="178"/>
-      <c r="AO16" s="207" t="s">
-        <v>169</v>
-      </c>
-      <c r="AP16" s="208"/>
-      <c r="AQ16" s="208"/>
-      <c r="AR16" s="208"/>
-      <c r="AS16" s="208"/>
-      <c r="AT16" s="208"/>
-      <c r="AU16" s="208"/>
-      <c r="AV16" s="208"/>
-      <c r="AW16" s="208"/>
-      <c r="AX16" s="208"/>
-      <c r="AY16" s="208"/>
-      <c r="AZ16" s="208"/>
-      <c r="BA16" s="208"/>
-      <c r="BB16" s="208"/>
-      <c r="BC16" s="208"/>
-      <c r="BD16" s="208"/>
-      <c r="BE16" s="208"/>
-      <c r="BF16" s="208"/>
-      <c r="BG16" s="208"/>
-      <c r="BH16" s="208"/>
-      <c r="BI16" s="208"/>
-      <c r="BJ16" s="208"/>
-      <c r="BK16" s="208"/>
-      <c r="BL16" s="209"/>
+      <c r="R16" s="254"/>
+      <c r="S16" s="267" t="s">
+        <v>162</v>
+      </c>
+      <c r="T16" s="266"/>
+      <c r="U16" s="250"/>
+      <c r="V16" s="252"/>
+      <c r="W16" s="255" t="s">
+        <v>117</v>
+      </c>
+      <c r="X16" s="256"/>
+      <c r="Y16" s="250" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z16" s="251"/>
+      <c r="AA16" s="251"/>
+      <c r="AB16" s="252"/>
+      <c r="AC16" s="239" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD16" s="240"/>
+      <c r="AE16" s="240"/>
+      <c r="AF16" s="240"/>
+      <c r="AG16" s="241"/>
+      <c r="AH16" s="299" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI16" s="300"/>
+      <c r="AJ16" s="300"/>
+      <c r="AK16" s="300"/>
+      <c r="AL16" s="300"/>
+      <c r="AM16" s="300"/>
+      <c r="AN16" s="301"/>
+      <c r="AO16" s="257" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP16" s="258"/>
+      <c r="AQ16" s="258"/>
+      <c r="AR16" s="258"/>
+      <c r="AS16" s="258"/>
+      <c r="AT16" s="258"/>
+      <c r="AU16" s="258"/>
+      <c r="AV16" s="258"/>
+      <c r="AW16" s="258"/>
+      <c r="AX16" s="258"/>
+      <c r="AY16" s="258"/>
+      <c r="AZ16" s="258"/>
+      <c r="BA16" s="258"/>
+      <c r="BB16" s="258"/>
+      <c r="BC16" s="258"/>
+      <c r="BD16" s="258"/>
+      <c r="BE16" s="258"/>
+      <c r="BF16" s="258"/>
+      <c r="BG16" s="258"/>
+      <c r="BH16" s="258"/>
+      <c r="BI16" s="258"/>
+      <c r="BJ16" s="258"/>
+      <c r="BK16" s="258"/>
+      <c r="BL16" s="259"/>
       <c r="BM16" s="116"/>
       <c r="BN16" s="117"/>
     </row>
-    <row r="17" spans="1:66" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="115" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" s="189" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="190"/>
-      <c r="D17" s="190"/>
-      <c r="E17" s="190"/>
-      <c r="F17" s="190"/>
-      <c r="G17" s="190"/>
-      <c r="H17" s="190"/>
-      <c r="I17" s="190"/>
-      <c r="J17" s="190"/>
-      <c r="K17" s="190"/>
-      <c r="L17" s="191"/>
-      <c r="M17" s="184" t="s">
-        <v>157</v>
-      </c>
-      <c r="N17" s="185"/>
-      <c r="O17" s="185"/>
-      <c r="P17" s="186"/>
-      <c r="Q17" s="179">
+        <v>124</v>
+      </c>
+      <c r="B17" s="247" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="248"/>
+      <c r="D17" s="248"/>
+      <c r="E17" s="248"/>
+      <c r="F17" s="248"/>
+      <c r="G17" s="248"/>
+      <c r="H17" s="248"/>
+      <c r="I17" s="248"/>
+      <c r="J17" s="248"/>
+      <c r="K17" s="248"/>
+      <c r="L17" s="249"/>
+      <c r="M17" s="250" t="s">
+        <v>156</v>
+      </c>
+      <c r="N17" s="251"/>
+      <c r="O17" s="251"/>
+      <c r="P17" s="252"/>
+      <c r="Q17" s="253">
         <v>8</v>
       </c>
-      <c r="R17" s="180"/>
-      <c r="S17" s="219">
+      <c r="R17" s="254"/>
+      <c r="S17" s="265">
         <v>1</v>
       </c>
-      <c r="T17" s="218"/>
-      <c r="U17" s="184"/>
-      <c r="V17" s="186"/>
-      <c r="W17" s="183" t="s">
-        <v>118</v>
-      </c>
-      <c r="X17" s="182"/>
-      <c r="Y17" s="184" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z17" s="185"/>
-      <c r="AA17" s="185"/>
-      <c r="AB17" s="186"/>
-      <c r="AC17" s="174" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD17" s="175"/>
-      <c r="AE17" s="175"/>
-      <c r="AF17" s="175"/>
-      <c r="AG17" s="176"/>
-      <c r="AH17" s="177" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI17" s="177"/>
-      <c r="AJ17" s="177"/>
-      <c r="AK17" s="177"/>
-      <c r="AL17" s="177"/>
-      <c r="AM17" s="177"/>
-      <c r="AN17" s="178"/>
-      <c r="AO17" s="207" t="s">
-        <v>164</v>
-      </c>
-      <c r="AP17" s="208"/>
-      <c r="AQ17" s="208"/>
-      <c r="AR17" s="208"/>
-      <c r="AS17" s="208"/>
-      <c r="AT17" s="208"/>
-      <c r="AU17" s="208"/>
-      <c r="AV17" s="208"/>
-      <c r="AW17" s="208"/>
-      <c r="AX17" s="208"/>
-      <c r="AY17" s="208"/>
-      <c r="AZ17" s="208"/>
-      <c r="BA17" s="208"/>
-      <c r="BB17" s="208"/>
-      <c r="BC17" s="208"/>
-      <c r="BD17" s="208"/>
-      <c r="BE17" s="208"/>
-      <c r="BF17" s="208"/>
-      <c r="BG17" s="208"/>
-      <c r="BH17" s="208"/>
-      <c r="BI17" s="208"/>
-      <c r="BJ17" s="208"/>
-      <c r="BK17" s="208"/>
-      <c r="BL17" s="209"/>
+      <c r="T17" s="266"/>
+      <c r="U17" s="250"/>
+      <c r="V17" s="252"/>
+      <c r="W17" s="255" t="s">
+        <v>117</v>
+      </c>
+      <c r="X17" s="256"/>
+      <c r="Y17" s="250" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z17" s="251"/>
+      <c r="AA17" s="251"/>
+      <c r="AB17" s="252"/>
+      <c r="AC17" s="239" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD17" s="240"/>
+      <c r="AE17" s="240"/>
+      <c r="AF17" s="240"/>
+      <c r="AG17" s="241"/>
+      <c r="AH17" s="299" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI17" s="300"/>
+      <c r="AJ17" s="300"/>
+      <c r="AK17" s="300"/>
+      <c r="AL17" s="300"/>
+      <c r="AM17" s="300"/>
+      <c r="AN17" s="301"/>
+      <c r="AO17" s="257" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP17" s="258"/>
+      <c r="AQ17" s="258"/>
+      <c r="AR17" s="258"/>
+      <c r="AS17" s="258"/>
+      <c r="AT17" s="258"/>
+      <c r="AU17" s="258"/>
+      <c r="AV17" s="258"/>
+      <c r="AW17" s="258"/>
+      <c r="AX17" s="258"/>
+      <c r="AY17" s="258"/>
+      <c r="AZ17" s="258"/>
+      <c r="BA17" s="258"/>
+      <c r="BB17" s="258"/>
+      <c r="BC17" s="258"/>
+      <c r="BD17" s="258"/>
+      <c r="BE17" s="258"/>
+      <c r="BF17" s="258"/>
+      <c r="BG17" s="258"/>
+      <c r="BH17" s="258"/>
+      <c r="BI17" s="258"/>
+      <c r="BJ17" s="258"/>
+      <c r="BK17" s="258"/>
+      <c r="BL17" s="259"/>
       <c r="BM17" s="116"/>
       <c r="BN17" s="117"/>
     </row>
-    <row r="18" spans="1:66" ht="22.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:66" ht="22.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="115" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" s="189" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="190"/>
-      <c r="D18" s="190"/>
-      <c r="E18" s="190"/>
-      <c r="F18" s="190"/>
-      <c r="G18" s="190"/>
-      <c r="H18" s="190"/>
-      <c r="I18" s="190"/>
-      <c r="J18" s="190"/>
-      <c r="K18" s="190"/>
-      <c r="L18" s="191"/>
-      <c r="M18" s="184" t="s">
-        <v>157</v>
-      </c>
-      <c r="N18" s="185"/>
-      <c r="O18" s="185"/>
-      <c r="P18" s="186"/>
-      <c r="Q18" s="179">
+        <v>125</v>
+      </c>
+      <c r="B18" s="247" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="248"/>
+      <c r="D18" s="248"/>
+      <c r="E18" s="248"/>
+      <c r="F18" s="248"/>
+      <c r="G18" s="248"/>
+      <c r="H18" s="248"/>
+      <c r="I18" s="248"/>
+      <c r="J18" s="248"/>
+      <c r="K18" s="248"/>
+      <c r="L18" s="249"/>
+      <c r="M18" s="250" t="s">
+        <v>156</v>
+      </c>
+      <c r="N18" s="251"/>
+      <c r="O18" s="251"/>
+      <c r="P18" s="252"/>
+      <c r="Q18" s="253">
         <v>12</v>
       </c>
-      <c r="R18" s="180"/>
-      <c r="S18" s="219">
+      <c r="R18" s="254"/>
+      <c r="S18" s="265">
         <v>1</v>
       </c>
-      <c r="T18" s="218"/>
-      <c r="U18" s="184"/>
-      <c r="V18" s="186"/>
-      <c r="W18" s="183" t="s">
-        <v>118</v>
-      </c>
-      <c r="X18" s="182"/>
-      <c r="Y18" s="184" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z18" s="185"/>
-      <c r="AA18" s="185"/>
-      <c r="AB18" s="186"/>
-      <c r="AC18" s="174" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD18" s="175"/>
-      <c r="AE18" s="175"/>
-      <c r="AF18" s="175"/>
-      <c r="AG18" s="176"/>
-      <c r="AH18" s="177" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI18" s="177"/>
-      <c r="AJ18" s="177"/>
-      <c r="AK18" s="177"/>
-      <c r="AL18" s="177"/>
-      <c r="AM18" s="177"/>
-      <c r="AN18" s="178"/>
-      <c r="AO18" s="207" t="s">
-        <v>173</v>
-      </c>
-      <c r="AP18" s="208"/>
-      <c r="AQ18" s="208"/>
-      <c r="AR18" s="208"/>
-      <c r="AS18" s="208"/>
-      <c r="AT18" s="208"/>
-      <c r="AU18" s="208"/>
-      <c r="AV18" s="208"/>
-      <c r="AW18" s="208"/>
-      <c r="AX18" s="208"/>
-      <c r="AY18" s="208"/>
-      <c r="AZ18" s="208"/>
-      <c r="BA18" s="208"/>
-      <c r="BB18" s="208"/>
-      <c r="BC18" s="208"/>
-      <c r="BD18" s="208"/>
-      <c r="BE18" s="208"/>
-      <c r="BF18" s="208"/>
-      <c r="BG18" s="208"/>
-      <c r="BH18" s="208"/>
-      <c r="BI18" s="208"/>
-      <c r="BJ18" s="208"/>
-      <c r="BK18" s="208"/>
-      <c r="BL18" s="209"/>
+      <c r="T18" s="266"/>
+      <c r="U18" s="250"/>
+      <c r="V18" s="252"/>
+      <c r="W18" s="255" t="s">
+        <v>117</v>
+      </c>
+      <c r="X18" s="256"/>
+      <c r="Y18" s="250" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z18" s="251"/>
+      <c r="AA18" s="251"/>
+      <c r="AB18" s="252"/>
+      <c r="AC18" s="239" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD18" s="240"/>
+      <c r="AE18" s="240"/>
+      <c r="AF18" s="240"/>
+      <c r="AG18" s="241"/>
+      <c r="AH18" s="299" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI18" s="300"/>
+      <c r="AJ18" s="300"/>
+      <c r="AK18" s="300"/>
+      <c r="AL18" s="300"/>
+      <c r="AM18" s="300"/>
+      <c r="AN18" s="301"/>
+      <c r="AO18" s="257" t="s">
+        <v>172</v>
+      </c>
+      <c r="AP18" s="258"/>
+      <c r="AQ18" s="258"/>
+      <c r="AR18" s="258"/>
+      <c r="AS18" s="258"/>
+      <c r="AT18" s="258"/>
+      <c r="AU18" s="258"/>
+      <c r="AV18" s="258"/>
+      <c r="AW18" s="258"/>
+      <c r="AX18" s="258"/>
+      <c r="AY18" s="258"/>
+      <c r="AZ18" s="258"/>
+      <c r="BA18" s="258"/>
+      <c r="BB18" s="258"/>
+      <c r="BC18" s="258"/>
+      <c r="BD18" s="258"/>
+      <c r="BE18" s="258"/>
+      <c r="BF18" s="258"/>
+      <c r="BG18" s="258"/>
+      <c r="BH18" s="258"/>
+      <c r="BI18" s="258"/>
+      <c r="BJ18" s="258"/>
+      <c r="BK18" s="258"/>
+      <c r="BL18" s="259"/>
       <c r="BM18" s="116"/>
       <c r="BN18" s="117"/>
     </row>
-    <row r="19" spans="1:66" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="115" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="189" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="190"/>
-      <c r="D19" s="190"/>
-      <c r="E19" s="190"/>
-      <c r="F19" s="190"/>
-      <c r="G19" s="190"/>
-      <c r="H19" s="190"/>
-      <c r="I19" s="190"/>
-      <c r="J19" s="190"/>
-      <c r="K19" s="190"/>
-      <c r="L19" s="191"/>
-      <c r="M19" s="184" t="s">
-        <v>157</v>
-      </c>
-      <c r="N19" s="185"/>
-      <c r="O19" s="185"/>
-      <c r="P19" s="186"/>
-      <c r="Q19" s="179">
+        <v>126</v>
+      </c>
+      <c r="B19" s="247" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="248"/>
+      <c r="D19" s="248"/>
+      <c r="E19" s="248"/>
+      <c r="F19" s="248"/>
+      <c r="G19" s="248"/>
+      <c r="H19" s="248"/>
+      <c r="I19" s="248"/>
+      <c r="J19" s="248"/>
+      <c r="K19" s="248"/>
+      <c r="L19" s="249"/>
+      <c r="M19" s="250" t="s">
+        <v>156</v>
+      </c>
+      <c r="N19" s="251"/>
+      <c r="O19" s="251"/>
+      <c r="P19" s="252"/>
+      <c r="Q19" s="253">
         <v>2</v>
       </c>
-      <c r="R19" s="180"/>
-      <c r="S19" s="217" t="s">
-        <v>163</v>
-      </c>
-      <c r="T19" s="218"/>
-      <c r="U19" s="184"/>
-      <c r="V19" s="186"/>
-      <c r="W19" s="183" t="s">
-        <v>118</v>
-      </c>
-      <c r="X19" s="182"/>
-      <c r="Y19" s="184" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z19" s="185"/>
-      <c r="AA19" s="185"/>
-      <c r="AB19" s="186"/>
-      <c r="AC19" s="174" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD19" s="175"/>
-      <c r="AE19" s="175"/>
-      <c r="AF19" s="175"/>
-      <c r="AG19" s="176"/>
-      <c r="AH19" s="177" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI19" s="177"/>
-      <c r="AJ19" s="177"/>
-      <c r="AK19" s="177"/>
-      <c r="AL19" s="177"/>
-      <c r="AM19" s="177"/>
-      <c r="AN19" s="178"/>
-      <c r="AO19" s="207" t="s">
-        <v>170</v>
-      </c>
-      <c r="AP19" s="208"/>
-      <c r="AQ19" s="208"/>
-      <c r="AR19" s="208"/>
-      <c r="AS19" s="208"/>
-      <c r="AT19" s="208"/>
-      <c r="AU19" s="208"/>
-      <c r="AV19" s="208"/>
-      <c r="AW19" s="208"/>
-      <c r="AX19" s="208"/>
-      <c r="AY19" s="208"/>
-      <c r="AZ19" s="208"/>
-      <c r="BA19" s="208"/>
-      <c r="BB19" s="208"/>
-      <c r="BC19" s="208"/>
-      <c r="BD19" s="208"/>
-      <c r="BE19" s="208"/>
-      <c r="BF19" s="208"/>
-      <c r="BG19" s="208"/>
-      <c r="BH19" s="208"/>
-      <c r="BI19" s="208"/>
-      <c r="BJ19" s="208"/>
-      <c r="BK19" s="208"/>
-      <c r="BL19" s="209"/>
+      <c r="R19" s="254"/>
+      <c r="S19" s="267" t="s">
+        <v>162</v>
+      </c>
+      <c r="T19" s="266"/>
+      <c r="U19" s="250"/>
+      <c r="V19" s="252"/>
+      <c r="W19" s="255" t="s">
+        <v>117</v>
+      </c>
+      <c r="X19" s="256"/>
+      <c r="Y19" s="250" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z19" s="251"/>
+      <c r="AA19" s="251"/>
+      <c r="AB19" s="252"/>
+      <c r="AC19" s="239" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD19" s="240"/>
+      <c r="AE19" s="240"/>
+      <c r="AF19" s="240"/>
+      <c r="AG19" s="241"/>
+      <c r="AH19" s="299" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI19" s="300"/>
+      <c r="AJ19" s="300"/>
+      <c r="AK19" s="300"/>
+      <c r="AL19" s="300"/>
+      <c r="AM19" s="300"/>
+      <c r="AN19" s="301"/>
+      <c r="AO19" s="257" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP19" s="258"/>
+      <c r="AQ19" s="258"/>
+      <c r="AR19" s="258"/>
+      <c r="AS19" s="258"/>
+      <c r="AT19" s="258"/>
+      <c r="AU19" s="258"/>
+      <c r="AV19" s="258"/>
+      <c r="AW19" s="258"/>
+      <c r="AX19" s="258"/>
+      <c r="AY19" s="258"/>
+      <c r="AZ19" s="258"/>
+      <c r="BA19" s="258"/>
+      <c r="BB19" s="258"/>
+      <c r="BC19" s="258"/>
+      <c r="BD19" s="258"/>
+      <c r="BE19" s="258"/>
+      <c r="BF19" s="258"/>
+      <c r="BG19" s="258"/>
+      <c r="BH19" s="258"/>
+      <c r="BI19" s="258"/>
+      <c r="BJ19" s="258"/>
+      <c r="BK19" s="258"/>
+      <c r="BL19" s="259"/>
       <c r="BM19" s="116"/>
       <c r="BN19" s="117"/>
     </row>
-    <row r="20" spans="1:66" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="115" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" s="189" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="190"/>
-      <c r="D20" s="190"/>
-      <c r="E20" s="190"/>
-      <c r="F20" s="190"/>
-      <c r="G20" s="190"/>
-      <c r="H20" s="190"/>
-      <c r="I20" s="190"/>
-      <c r="J20" s="190"/>
-      <c r="K20" s="190"/>
-      <c r="L20" s="191"/>
-      <c r="M20" s="184" t="s">
-        <v>157</v>
-      </c>
-      <c r="N20" s="185"/>
-      <c r="O20" s="185"/>
-      <c r="P20" s="186"/>
-      <c r="Q20" s="179">
+        <v>127</v>
+      </c>
+      <c r="B20" s="247" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="248"/>
+      <c r="D20" s="248"/>
+      <c r="E20" s="248"/>
+      <c r="F20" s="248"/>
+      <c r="G20" s="248"/>
+      <c r="H20" s="248"/>
+      <c r="I20" s="248"/>
+      <c r="J20" s="248"/>
+      <c r="K20" s="248"/>
+      <c r="L20" s="249"/>
+      <c r="M20" s="250" t="s">
+        <v>156</v>
+      </c>
+      <c r="N20" s="251"/>
+      <c r="O20" s="251"/>
+      <c r="P20" s="252"/>
+      <c r="Q20" s="253">
         <v>7</v>
       </c>
-      <c r="R20" s="180"/>
-      <c r="S20" s="219">
+      <c r="R20" s="254"/>
+      <c r="S20" s="265">
         <v>1</v>
       </c>
-      <c r="T20" s="218"/>
-      <c r="U20" s="184"/>
-      <c r="V20" s="186"/>
-      <c r="W20" s="183" t="s">
-        <v>118</v>
-      </c>
-      <c r="X20" s="182"/>
-      <c r="Y20" s="184" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z20" s="185"/>
-      <c r="AA20" s="185"/>
-      <c r="AB20" s="186"/>
-      <c r="AC20" s="174" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD20" s="175"/>
-      <c r="AE20" s="175"/>
-      <c r="AF20" s="175"/>
-      <c r="AG20" s="176"/>
-      <c r="AH20" s="177" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI20" s="177"/>
-      <c r="AJ20" s="177"/>
-      <c r="AK20" s="177"/>
-      <c r="AL20" s="177"/>
-      <c r="AM20" s="177"/>
-      <c r="AN20" s="178"/>
-      <c r="AO20" s="207" t="s">
-        <v>164</v>
-      </c>
-      <c r="AP20" s="208"/>
-      <c r="AQ20" s="208"/>
-      <c r="AR20" s="208"/>
-      <c r="AS20" s="208"/>
-      <c r="AT20" s="208"/>
-      <c r="AU20" s="208"/>
-      <c r="AV20" s="208"/>
-      <c r="AW20" s="208"/>
-      <c r="AX20" s="208"/>
-      <c r="AY20" s="208"/>
-      <c r="AZ20" s="208"/>
-      <c r="BA20" s="208"/>
-      <c r="BB20" s="208"/>
-      <c r="BC20" s="208"/>
-      <c r="BD20" s="208"/>
-      <c r="BE20" s="208"/>
-      <c r="BF20" s="208"/>
-      <c r="BG20" s="208"/>
-      <c r="BH20" s="208"/>
-      <c r="BI20" s="208"/>
-      <c r="BJ20" s="208"/>
-      <c r="BK20" s="208"/>
-      <c r="BL20" s="209"/>
+      <c r="T20" s="266"/>
+      <c r="U20" s="250"/>
+      <c r="V20" s="252"/>
+      <c r="W20" s="255" t="s">
+        <v>117</v>
+      </c>
+      <c r="X20" s="256"/>
+      <c r="Y20" s="250" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z20" s="251"/>
+      <c r="AA20" s="251"/>
+      <c r="AB20" s="252"/>
+      <c r="AC20" s="239" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD20" s="240"/>
+      <c r="AE20" s="240"/>
+      <c r="AF20" s="240"/>
+      <c r="AG20" s="241"/>
+      <c r="AH20" s="299" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI20" s="300"/>
+      <c r="AJ20" s="300"/>
+      <c r="AK20" s="300"/>
+      <c r="AL20" s="300"/>
+      <c r="AM20" s="300"/>
+      <c r="AN20" s="301"/>
+      <c r="AO20" s="257" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP20" s="258"/>
+      <c r="AQ20" s="258"/>
+      <c r="AR20" s="258"/>
+      <c r="AS20" s="258"/>
+      <c r="AT20" s="258"/>
+      <c r="AU20" s="258"/>
+      <c r="AV20" s="258"/>
+      <c r="AW20" s="258"/>
+      <c r="AX20" s="258"/>
+      <c r="AY20" s="258"/>
+      <c r="AZ20" s="258"/>
+      <c r="BA20" s="258"/>
+      <c r="BB20" s="258"/>
+      <c r="BC20" s="258"/>
+      <c r="BD20" s="258"/>
+      <c r="BE20" s="258"/>
+      <c r="BF20" s="258"/>
+      <c r="BG20" s="258"/>
+      <c r="BH20" s="258"/>
+      <c r="BI20" s="258"/>
+      <c r="BJ20" s="258"/>
+      <c r="BK20" s="258"/>
+      <c r="BL20" s="259"/>
       <c r="BM20" s="116"/>
       <c r="BN20" s="117"/>
     </row>
-    <row r="21" spans="1:66" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="115" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="189" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="247" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="248"/>
+      <c r="D21" s="248"/>
+      <c r="E21" s="248"/>
+      <c r="F21" s="248"/>
+      <c r="G21" s="248"/>
+      <c r="H21" s="248"/>
+      <c r="I21" s="248"/>
+      <c r="J21" s="248"/>
+      <c r="K21" s="248"/>
+      <c r="L21" s="249"/>
+      <c r="M21" s="250" t="s">
+        <v>156</v>
+      </c>
+      <c r="N21" s="251"/>
+      <c r="O21" s="251"/>
+      <c r="P21" s="252"/>
+      <c r="Q21" s="253">
+        <v>200</v>
+      </c>
+      <c r="R21" s="254"/>
+      <c r="S21" s="265">
+        <v>1</v>
+      </c>
+      <c r="T21" s="266"/>
+      <c r="U21" s="268" t="s">
         <v>162</v>
       </c>
-      <c r="C21" s="190"/>
-      <c r="D21" s="190"/>
-      <c r="E21" s="190"/>
-      <c r="F21" s="190"/>
-      <c r="G21" s="190"/>
-      <c r="H21" s="190"/>
-      <c r="I21" s="190"/>
-      <c r="J21" s="190"/>
-      <c r="K21" s="190"/>
-      <c r="L21" s="191"/>
-      <c r="M21" s="184" t="s">
-        <v>157</v>
-      </c>
-      <c r="N21" s="185"/>
-      <c r="O21" s="185"/>
-      <c r="P21" s="186"/>
-      <c r="Q21" s="179">
-        <v>200</v>
-      </c>
-      <c r="R21" s="180"/>
-      <c r="S21" s="219">
-        <v>1</v>
-      </c>
-      <c r="T21" s="218"/>
-      <c r="U21" s="220" t="s">
+      <c r="V21" s="252"/>
+      <c r="W21" s="255" t="s">
+        <v>117</v>
+      </c>
+      <c r="X21" s="256"/>
+      <c r="Y21" s="250" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z21" s="251"/>
+      <c r="AA21" s="251"/>
+      <c r="AB21" s="252"/>
+      <c r="AC21" s="239" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD21" s="240"/>
+      <c r="AE21" s="240"/>
+      <c r="AF21" s="240"/>
+      <c r="AG21" s="241"/>
+      <c r="AH21" s="299" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI21" s="300"/>
+      <c r="AJ21" s="300"/>
+      <c r="AK21" s="300"/>
+      <c r="AL21" s="300"/>
+      <c r="AM21" s="300"/>
+      <c r="AN21" s="301"/>
+      <c r="AO21" s="257" t="s">
         <v>163</v>
       </c>
-      <c r="V21" s="186"/>
-      <c r="W21" s="183" t="s">
-        <v>118</v>
-      </c>
-      <c r="X21" s="182"/>
-      <c r="Y21" s="184" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z21" s="185"/>
-      <c r="AA21" s="185"/>
-      <c r="AB21" s="186"/>
-      <c r="AC21" s="174" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD21" s="175"/>
-      <c r="AE21" s="175"/>
-      <c r="AF21" s="175"/>
-      <c r="AG21" s="176"/>
-      <c r="AH21" s="177" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI21" s="177"/>
-      <c r="AJ21" s="177"/>
-      <c r="AK21" s="177"/>
-      <c r="AL21" s="177"/>
-      <c r="AM21" s="177"/>
-      <c r="AN21" s="178"/>
-      <c r="AO21" s="207" t="s">
-        <v>164</v>
-      </c>
-      <c r="AP21" s="208"/>
-      <c r="AQ21" s="208"/>
-      <c r="AR21" s="208"/>
-      <c r="AS21" s="208"/>
-      <c r="AT21" s="208"/>
-      <c r="AU21" s="208"/>
-      <c r="AV21" s="208"/>
-      <c r="AW21" s="208"/>
-      <c r="AX21" s="208"/>
-      <c r="AY21" s="208"/>
-      <c r="AZ21" s="208"/>
-      <c r="BA21" s="208"/>
-      <c r="BB21" s="208"/>
-      <c r="BC21" s="208"/>
-      <c r="BD21" s="208"/>
-      <c r="BE21" s="208"/>
-      <c r="BF21" s="208"/>
-      <c r="BG21" s="208"/>
-      <c r="BH21" s="208"/>
-      <c r="BI21" s="208"/>
-      <c r="BJ21" s="208"/>
-      <c r="BK21" s="208"/>
-      <c r="BL21" s="209"/>
+      <c r="AP21" s="258"/>
+      <c r="AQ21" s="258"/>
+      <c r="AR21" s="258"/>
+      <c r="AS21" s="258"/>
+      <c r="AT21" s="258"/>
+      <c r="AU21" s="258"/>
+      <c r="AV21" s="258"/>
+      <c r="AW21" s="258"/>
+      <c r="AX21" s="258"/>
+      <c r="AY21" s="258"/>
+      <c r="AZ21" s="258"/>
+      <c r="BA21" s="258"/>
+      <c r="BB21" s="258"/>
+      <c r="BC21" s="258"/>
+      <c r="BD21" s="258"/>
+      <c r="BE21" s="258"/>
+      <c r="BF21" s="258"/>
+      <c r="BG21" s="258"/>
+      <c r="BH21" s="258"/>
+      <c r="BI21" s="258"/>
+      <c r="BJ21" s="258"/>
+      <c r="BK21" s="258"/>
+      <c r="BL21" s="259"/>
       <c r="BM21" s="116"/>
       <c r="BN21" s="117"/>
     </row>
-    <row r="22" spans="1:66" ht="13.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:66" ht="13.8" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="115" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" s="189" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" s="190"/>
-      <c r="D22" s="190"/>
-      <c r="E22" s="190"/>
-      <c r="F22" s="190"/>
-      <c r="G22" s="190"/>
-      <c r="H22" s="190"/>
-      <c r="I22" s="190"/>
-      <c r="J22" s="190"/>
-      <c r="K22" s="190"/>
-      <c r="L22" s="191"/>
-      <c r="M22" s="184" t="s">
-        <v>157</v>
-      </c>
-      <c r="N22" s="185"/>
-      <c r="O22" s="185"/>
-      <c r="P22" s="186"/>
-      <c r="Q22" s="179">
+        <v>129</v>
+      </c>
+      <c r="B22" s="247" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="248"/>
+      <c r="D22" s="248"/>
+      <c r="E22" s="248"/>
+      <c r="F22" s="248"/>
+      <c r="G22" s="248"/>
+      <c r="H22" s="248"/>
+      <c r="I22" s="248"/>
+      <c r="J22" s="248"/>
+      <c r="K22" s="248"/>
+      <c r="L22" s="249"/>
+      <c r="M22" s="250" t="s">
+        <v>156</v>
+      </c>
+      <c r="N22" s="251"/>
+      <c r="O22" s="251"/>
+      <c r="P22" s="252"/>
+      <c r="Q22" s="253">
         <v>15</v>
       </c>
-      <c r="R22" s="180"/>
-      <c r="S22" s="219">
+      <c r="R22" s="254"/>
+      <c r="S22" s="265">
         <v>1</v>
       </c>
-      <c r="T22" s="218"/>
-      <c r="U22" s="184"/>
-      <c r="V22" s="186"/>
-      <c r="W22" s="183" t="s">
-        <v>118</v>
-      </c>
-      <c r="X22" s="182"/>
-      <c r="Y22" s="184" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z22" s="185"/>
-      <c r="AA22" s="185"/>
-      <c r="AB22" s="186"/>
-      <c r="AC22" s="174" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD22" s="175"/>
-      <c r="AE22" s="175"/>
-      <c r="AF22" s="175"/>
-      <c r="AG22" s="176"/>
-      <c r="AH22" s="177" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI22" s="177"/>
-      <c r="AJ22" s="177"/>
-      <c r="AK22" s="177"/>
-      <c r="AL22" s="177"/>
-      <c r="AM22" s="177"/>
-      <c r="AN22" s="178"/>
-      <c r="AO22" s="207" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP22" s="208"/>
-      <c r="AQ22" s="208"/>
-      <c r="AR22" s="208"/>
-      <c r="AS22" s="208"/>
-      <c r="AT22" s="208"/>
-      <c r="AU22" s="208"/>
-      <c r="AV22" s="208"/>
-      <c r="AW22" s="208"/>
-      <c r="AX22" s="208"/>
-      <c r="AY22" s="208"/>
-      <c r="AZ22" s="208"/>
-      <c r="BA22" s="208"/>
-      <c r="BB22" s="208"/>
-      <c r="BC22" s="208"/>
-      <c r="BD22" s="208"/>
-      <c r="BE22" s="208"/>
-      <c r="BF22" s="208"/>
-      <c r="BG22" s="208"/>
-      <c r="BH22" s="208"/>
-      <c r="BI22" s="208"/>
-      <c r="BJ22" s="208"/>
-      <c r="BK22" s="208"/>
-      <c r="BL22" s="209"/>
+      <c r="T22" s="266"/>
+      <c r="U22" s="250"/>
+      <c r="V22" s="252"/>
+      <c r="W22" s="255" t="s">
+        <v>117</v>
+      </c>
+      <c r="X22" s="256"/>
+      <c r="Y22" s="250" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z22" s="251"/>
+      <c r="AA22" s="251"/>
+      <c r="AB22" s="252"/>
+      <c r="AC22" s="239" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD22" s="240"/>
+      <c r="AE22" s="240"/>
+      <c r="AF22" s="240"/>
+      <c r="AG22" s="241"/>
+      <c r="AH22" s="299" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI22" s="300"/>
+      <c r="AJ22" s="300"/>
+      <c r="AK22" s="300"/>
+      <c r="AL22" s="300"/>
+      <c r="AM22" s="300"/>
+      <c r="AN22" s="301"/>
+      <c r="AO22" s="257" t="s">
+        <v>170</v>
+      </c>
+      <c r="AP22" s="258"/>
+      <c r="AQ22" s="258"/>
+      <c r="AR22" s="258"/>
+      <c r="AS22" s="258"/>
+      <c r="AT22" s="258"/>
+      <c r="AU22" s="258"/>
+      <c r="AV22" s="258"/>
+      <c r="AW22" s="258"/>
+      <c r="AX22" s="258"/>
+      <c r="AY22" s="258"/>
+      <c r="AZ22" s="258"/>
+      <c r="BA22" s="258"/>
+      <c r="BB22" s="258"/>
+      <c r="BC22" s="258"/>
+      <c r="BD22" s="258"/>
+      <c r="BE22" s="258"/>
+      <c r="BF22" s="258"/>
+      <c r="BG22" s="258"/>
+      <c r="BH22" s="258"/>
+      <c r="BI22" s="258"/>
+      <c r="BJ22" s="258"/>
+      <c r="BK22" s="258"/>
+      <c r="BL22" s="259"/>
       <c r="BM22" s="116"/>
       <c r="BN22" s="117"/>
     </row>
-    <row r="23" spans="1:66" ht="31.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:66" ht="31.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="115" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="189" t="s">
-        <v>160</v>
-      </c>
-      <c r="C23" s="190"/>
-      <c r="D23" s="190"/>
-      <c r="E23" s="190"/>
-      <c r="F23" s="190"/>
-      <c r="G23" s="190"/>
-      <c r="H23" s="190"/>
-      <c r="I23" s="190"/>
-      <c r="J23" s="190"/>
-      <c r="K23" s="190"/>
-      <c r="L23" s="191"/>
-      <c r="M23" s="184" t="s">
-        <v>157</v>
-      </c>
-      <c r="N23" s="185"/>
-      <c r="O23" s="185"/>
-      <c r="P23" s="186"/>
-      <c r="Q23" s="179">
+        <v>130</v>
+      </c>
+      <c r="B23" s="247" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="248"/>
+      <c r="D23" s="248"/>
+      <c r="E23" s="248"/>
+      <c r="F23" s="248"/>
+      <c r="G23" s="248"/>
+      <c r="H23" s="248"/>
+      <c r="I23" s="248"/>
+      <c r="J23" s="248"/>
+      <c r="K23" s="248"/>
+      <c r="L23" s="249"/>
+      <c r="M23" s="250" t="s">
+        <v>156</v>
+      </c>
+      <c r="N23" s="251"/>
+      <c r="O23" s="251"/>
+      <c r="P23" s="252"/>
+      <c r="Q23" s="253">
         <v>40</v>
       </c>
-      <c r="R23" s="180"/>
-      <c r="S23" s="217" t="s">
-        <v>163</v>
-      </c>
-      <c r="T23" s="218"/>
-      <c r="U23" s="217" t="s">
-        <v>163</v>
-      </c>
-      <c r="V23" s="218"/>
-      <c r="W23" s="183" t="s">
-        <v>118</v>
-      </c>
-      <c r="X23" s="182"/>
-      <c r="Y23" s="184" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z23" s="185"/>
-      <c r="AA23" s="185"/>
-      <c r="AB23" s="186"/>
-      <c r="AC23" s="174" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD23" s="175"/>
-      <c r="AE23" s="175"/>
-      <c r="AF23" s="175"/>
-      <c r="AG23" s="176"/>
-      <c r="AH23" s="177" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI23" s="177"/>
-      <c r="AJ23" s="177"/>
-      <c r="AK23" s="177"/>
-      <c r="AL23" s="177"/>
-      <c r="AM23" s="177"/>
-      <c r="AN23" s="178"/>
-      <c r="AO23" s="207" t="s">
-        <v>174</v>
-      </c>
-      <c r="AP23" s="208"/>
-      <c r="AQ23" s="208"/>
-      <c r="AR23" s="208"/>
-      <c r="AS23" s="208"/>
-      <c r="AT23" s="208"/>
-      <c r="AU23" s="208"/>
-      <c r="AV23" s="208"/>
-      <c r="AW23" s="208"/>
-      <c r="AX23" s="208"/>
-      <c r="AY23" s="208"/>
-      <c r="AZ23" s="208"/>
-      <c r="BA23" s="208"/>
-      <c r="BB23" s="208"/>
-      <c r="BC23" s="208"/>
-      <c r="BD23" s="208"/>
-      <c r="BE23" s="208"/>
-      <c r="BF23" s="208"/>
-      <c r="BG23" s="208"/>
-      <c r="BH23" s="208"/>
-      <c r="BI23" s="208"/>
-      <c r="BJ23" s="208"/>
-      <c r="BK23" s="208"/>
-      <c r="BL23" s="209"/>
+      <c r="R23" s="254"/>
+      <c r="S23" s="267" t="s">
+        <v>162</v>
+      </c>
+      <c r="T23" s="266"/>
+      <c r="U23" s="267" t="s">
+        <v>162</v>
+      </c>
+      <c r="V23" s="266"/>
+      <c r="W23" s="255" t="s">
+        <v>117</v>
+      </c>
+      <c r="X23" s="256"/>
+      <c r="Y23" s="250" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z23" s="251"/>
+      <c r="AA23" s="251"/>
+      <c r="AB23" s="252"/>
+      <c r="AC23" s="239" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD23" s="240"/>
+      <c r="AE23" s="240"/>
+      <c r="AF23" s="240"/>
+      <c r="AG23" s="241"/>
+      <c r="AH23" s="299" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI23" s="300"/>
+      <c r="AJ23" s="300"/>
+      <c r="AK23" s="300"/>
+      <c r="AL23" s="300"/>
+      <c r="AM23" s="300"/>
+      <c r="AN23" s="301"/>
+      <c r="AO23" s="257" t="s">
+        <v>173</v>
+      </c>
+      <c r="AP23" s="258"/>
+      <c r="AQ23" s="258"/>
+      <c r="AR23" s="258"/>
+      <c r="AS23" s="258"/>
+      <c r="AT23" s="258"/>
+      <c r="AU23" s="258"/>
+      <c r="AV23" s="258"/>
+      <c r="AW23" s="258"/>
+      <c r="AX23" s="258"/>
+      <c r="AY23" s="258"/>
+      <c r="AZ23" s="258"/>
+      <c r="BA23" s="258"/>
+      <c r="BB23" s="258"/>
+      <c r="BC23" s="258"/>
+      <c r="BD23" s="258"/>
+      <c r="BE23" s="258"/>
+      <c r="BF23" s="258"/>
+      <c r="BG23" s="258"/>
+      <c r="BH23" s="258"/>
+      <c r="BI23" s="258"/>
+      <c r="BJ23" s="258"/>
+      <c r="BK23" s="258"/>
+      <c r="BL23" s="259"/>
       <c r="BM23" s="116"/>
       <c r="BN23" s="117"/>
     </row>
-    <row r="24" spans="1:66" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="115" t="s">
-        <v>132</v>
-      </c>
-      <c r="B24" s="189" t="s">
-        <v>209</v>
-      </c>
-      <c r="C24" s="190"/>
-      <c r="D24" s="190"/>
-      <c r="E24" s="190"/>
-      <c r="F24" s="190"/>
-      <c r="G24" s="190"/>
-      <c r="H24" s="190"/>
-      <c r="I24" s="190"/>
-      <c r="J24" s="190"/>
-      <c r="K24" s="190"/>
-      <c r="L24" s="191"/>
-      <c r="M24" s="184" t="s">
-        <v>157</v>
-      </c>
-      <c r="N24" s="185"/>
-      <c r="O24" s="185"/>
-      <c r="P24" s="186"/>
-      <c r="Q24" s="179">
+        <v>131</v>
+      </c>
+      <c r="B24" s="247" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="248"/>
+      <c r="D24" s="248"/>
+      <c r="E24" s="248"/>
+      <c r="F24" s="248"/>
+      <c r="G24" s="248"/>
+      <c r="H24" s="248"/>
+      <c r="I24" s="248"/>
+      <c r="J24" s="248"/>
+      <c r="K24" s="248"/>
+      <c r="L24" s="249"/>
+      <c r="M24" s="250" t="s">
+        <v>156</v>
+      </c>
+      <c r="N24" s="251"/>
+      <c r="O24" s="251"/>
+      <c r="P24" s="252"/>
+      <c r="Q24" s="253">
         <v>8</v>
       </c>
-      <c r="R24" s="180"/>
-      <c r="S24" s="217" t="s">
-        <v>163</v>
-      </c>
-      <c r="T24" s="218"/>
-      <c r="U24" s="184"/>
-      <c r="V24" s="186"/>
-      <c r="W24" s="183" t="s">
-        <v>118</v>
-      </c>
-      <c r="X24" s="182"/>
-      <c r="Y24" s="184" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z24" s="185"/>
-      <c r="AA24" s="185"/>
-      <c r="AB24" s="186"/>
-      <c r="AC24" s="174" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD24" s="175"/>
-      <c r="AE24" s="175"/>
-      <c r="AF24" s="175"/>
-      <c r="AG24" s="176"/>
-      <c r="AH24" s="177" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI24" s="177"/>
-      <c r="AJ24" s="177"/>
-      <c r="AK24" s="177"/>
-      <c r="AL24" s="177"/>
-      <c r="AM24" s="177"/>
-      <c r="AN24" s="178"/>
-      <c r="AO24" s="207" t="s">
-        <v>172</v>
-      </c>
-      <c r="AP24" s="208"/>
-      <c r="AQ24" s="208"/>
-      <c r="AR24" s="208"/>
-      <c r="AS24" s="208"/>
-      <c r="AT24" s="208"/>
-      <c r="AU24" s="208"/>
-      <c r="AV24" s="208"/>
-      <c r="AW24" s="208"/>
-      <c r="AX24" s="208"/>
-      <c r="AY24" s="208"/>
-      <c r="AZ24" s="208"/>
-      <c r="BA24" s="208"/>
-      <c r="BB24" s="208"/>
-      <c r="BC24" s="208"/>
-      <c r="BD24" s="208"/>
-      <c r="BE24" s="208"/>
-      <c r="BF24" s="208"/>
-      <c r="BG24" s="208"/>
-      <c r="BH24" s="208"/>
-      <c r="BI24" s="208"/>
-      <c r="BJ24" s="208"/>
-      <c r="BK24" s="208"/>
-      <c r="BL24" s="209"/>
+      <c r="R24" s="254"/>
+      <c r="S24" s="267" t="s">
+        <v>162</v>
+      </c>
+      <c r="T24" s="266"/>
+      <c r="U24" s="250"/>
+      <c r="V24" s="252"/>
+      <c r="W24" s="255" t="s">
+        <v>117</v>
+      </c>
+      <c r="X24" s="256"/>
+      <c r="Y24" s="250" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z24" s="251"/>
+      <c r="AA24" s="251"/>
+      <c r="AB24" s="252"/>
+      <c r="AC24" s="239" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD24" s="240"/>
+      <c r="AE24" s="240"/>
+      <c r="AF24" s="240"/>
+      <c r="AG24" s="241"/>
+      <c r="AH24" s="299" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI24" s="300"/>
+      <c r="AJ24" s="300"/>
+      <c r="AK24" s="300"/>
+      <c r="AL24" s="300"/>
+      <c r="AM24" s="300"/>
+      <c r="AN24" s="301"/>
+      <c r="AO24" s="257" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP24" s="258"/>
+      <c r="AQ24" s="258"/>
+      <c r="AR24" s="258"/>
+      <c r="AS24" s="258"/>
+      <c r="AT24" s="258"/>
+      <c r="AU24" s="258"/>
+      <c r="AV24" s="258"/>
+      <c r="AW24" s="258"/>
+      <c r="AX24" s="258"/>
+      <c r="AY24" s="258"/>
+      <c r="AZ24" s="258"/>
+      <c r="BA24" s="258"/>
+      <c r="BB24" s="258"/>
+      <c r="BC24" s="258"/>
+      <c r="BD24" s="258"/>
+      <c r="BE24" s="258"/>
+      <c r="BF24" s="258"/>
+      <c r="BG24" s="258"/>
+      <c r="BH24" s="258"/>
+      <c r="BI24" s="258"/>
+      <c r="BJ24" s="258"/>
+      <c r="BK24" s="258"/>
+      <c r="BL24" s="259"/>
       <c r="BM24" s="116"/>
       <c r="BN24" s="117"/>
     </row>
-    <row r="25" spans="1:66" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="115" t="s">
-        <v>161</v>
-      </c>
-      <c r="B25" s="189" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="190"/>
-      <c r="D25" s="190"/>
-      <c r="E25" s="190"/>
-      <c r="F25" s="190"/>
-      <c r="G25" s="190"/>
-      <c r="H25" s="190"/>
-      <c r="I25" s="190"/>
-      <c r="J25" s="190"/>
-      <c r="K25" s="190"/>
-      <c r="L25" s="191"/>
-      <c r="M25" s="184" t="s">
-        <v>157</v>
-      </c>
-      <c r="N25" s="185"/>
-      <c r="O25" s="185"/>
-      <c r="P25" s="186"/>
-      <c r="Q25" s="179">
+        <v>160</v>
+      </c>
+      <c r="B25" s="247" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="248"/>
+      <c r="D25" s="248"/>
+      <c r="E25" s="248"/>
+      <c r="F25" s="248"/>
+      <c r="G25" s="248"/>
+      <c r="H25" s="248"/>
+      <c r="I25" s="248"/>
+      <c r="J25" s="248"/>
+      <c r="K25" s="248"/>
+      <c r="L25" s="249"/>
+      <c r="M25" s="250" t="s">
+        <v>156</v>
+      </c>
+      <c r="N25" s="251"/>
+      <c r="O25" s="251"/>
+      <c r="P25" s="252"/>
+      <c r="Q25" s="253">
         <v>1</v>
       </c>
-      <c r="R25" s="180"/>
-      <c r="S25" s="181" t="s">
-        <v>164</v>
-      </c>
-      <c r="T25" s="182"/>
-      <c r="U25" s="183"/>
-      <c r="V25" s="182"/>
-      <c r="W25" s="183" t="s">
-        <v>164</v>
-      </c>
-      <c r="X25" s="182"/>
-      <c r="Y25" s="184" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z25" s="185"/>
-      <c r="AA25" s="185"/>
-      <c r="AB25" s="186"/>
-      <c r="AC25" s="174" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD25" s="175"/>
-      <c r="AE25" s="175"/>
-      <c r="AF25" s="175"/>
-      <c r="AG25" s="176"/>
-      <c r="AH25" s="177" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI25" s="177"/>
-      <c r="AJ25" s="177"/>
-      <c r="AK25" s="177"/>
-      <c r="AL25" s="177"/>
-      <c r="AM25" s="177"/>
-      <c r="AN25" s="178"/>
-      <c r="AO25" s="207" t="s">
-        <v>175</v>
-      </c>
-      <c r="AP25" s="208"/>
-      <c r="AQ25" s="208"/>
-      <c r="AR25" s="208"/>
-      <c r="AS25" s="208"/>
-      <c r="AT25" s="208"/>
-      <c r="AU25" s="208"/>
-      <c r="AV25" s="208"/>
-      <c r="AW25" s="208"/>
-      <c r="AX25" s="208"/>
-      <c r="AY25" s="208"/>
-      <c r="AZ25" s="208"/>
-      <c r="BA25" s="208"/>
-      <c r="BB25" s="208"/>
-      <c r="BC25" s="208"/>
-      <c r="BD25" s="208"/>
-      <c r="BE25" s="208"/>
-      <c r="BF25" s="208"/>
-      <c r="BG25" s="208"/>
-      <c r="BH25" s="208"/>
-      <c r="BI25" s="208"/>
-      <c r="BJ25" s="208"/>
-      <c r="BK25" s="208"/>
-      <c r="BL25" s="209"/>
+      <c r="R25" s="254"/>
+      <c r="S25" s="264" t="s">
+        <v>163</v>
+      </c>
+      <c r="T25" s="256"/>
+      <c r="U25" s="255"/>
+      <c r="V25" s="256"/>
+      <c r="W25" s="255" t="s">
+        <v>163</v>
+      </c>
+      <c r="X25" s="256"/>
+      <c r="Y25" s="250" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z25" s="251"/>
+      <c r="AA25" s="251"/>
+      <c r="AB25" s="252"/>
+      <c r="AC25" s="239" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD25" s="240"/>
+      <c r="AE25" s="240"/>
+      <c r="AF25" s="240"/>
+      <c r="AG25" s="241"/>
+      <c r="AH25" s="299" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI25" s="300"/>
+      <c r="AJ25" s="300"/>
+      <c r="AK25" s="300"/>
+      <c r="AL25" s="300"/>
+      <c r="AM25" s="300"/>
+      <c r="AN25" s="301"/>
+      <c r="AO25" s="257" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP25" s="258"/>
+      <c r="AQ25" s="258"/>
+      <c r="AR25" s="258"/>
+      <c r="AS25" s="258"/>
+      <c r="AT25" s="258"/>
+      <c r="AU25" s="258"/>
+      <c r="AV25" s="258"/>
+      <c r="AW25" s="258"/>
+      <c r="AX25" s="258"/>
+      <c r="AY25" s="258"/>
+      <c r="AZ25" s="258"/>
+      <c r="BA25" s="258"/>
+      <c r="BB25" s="258"/>
+      <c r="BC25" s="258"/>
+      <c r="BD25" s="258"/>
+      <c r="BE25" s="258"/>
+      <c r="BF25" s="258"/>
+      <c r="BG25" s="258"/>
+      <c r="BH25" s="258"/>
+      <c r="BI25" s="258"/>
+      <c r="BJ25" s="258"/>
+      <c r="BK25" s="258"/>
+      <c r="BL25" s="259"/>
       <c r="BM25" s="116"/>
       <c r="BN25" s="117"/>
     </row>
     <row r="26" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="124"/>
-      <c r="B26" s="189"/>
-      <c r="C26" s="190"/>
-      <c r="D26" s="190"/>
-      <c r="E26" s="190"/>
-      <c r="F26" s="190"/>
-      <c r="G26" s="190"/>
-      <c r="H26" s="190"/>
-      <c r="I26" s="190"/>
-      <c r="J26" s="190"/>
-      <c r="K26" s="190"/>
-      <c r="L26" s="191"/>
-      <c r="M26" s="184"/>
-      <c r="N26" s="185"/>
-      <c r="O26" s="185"/>
-      <c r="P26" s="186"/>
-      <c r="Q26" s="210"/>
-      <c r="R26" s="211"/>
-      <c r="S26" s="183"/>
-      <c r="T26" s="182"/>
-      <c r="U26" s="184"/>
-      <c r="V26" s="186"/>
+      <c r="B26" s="247"/>
+      <c r="C26" s="248"/>
+      <c r="D26" s="248"/>
+      <c r="E26" s="248"/>
+      <c r="F26" s="248"/>
+      <c r="G26" s="248"/>
+      <c r="H26" s="248"/>
+      <c r="I26" s="248"/>
+      <c r="J26" s="248"/>
+      <c r="K26" s="248"/>
+      <c r="L26" s="249"/>
+      <c r="M26" s="250"/>
+      <c r="N26" s="251"/>
+      <c r="O26" s="251"/>
+      <c r="P26" s="252"/>
+      <c r="Q26" s="269"/>
+      <c r="R26" s="270"/>
+      <c r="S26" s="255"/>
+      <c r="T26" s="256"/>
+      <c r="U26" s="250"/>
+      <c r="V26" s="252"/>
       <c r="W26" s="118"/>
       <c r="X26" s="119"/>
       <c r="Y26" s="122"/>
       <c r="Z26" s="120"/>
       <c r="AA26" s="120"/>
       <c r="AB26" s="121"/>
-      <c r="AC26" s="212"/>
-      <c r="AD26" s="213"/>
-      <c r="AE26" s="213"/>
-      <c r="AF26" s="213"/>
-      <c r="AG26" s="182"/>
-      <c r="AH26" s="184"/>
-      <c r="AI26" s="185"/>
-      <c r="AJ26" s="185"/>
-      <c r="AK26" s="185"/>
-      <c r="AL26" s="185"/>
-      <c r="AM26" s="185"/>
-      <c r="AN26" s="214"/>
-      <c r="AO26" s="207"/>
-      <c r="AP26" s="208"/>
-      <c r="AQ26" s="208"/>
-      <c r="AR26" s="208"/>
-      <c r="AS26" s="208"/>
-      <c r="AT26" s="208"/>
-      <c r="AU26" s="208"/>
-      <c r="AV26" s="208"/>
-      <c r="AW26" s="208"/>
-      <c r="AX26" s="208"/>
-      <c r="AY26" s="208"/>
-      <c r="AZ26" s="208"/>
-      <c r="BA26" s="208"/>
-      <c r="BB26" s="208"/>
-      <c r="BC26" s="208"/>
-      <c r="BD26" s="208"/>
-      <c r="BE26" s="208"/>
-      <c r="BF26" s="208"/>
-      <c r="BG26" s="208"/>
-      <c r="BH26" s="208"/>
-      <c r="BI26" s="208"/>
-      <c r="BJ26" s="208"/>
-      <c r="BK26" s="208"/>
-      <c r="BL26" s="209"/>
-      <c r="BM26" s="187"/>
-      <c r="BN26" s="188"/>
+      <c r="AC26" s="271"/>
+      <c r="AD26" s="272"/>
+      <c r="AE26" s="272"/>
+      <c r="AF26" s="272"/>
+      <c r="AG26" s="256"/>
+      <c r="AH26" s="302"/>
+      <c r="AI26" s="303"/>
+      <c r="AJ26" s="303"/>
+      <c r="AK26" s="303"/>
+      <c r="AL26" s="303"/>
+      <c r="AM26" s="303"/>
+      <c r="AN26" s="304"/>
+      <c r="AO26" s="257"/>
+      <c r="AP26" s="258"/>
+      <c r="AQ26" s="258"/>
+      <c r="AR26" s="258"/>
+      <c r="AS26" s="258"/>
+      <c r="AT26" s="258"/>
+      <c r="AU26" s="258"/>
+      <c r="AV26" s="258"/>
+      <c r="AW26" s="258"/>
+      <c r="AX26" s="258"/>
+      <c r="AY26" s="258"/>
+      <c r="AZ26" s="258"/>
+      <c r="BA26" s="258"/>
+      <c r="BB26" s="258"/>
+      <c r="BC26" s="258"/>
+      <c r="BD26" s="258"/>
+      <c r="BE26" s="258"/>
+      <c r="BF26" s="258"/>
+      <c r="BG26" s="258"/>
+      <c r="BH26" s="258"/>
+      <c r="BI26" s="258"/>
+      <c r="BJ26" s="258"/>
+      <c r="BK26" s="258"/>
+      <c r="BL26" s="259"/>
+      <c r="BM26" s="274"/>
+      <c r="BN26" s="275"/>
     </row>
     <row r="27" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="125"/>
-      <c r="B27" s="189"/>
-      <c r="C27" s="190"/>
-      <c r="D27" s="190"/>
-      <c r="E27" s="190"/>
-      <c r="F27" s="190"/>
-      <c r="G27" s="190"/>
-      <c r="H27" s="190"/>
-      <c r="I27" s="190"/>
-      <c r="J27" s="190"/>
-      <c r="K27" s="190"/>
-      <c r="L27" s="191"/>
-      <c r="M27" s="184"/>
-      <c r="N27" s="185"/>
-      <c r="O27" s="185"/>
-      <c r="P27" s="186"/>
-      <c r="Q27" s="215"/>
-      <c r="R27" s="216"/>
-      <c r="S27" s="184"/>
-      <c r="T27" s="186"/>
-      <c r="U27" s="184"/>
-      <c r="V27" s="186"/>
+      <c r="B27" s="247"/>
+      <c r="C27" s="248"/>
+      <c r="D27" s="248"/>
+      <c r="E27" s="248"/>
+      <c r="F27" s="248"/>
+      <c r="G27" s="248"/>
+      <c r="H27" s="248"/>
+      <c r="I27" s="248"/>
+      <c r="J27" s="248"/>
+      <c r="K27" s="248"/>
+      <c r="L27" s="249"/>
+      <c r="M27" s="250"/>
+      <c r="N27" s="251"/>
+      <c r="O27" s="251"/>
+      <c r="P27" s="252"/>
+      <c r="Q27" s="276"/>
+      <c r="R27" s="277"/>
+      <c r="S27" s="250"/>
+      <c r="T27" s="252"/>
+      <c r="U27" s="250"/>
+      <c r="V27" s="252"/>
       <c r="W27" s="118"/>
       <c r="X27" s="119"/>
       <c r="Y27" s="122"/>
       <c r="Z27" s="123"/>
       <c r="AA27" s="123"/>
       <c r="AB27" s="126"/>
-      <c r="AC27" s="212"/>
-      <c r="AD27" s="213"/>
-      <c r="AE27" s="213"/>
-      <c r="AF27" s="213"/>
-      <c r="AG27" s="182"/>
-      <c r="AH27" s="184"/>
-      <c r="AI27" s="185"/>
-      <c r="AJ27" s="185"/>
-      <c r="AK27" s="185"/>
-      <c r="AL27" s="185"/>
-      <c r="AM27" s="185"/>
-      <c r="AN27" s="214"/>
-      <c r="AO27" s="207"/>
-      <c r="AP27" s="208"/>
-      <c r="AQ27" s="208"/>
-      <c r="AR27" s="208"/>
-      <c r="AS27" s="208"/>
-      <c r="AT27" s="208"/>
-      <c r="AU27" s="208"/>
-      <c r="AV27" s="208"/>
-      <c r="AW27" s="208"/>
-      <c r="AX27" s="208"/>
-      <c r="AY27" s="208"/>
-      <c r="AZ27" s="208"/>
-      <c r="BA27" s="208"/>
-      <c r="BB27" s="208"/>
-      <c r="BC27" s="208"/>
-      <c r="BD27" s="208"/>
-      <c r="BE27" s="208"/>
-      <c r="BF27" s="208"/>
-      <c r="BG27" s="208"/>
-      <c r="BH27" s="208"/>
-      <c r="BI27" s="208"/>
-      <c r="BJ27" s="208"/>
-      <c r="BK27" s="208"/>
-      <c r="BL27" s="209"/>
-      <c r="BM27" s="187"/>
-      <c r="BN27" s="188"/>
+      <c r="AC27" s="271"/>
+      <c r="AD27" s="272"/>
+      <c r="AE27" s="272"/>
+      <c r="AF27" s="272"/>
+      <c r="AG27" s="256"/>
+      <c r="AH27" s="250"/>
+      <c r="AI27" s="251"/>
+      <c r="AJ27" s="251"/>
+      <c r="AK27" s="251"/>
+      <c r="AL27" s="251"/>
+      <c r="AM27" s="251"/>
+      <c r="AN27" s="273"/>
+      <c r="AO27" s="257"/>
+      <c r="AP27" s="258"/>
+      <c r="AQ27" s="258"/>
+      <c r="AR27" s="258"/>
+      <c r="AS27" s="258"/>
+      <c r="AT27" s="258"/>
+      <c r="AU27" s="258"/>
+      <c r="AV27" s="258"/>
+      <c r="AW27" s="258"/>
+      <c r="AX27" s="258"/>
+      <c r="AY27" s="258"/>
+      <c r="AZ27" s="258"/>
+      <c r="BA27" s="258"/>
+      <c r="BB27" s="258"/>
+      <c r="BC27" s="258"/>
+      <c r="BD27" s="258"/>
+      <c r="BE27" s="258"/>
+      <c r="BF27" s="258"/>
+      <c r="BG27" s="258"/>
+      <c r="BH27" s="258"/>
+      <c r="BI27" s="258"/>
+      <c r="BJ27" s="258"/>
+      <c r="BK27" s="258"/>
+      <c r="BL27" s="259"/>
+      <c r="BM27" s="274"/>
+      <c r="BN27" s="275"/>
     </row>
     <row r="28" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="124"/>
-      <c r="B28" s="189"/>
-      <c r="C28" s="190"/>
-      <c r="D28" s="190"/>
-      <c r="E28" s="190"/>
-      <c r="F28" s="190"/>
-      <c r="G28" s="190"/>
-      <c r="H28" s="190"/>
-      <c r="I28" s="190"/>
-      <c r="J28" s="190"/>
-      <c r="K28" s="190"/>
-      <c r="L28" s="191"/>
-      <c r="M28" s="184"/>
-      <c r="N28" s="185"/>
-      <c r="O28" s="185"/>
-      <c r="P28" s="186"/>
-      <c r="Q28" s="210"/>
-      <c r="R28" s="211"/>
-      <c r="S28" s="183"/>
-      <c r="T28" s="182"/>
-      <c r="U28" s="184"/>
-      <c r="V28" s="186"/>
+      <c r="B28" s="247"/>
+      <c r="C28" s="248"/>
+      <c r="D28" s="248"/>
+      <c r="E28" s="248"/>
+      <c r="F28" s="248"/>
+      <c r="G28" s="248"/>
+      <c r="H28" s="248"/>
+      <c r="I28" s="248"/>
+      <c r="J28" s="248"/>
+      <c r="K28" s="248"/>
+      <c r="L28" s="249"/>
+      <c r="M28" s="250"/>
+      <c r="N28" s="251"/>
+      <c r="O28" s="251"/>
+      <c r="P28" s="252"/>
+      <c r="Q28" s="269"/>
+      <c r="R28" s="270"/>
+      <c r="S28" s="255"/>
+      <c r="T28" s="256"/>
+      <c r="U28" s="250"/>
+      <c r="V28" s="252"/>
       <c r="W28" s="118"/>
       <c r="X28" s="119"/>
       <c r="Y28" s="127"/>
       <c r="Z28" s="120"/>
       <c r="AA28" s="120"/>
       <c r="AB28" s="121"/>
-      <c r="AC28" s="212"/>
-      <c r="AD28" s="213"/>
-      <c r="AE28" s="213"/>
-      <c r="AF28" s="213"/>
-      <c r="AG28" s="182"/>
-      <c r="AH28" s="184"/>
-      <c r="AI28" s="185"/>
-      <c r="AJ28" s="185"/>
-      <c r="AK28" s="185"/>
-      <c r="AL28" s="185"/>
-      <c r="AM28" s="185"/>
-      <c r="AN28" s="214"/>
-      <c r="AO28" s="207"/>
-      <c r="AP28" s="208"/>
-      <c r="AQ28" s="208"/>
-      <c r="AR28" s="208"/>
-      <c r="AS28" s="208"/>
-      <c r="AT28" s="208"/>
-      <c r="AU28" s="208"/>
-      <c r="AV28" s="208"/>
-      <c r="AW28" s="208"/>
-      <c r="AX28" s="208"/>
-      <c r="AY28" s="208"/>
-      <c r="AZ28" s="208"/>
-      <c r="BA28" s="208"/>
-      <c r="BB28" s="208"/>
-      <c r="BC28" s="208"/>
-      <c r="BD28" s="208"/>
-      <c r="BE28" s="208"/>
-      <c r="BF28" s="208"/>
-      <c r="BG28" s="208"/>
-      <c r="BH28" s="208"/>
-      <c r="BI28" s="208"/>
-      <c r="BJ28" s="208"/>
-      <c r="BK28" s="208"/>
-      <c r="BL28" s="209"/>
-      <c r="BM28" s="187"/>
-      <c r="BN28" s="188"/>
+      <c r="AC28" s="271"/>
+      <c r="AD28" s="272"/>
+      <c r="AE28" s="272"/>
+      <c r="AF28" s="272"/>
+      <c r="AG28" s="256"/>
+      <c r="AH28" s="250"/>
+      <c r="AI28" s="251"/>
+      <c r="AJ28" s="251"/>
+      <c r="AK28" s="251"/>
+      <c r="AL28" s="251"/>
+      <c r="AM28" s="251"/>
+      <c r="AN28" s="273"/>
+      <c r="AO28" s="257"/>
+      <c r="AP28" s="258"/>
+      <c r="AQ28" s="258"/>
+      <c r="AR28" s="258"/>
+      <c r="AS28" s="258"/>
+      <c r="AT28" s="258"/>
+      <c r="AU28" s="258"/>
+      <c r="AV28" s="258"/>
+      <c r="AW28" s="258"/>
+      <c r="AX28" s="258"/>
+      <c r="AY28" s="258"/>
+      <c r="AZ28" s="258"/>
+      <c r="BA28" s="258"/>
+      <c r="BB28" s="258"/>
+      <c r="BC28" s="258"/>
+      <c r="BD28" s="258"/>
+      <c r="BE28" s="258"/>
+      <c r="BF28" s="258"/>
+      <c r="BG28" s="258"/>
+      <c r="BH28" s="258"/>
+      <c r="BI28" s="258"/>
+      <c r="BJ28" s="258"/>
+      <c r="BK28" s="258"/>
+      <c r="BL28" s="259"/>
+      <c r="BM28" s="274"/>
+      <c r="BN28" s="275"/>
     </row>
     <row r="29" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="128"/>
-      <c r="B29" s="189"/>
-      <c r="C29" s="190"/>
-      <c r="D29" s="190"/>
-      <c r="E29" s="190"/>
-      <c r="F29" s="190"/>
-      <c r="G29" s="190"/>
-      <c r="H29" s="190"/>
-      <c r="I29" s="190"/>
-      <c r="J29" s="190"/>
-      <c r="K29" s="190"/>
-      <c r="L29" s="191"/>
-      <c r="M29" s="192"/>
-      <c r="N29" s="193"/>
-      <c r="O29" s="193"/>
-      <c r="P29" s="194"/>
-      <c r="Q29" s="195"/>
-      <c r="R29" s="196"/>
-      <c r="S29" s="197"/>
-      <c r="T29" s="198"/>
-      <c r="U29" s="192"/>
-      <c r="V29" s="194"/>
+      <c r="B29" s="247"/>
+      <c r="C29" s="248"/>
+      <c r="D29" s="248"/>
+      <c r="E29" s="248"/>
+      <c r="F29" s="248"/>
+      <c r="G29" s="248"/>
+      <c r="H29" s="248"/>
+      <c r="I29" s="248"/>
+      <c r="J29" s="248"/>
+      <c r="K29" s="248"/>
+      <c r="L29" s="249"/>
+      <c r="M29" s="278"/>
+      <c r="N29" s="279"/>
+      <c r="O29" s="279"/>
+      <c r="P29" s="280"/>
+      <c r="Q29" s="281"/>
+      <c r="R29" s="282"/>
+      <c r="S29" s="283"/>
+      <c r="T29" s="284"/>
+      <c r="U29" s="278"/>
+      <c r="V29" s="280"/>
       <c r="W29" s="129"/>
       <c r="X29" s="130"/>
       <c r="Y29" s="131"/>
       <c r="Z29" s="132"/>
       <c r="AA29" s="132"/>
       <c r="AB29" s="133"/>
-      <c r="AC29" s="199"/>
-      <c r="AD29" s="200"/>
-      <c r="AE29" s="200"/>
-      <c r="AF29" s="200"/>
-      <c r="AG29" s="198"/>
-      <c r="AH29" s="192"/>
-      <c r="AI29" s="193"/>
-      <c r="AJ29" s="193"/>
-      <c r="AK29" s="193"/>
-      <c r="AL29" s="193"/>
-      <c r="AM29" s="193"/>
-      <c r="AN29" s="201"/>
-      <c r="AO29" s="202"/>
-      <c r="AP29" s="203"/>
-      <c r="AQ29" s="203"/>
-      <c r="AR29" s="203"/>
-      <c r="AS29" s="203"/>
-      <c r="AT29" s="203"/>
-      <c r="AU29" s="203"/>
-      <c r="AV29" s="203"/>
-      <c r="AW29" s="203"/>
-      <c r="AX29" s="203"/>
-      <c r="AY29" s="203"/>
-      <c r="AZ29" s="203"/>
-      <c r="BA29" s="203"/>
-      <c r="BB29" s="203"/>
-      <c r="BC29" s="203"/>
-      <c r="BD29" s="203"/>
-      <c r="BE29" s="203"/>
-      <c r="BF29" s="203"/>
-      <c r="BG29" s="203"/>
-      <c r="BH29" s="203"/>
-      <c r="BI29" s="203"/>
-      <c r="BJ29" s="203"/>
-      <c r="BK29" s="203"/>
-      <c r="BL29" s="204"/>
-      <c r="BM29" s="205"/>
-      <c r="BN29" s="206"/>
+      <c r="AC29" s="285"/>
+      <c r="AD29" s="286"/>
+      <c r="AE29" s="286"/>
+      <c r="AF29" s="286"/>
+      <c r="AG29" s="284"/>
+      <c r="AH29" s="278"/>
+      <c r="AI29" s="279"/>
+      <c r="AJ29" s="279"/>
+      <c r="AK29" s="279"/>
+      <c r="AL29" s="279"/>
+      <c r="AM29" s="279"/>
+      <c r="AN29" s="287"/>
+      <c r="AO29" s="288"/>
+      <c r="AP29" s="289"/>
+      <c r="AQ29" s="289"/>
+      <c r="AR29" s="289"/>
+      <c r="AS29" s="289"/>
+      <c r="AT29" s="289"/>
+      <c r="AU29" s="289"/>
+      <c r="AV29" s="289"/>
+      <c r="AW29" s="289"/>
+      <c r="AX29" s="289"/>
+      <c r="AY29" s="289"/>
+      <c r="AZ29" s="289"/>
+      <c r="BA29" s="289"/>
+      <c r="BB29" s="289"/>
+      <c r="BC29" s="289"/>
+      <c r="BD29" s="289"/>
+      <c r="BE29" s="289"/>
+      <c r="BF29" s="289"/>
+      <c r="BG29" s="289"/>
+      <c r="BH29" s="289"/>
+      <c r="BI29" s="289"/>
+      <c r="BJ29" s="289"/>
+      <c r="BK29" s="289"/>
+      <c r="BL29" s="290"/>
+      <c r="BM29" s="291"/>
+      <c r="BN29" s="292"/>
     </row>
   </sheetData>
   <mergeCells count="237">
-    <mergeCell ref="A2:AA3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:O4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4:AV4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="B29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="AC29:AG29"/>
+    <mergeCell ref="AH29:AN29"/>
+    <mergeCell ref="AO29:BL29"/>
+    <mergeCell ref="BM29:BN29"/>
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="AC28:AG28"/>
+    <mergeCell ref="AH28:AN28"/>
+    <mergeCell ref="AO28:BL28"/>
+    <mergeCell ref="BM28:BN28"/>
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="AC27:AG27"/>
+    <mergeCell ref="AH27:AN27"/>
+    <mergeCell ref="AO27:BL27"/>
+    <mergeCell ref="BM27:BN27"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="AC26:AG26"/>
+    <mergeCell ref="AH26:AN26"/>
+    <mergeCell ref="AO26:BL26"/>
+    <mergeCell ref="BM26:BN26"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="AC24:AG24"/>
+    <mergeCell ref="AO24:BL24"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="AO25:BL25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="AC25:AG25"/>
+    <mergeCell ref="AH25:AN25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="AH24:AN24"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="AC23:AG23"/>
+    <mergeCell ref="AH23:AN23"/>
+    <mergeCell ref="AO23:BL23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="AO21:BL21"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="AC22:AG22"/>
+    <mergeCell ref="B21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="AO22:BL22"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="AH22:AN22"/>
+    <mergeCell ref="AC21:AG21"/>
+    <mergeCell ref="AH21:AN21"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="Y20:AB20"/>
+    <mergeCell ref="AC20:AG20"/>
+    <mergeCell ref="AH20:AN20"/>
+    <mergeCell ref="AO20:BL20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="Y19:AB19"/>
+    <mergeCell ref="AC19:AG19"/>
+    <mergeCell ref="AH19:AN19"/>
+    <mergeCell ref="AO19:BL19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="AC17:AG17"/>
+    <mergeCell ref="AH17:AN17"/>
+    <mergeCell ref="AO17:BL17"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="AC18:AG18"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="AO18:BL18"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="AH18:AN18"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="Y16:AB16"/>
+    <mergeCell ref="AC16:AG16"/>
+    <mergeCell ref="AH16:AN16"/>
+    <mergeCell ref="AO16:BL16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="Y15:AB15"/>
+    <mergeCell ref="AC15:AG15"/>
+    <mergeCell ref="AH15:AN15"/>
+    <mergeCell ref="AO15:BL15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="AC13:AG13"/>
+    <mergeCell ref="AH13:AN13"/>
+    <mergeCell ref="AO13:BL13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="AC14:AG14"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="AH14:AN14"/>
+    <mergeCell ref="AO14:BL14"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="AC11:AG11"/>
+    <mergeCell ref="AH11:AN11"/>
+    <mergeCell ref="AO11:BL11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="AH12:AN12"/>
+    <mergeCell ref="AO12:BL12"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y11:AB11"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="AO9:BL9"/>
+    <mergeCell ref="BM9:BN9"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="AH10:AN10"/>
+    <mergeCell ref="AO10:BL10"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="AH9:AN9"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="G5:O5"/>
     <mergeCell ref="P5:U5"/>
@@ -15663,213 +16193,15 @@
     <mergeCell ref="Y8:AB8"/>
     <mergeCell ref="AC8:AG8"/>
     <mergeCell ref="AH8:AN8"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="AH9:AN9"/>
-    <mergeCell ref="AO9:BL9"/>
-    <mergeCell ref="BM9:BN9"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="AH10:AN10"/>
-    <mergeCell ref="AO10:BL10"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="AC11:AG11"/>
-    <mergeCell ref="AH11:AN11"/>
-    <mergeCell ref="AO11:BL11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="AC12:AG12"/>
-    <mergeCell ref="AH12:AN12"/>
-    <mergeCell ref="AO12:BL12"/>
-    <mergeCell ref="AC13:AG13"/>
-    <mergeCell ref="AH13:AN13"/>
-    <mergeCell ref="AO13:BL13"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="AC14:AG14"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="AH14:AN14"/>
-    <mergeCell ref="AO14:BL14"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="Y15:AB15"/>
-    <mergeCell ref="AC15:AG15"/>
-    <mergeCell ref="AH15:AN15"/>
-    <mergeCell ref="AO15:BL15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="Y16:AB16"/>
-    <mergeCell ref="AC16:AG16"/>
-    <mergeCell ref="AH16:AN16"/>
-    <mergeCell ref="AO16:BL16"/>
-    <mergeCell ref="AC17:AG17"/>
-    <mergeCell ref="AH17:AN17"/>
-    <mergeCell ref="AO17:BL17"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="AC18:AG18"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="AO18:BL18"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="Y19:AB19"/>
-    <mergeCell ref="AC19:AG19"/>
-    <mergeCell ref="AH19:AN19"/>
-    <mergeCell ref="AO19:BL19"/>
-    <mergeCell ref="B20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="Y20:AB20"/>
-    <mergeCell ref="AC20:AG20"/>
-    <mergeCell ref="AH20:AN20"/>
-    <mergeCell ref="AO20:BL20"/>
-    <mergeCell ref="AO21:BL21"/>
-    <mergeCell ref="B22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="AC22:AG22"/>
-    <mergeCell ref="B21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="AO22:BL22"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="AC23:AG23"/>
-    <mergeCell ref="AH23:AN23"/>
-    <mergeCell ref="AO23:BL23"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="AC24:AG24"/>
-    <mergeCell ref="AO24:BL24"/>
-    <mergeCell ref="B25:L25"/>
-    <mergeCell ref="AO25:BL25"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="AC26:AG26"/>
-    <mergeCell ref="AH26:AN26"/>
-    <mergeCell ref="AO26:BL26"/>
-    <mergeCell ref="BM26:BN26"/>
-    <mergeCell ref="B27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="AC27:AG27"/>
-    <mergeCell ref="AH27:AN27"/>
-    <mergeCell ref="AO27:BL27"/>
-    <mergeCell ref="BM27:BN27"/>
-    <mergeCell ref="B28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="AC28:AG28"/>
-    <mergeCell ref="AH28:AN28"/>
-    <mergeCell ref="AO28:BL28"/>
-    <mergeCell ref="BM28:BN28"/>
-    <mergeCell ref="B29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="AC29:AG29"/>
-    <mergeCell ref="AH29:AN29"/>
-    <mergeCell ref="AO29:BL29"/>
-    <mergeCell ref="BM29:BN29"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="AC25:AG25"/>
-    <mergeCell ref="AH25:AN25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y11:AB11"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="AH24:AN24"/>
-    <mergeCell ref="AH22:AN22"/>
-    <mergeCell ref="AC21:AG21"/>
-    <mergeCell ref="AH21:AN21"/>
-    <mergeCell ref="AH18:AN18"/>
+    <mergeCell ref="A2:AA3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:O4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BN4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
